--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11175,16 +11175,210 @@
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U164" s="2"/>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U165" s="2"/>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U166" s="2"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U168" s="2"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U169" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11049,7 +11054,7 @@
         <v>44034</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -11073,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -11203,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -11236,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -11274,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11301,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11370,15 +11375,81 @@
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U168" s="2"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U169" s="2"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U170" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 210 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 211 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9695,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -9728,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="U141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V141" s="5"/>
     </row>
@@ -10880,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -10916,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
@@ -10945,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -10981,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -11040,13 +11035,13 @@
         <v>0</v>
       </c>
       <c r="S161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T161">
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11093,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -11111,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U162" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
@@ -11205,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -11241,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -11273,13 +11268,13 @@
         <v>1</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11403,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -11436,20 +11431,85 @@
         <v>0</v>
       </c>
       <c r="U167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U168" s="2"/>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U169" s="2"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U170" s="2"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U171" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 211 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 210 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -11500,16 +11500,81 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U169" s="2"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U170" s="2"/>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U171" s="2"/>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U172" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="U168" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M169">
         <v>1</v>
@@ -11561,16 +11561,78 @@
         <v>0</v>
       </c>
       <c r="U169" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U170" s="2"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U171" s="2"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10857,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10911,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="U159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
@@ -10987,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -11041,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11247,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -11274,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11301,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11312,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -11366,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -11392,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -11431,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="U167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -11442,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -11469,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -11496,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="U168" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
@@ -11507,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -11561,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -11572,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -11587,13 +11592,13 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -11626,17 +11631,214 @@
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U171" s="2"/>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U172" s="2"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U175" s="2"/>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U176" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -488,7 +488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
+      <selection pane="bottomLeft" activeCell="U175" sqref="U175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6890,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="U98">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V98" s="5"/>
     </row>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7022,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V100" s="5"/>
     </row>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -10322,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="U150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V150" s="5"/>
     </row>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="U151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V151" s="5"/>
     </row>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -11046,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11184,7 +11184,7 @@
         <v>44036</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -11273,13 +11273,13 @@
         <v>1</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11657,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="O171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11728,13 +11728,13 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="U172" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -11769,7 +11769,7 @@
         <v>44045</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -11787,13 +11787,13 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="O173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -11826,15 +11826,78 @@
         <v>0</v>
       </c>
       <c r="U173">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U175" s="2"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -484,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U175" sqref="U175"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R177" sqref="R177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="U173">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -11891,17 +11891,85 @@
         <v>0</v>
       </c>
       <c r="U174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U175" s="2"/>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U176" s="2"/>
+    </row>
+    <row r="177" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U177" s="2"/>
+    </row>
+    <row r="178" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U178" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -132,8 +132,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -162,7 +168,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="26">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
@@ -183,6 +189,12 @@
     <cellStyle name="style1594992383916" xfId="18"/>
     <cellStyle name="style1594992383953" xfId="16"/>
     <cellStyle name="style1594992383971" xfId="19"/>
+    <cellStyle name="style1596634631433" xfId="20"/>
+    <cellStyle name="style1596634631453" xfId="23"/>
+    <cellStyle name="style1596634631506" xfId="21"/>
+    <cellStyle name="style1596634631525" xfId="24"/>
+    <cellStyle name="style1596634631572" xfId="22"/>
+    <cellStyle name="style1596634631591" xfId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:U178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R177" sqref="R177"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5716,7 +5728,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43953</v>
       </c>
@@ -5781,7 +5793,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43954</v>
       </c>
@@ -5846,7 +5858,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43955</v>
       </c>
@@ -5911,7 +5923,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43956</v>
       </c>
@@ -5976,7 +5988,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43957</v>
       </c>
@@ -6041,7 +6053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43958</v>
       </c>
@@ -6106,7 +6118,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43959</v>
       </c>
@@ -6171,7 +6183,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43960</v>
       </c>
@@ -6236,7 +6248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43961</v>
       </c>
@@ -6301,7 +6313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43962</v>
       </c>
@@ -6366,7 +6378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43963</v>
       </c>
@@ -6430,9 +6442,8 @@
       <c r="U91">
         <v>108</v>
       </c>
-      <c r="V91" s="5"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43964</v>
       </c>
@@ -6496,9 +6507,8 @@
       <c r="U92">
         <v>88</v>
       </c>
-      <c r="V92" s="5"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43965</v>
       </c>
@@ -6562,9 +6572,8 @@
       <c r="U93">
         <v>83</v>
       </c>
-      <c r="V93" s="5"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43966</v>
       </c>
@@ -6628,9 +6637,8 @@
       <c r="U94">
         <v>70</v>
       </c>
-      <c r="V94" s="5"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43967</v>
       </c>
@@ -6694,9 +6702,8 @@
       <c r="U95">
         <v>58</v>
       </c>
-      <c r="V95" s="5"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43968</v>
       </c>
@@ -6760,9 +6767,8 @@
       <c r="U96">
         <v>53</v>
       </c>
-      <c r="V96" s="5"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43969</v>
       </c>
@@ -6826,9 +6832,8 @@
       <c r="U97">
         <v>65</v>
       </c>
-      <c r="V97" s="5"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43970</v>
       </c>
@@ -6892,9 +6897,8 @@
       <c r="U98">
         <v>61</v>
       </c>
-      <c r="V98" s="5"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43971</v>
       </c>
@@ -6958,9 +6962,8 @@
       <c r="U99">
         <v>54</v>
       </c>
-      <c r="V99" s="5"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43972</v>
       </c>
@@ -7024,9 +7027,8 @@
       <c r="U100">
         <v>63</v>
       </c>
-      <c r="V100" s="5"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43973</v>
       </c>
@@ -7090,9 +7092,8 @@
       <c r="U101">
         <v>64</v>
       </c>
-      <c r="V101" s="5"/>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43974</v>
       </c>
@@ -7156,9 +7157,8 @@
       <c r="U102">
         <v>59</v>
       </c>
-      <c r="V102" s="5"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43975</v>
       </c>
@@ -7222,9 +7222,8 @@
       <c r="U103">
         <v>51</v>
       </c>
-      <c r="V103" s="5"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43976</v>
       </c>
@@ -7288,9 +7287,8 @@
       <c r="U104">
         <v>56</v>
       </c>
-      <c r="V104" s="5"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43977</v>
       </c>
@@ -7354,9 +7352,8 @@
       <c r="U105">
         <v>42</v>
       </c>
-      <c r="V105" s="5"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43978</v>
       </c>
@@ -7420,9 +7417,8 @@
       <c r="U106">
         <v>35</v>
       </c>
-      <c r="V106" s="5"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43979</v>
       </c>
@@ -7445,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>5</v>
@@ -7484,11 +7480,10 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>34</v>
-      </c>
-      <c r="V107" s="5"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43980</v>
       </c>
@@ -7552,9 +7547,8 @@
       <c r="U108">
         <v>37</v>
       </c>
-      <c r="V108" s="5"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43981</v>
       </c>
@@ -7618,9 +7612,8 @@
       <c r="U109">
         <v>39</v>
       </c>
-      <c r="V109" s="5"/>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43982</v>
       </c>
@@ -7684,9 +7677,8 @@
       <c r="U110">
         <v>32</v>
       </c>
-      <c r="V110" s="5"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43983</v>
       </c>
@@ -7750,9 +7742,8 @@
       <c r="U111">
         <v>24</v>
       </c>
-      <c r="V111" s="5"/>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43984</v>
       </c>
@@ -7816,9 +7807,8 @@
       <c r="U112">
         <v>34</v>
       </c>
-      <c r="V112" s="5"/>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43985</v>
       </c>
@@ -7882,9 +7872,8 @@
       <c r="U113">
         <v>24</v>
       </c>
-      <c r="V113" s="5"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43986</v>
       </c>
@@ -7948,9 +7937,8 @@
       <c r="U114">
         <v>33</v>
       </c>
-      <c r="V114" s="5"/>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43987</v>
       </c>
@@ -8014,9 +8002,8 @@
       <c r="U115">
         <v>16</v>
       </c>
-      <c r="V115" s="5"/>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43988</v>
       </c>
@@ -8080,9 +8067,8 @@
       <c r="U116">
         <v>21</v>
       </c>
-      <c r="V116" s="5"/>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43989</v>
       </c>
@@ -8146,9 +8132,8 @@
       <c r="U117">
         <v>13</v>
       </c>
-      <c r="V117" s="5"/>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43990</v>
       </c>
@@ -8212,9 +8197,8 @@
       <c r="U118">
         <v>18</v>
       </c>
-      <c r="V118" s="5"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43991</v>
       </c>
@@ -8278,9 +8262,8 @@
       <c r="U119">
         <v>11</v>
       </c>
-      <c r="V119" s="5"/>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43992</v>
       </c>
@@ -8344,9 +8327,8 @@
       <c r="U120">
         <v>25</v>
       </c>
-      <c r="V120" s="5"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43993</v>
       </c>
@@ -8410,9 +8392,8 @@
       <c r="U121">
         <v>15</v>
       </c>
-      <c r="V121" s="5"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43994</v>
       </c>
@@ -8476,9 +8457,8 @@
       <c r="U122">
         <v>9</v>
       </c>
-      <c r="V122" s="5"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43995</v>
       </c>
@@ -8542,9 +8522,8 @@
       <c r="U123">
         <v>10</v>
       </c>
-      <c r="V123" s="5"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43996</v>
       </c>
@@ -8608,9 +8587,8 @@
       <c r="U124">
         <v>9</v>
       </c>
-      <c r="V124" s="5"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43997</v>
       </c>
@@ -8674,9 +8652,8 @@
       <c r="U125">
         <v>9</v>
       </c>
-      <c r="V125" s="5"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43998</v>
       </c>
@@ -8740,9 +8717,8 @@
       <c r="U126">
         <v>6</v>
       </c>
-      <c r="V126" s="5"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43999</v>
       </c>
@@ -8806,9 +8782,8 @@
       <c r="U127">
         <v>6</v>
       </c>
-      <c r="V127" s="5"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44000</v>
       </c>
@@ -8872,9 +8847,8 @@
       <c r="U128">
         <v>3</v>
       </c>
-      <c r="V128" s="5"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44001</v>
       </c>
@@ -8938,9 +8912,8 @@
       <c r="U129">
         <v>3</v>
       </c>
-      <c r="V129" s="5"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44002</v>
       </c>
@@ -9004,9 +8977,8 @@
       <c r="U130">
         <v>3</v>
       </c>
-      <c r="V130" s="5"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44003</v>
       </c>
@@ -9070,9 +9042,8 @@
       <c r="U131">
         <v>5</v>
       </c>
-      <c r="V131" s="5"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44004</v>
       </c>
@@ -9136,9 +9107,8 @@
       <c r="U132">
         <v>0</v>
       </c>
-      <c r="V132" s="5"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44005</v>
       </c>
@@ -9202,9 +9172,8 @@
       <c r="U133">
         <v>4</v>
       </c>
-      <c r="V133" s="5"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44006</v>
       </c>
@@ -9268,9 +9237,8 @@
       <c r="U134">
         <v>1</v>
       </c>
-      <c r="V134" s="5"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44007</v>
       </c>
@@ -9334,9 +9302,8 @@
       <c r="U135">
         <v>5</v>
       </c>
-      <c r="V135" s="5"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44008</v>
       </c>
@@ -9400,9 +9367,8 @@
       <c r="U136">
         <v>4</v>
       </c>
-      <c r="V136" s="5"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44009</v>
       </c>
@@ -9466,9 +9432,8 @@
       <c r="U137">
         <v>1</v>
       </c>
-      <c r="V137" s="5"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44010</v>
       </c>
@@ -9491,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -9530,11 +9495,10 @@
         <v>0</v>
       </c>
       <c r="U138">
-        <v>7</v>
-      </c>
-      <c r="V138" s="5"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44011</v>
       </c>
@@ -9598,9 +9562,8 @@
       <c r="U139">
         <v>6</v>
       </c>
-      <c r="V139" s="5"/>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44012</v>
       </c>
@@ -9664,9 +9627,8 @@
       <c r="U140">
         <v>3</v>
       </c>
-      <c r="V140" s="5"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44013</v>
       </c>
@@ -9730,9 +9692,8 @@
       <c r="U141">
         <v>5</v>
       </c>
-      <c r="V141" s="5"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44014</v>
       </c>
@@ -9796,9 +9757,8 @@
       <c r="U142">
         <v>0</v>
       </c>
-      <c r="V142" s="5"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44015</v>
       </c>
@@ -9862,9 +9822,8 @@
       <c r="U143">
         <v>1</v>
       </c>
-      <c r="V143" s="5"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44016</v>
       </c>
@@ -9928,9 +9887,8 @@
       <c r="U144">
         <v>3</v>
       </c>
-      <c r="V144" s="5"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44017</v>
       </c>
@@ -9994,9 +9952,8 @@
       <c r="U145">
         <v>0</v>
       </c>
-      <c r="V145" s="5"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44018</v>
       </c>
@@ -10060,9 +10017,8 @@
       <c r="U146">
         <v>2</v>
       </c>
-      <c r="V146" s="5"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44019</v>
       </c>
@@ -10126,9 +10082,8 @@
       <c r="U147">
         <v>2</v>
       </c>
-      <c r="V147" s="5"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44020</v>
       </c>
@@ -10192,9 +10147,8 @@
       <c r="U148">
         <v>2</v>
       </c>
-      <c r="V148" s="5"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44021</v>
       </c>
@@ -10258,9 +10212,8 @@
       <c r="U149">
         <v>2</v>
       </c>
-      <c r="V149" s="5"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44022</v>
       </c>
@@ -10324,9 +10277,8 @@
       <c r="U150">
         <v>2</v>
       </c>
-      <c r="V150" s="5"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44023</v>
       </c>
@@ -10390,9 +10342,8 @@
       <c r="U151">
         <v>2</v>
       </c>
-      <c r="V151" s="5"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44024</v>
       </c>
@@ -10456,9 +10407,8 @@
       <c r="U152">
         <v>1</v>
       </c>
-      <c r="V152" s="5"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44025</v>
       </c>
@@ -10522,9 +10472,8 @@
       <c r="U153">
         <v>2</v>
       </c>
-      <c r="V153" s="5"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44026</v>
       </c>
@@ -10588,9 +10537,8 @@
       <c r="U154">
         <v>1</v>
       </c>
-      <c r="V154" s="5"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44027</v>
       </c>
@@ -10654,9 +10602,8 @@
       <c r="U155">
         <v>5</v>
       </c>
-      <c r="V155" s="5"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44028</v>
       </c>
@@ -10720,9 +10667,8 @@
       <c r="U156">
         <v>0</v>
       </c>
-      <c r="V156" s="5"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44029</v>
       </c>
@@ -10786,9 +10732,8 @@
       <c r="U157">
         <v>2</v>
       </c>
-      <c r="V157" s="2"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44030</v>
       </c>
@@ -10852,9 +10797,8 @@
       <c r="U158">
         <v>2</v>
       </c>
-      <c r="V158" s="2"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44031</v>
       </c>
@@ -10919,7 +10863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44032</v>
       </c>
@@ -11960,15 +11904,77 @@
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U176" s="2"/>
-    </row>
-    <row r="177" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U177" s="2"/>
     </row>
-    <row r="178" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U178" s="2"/>
     </row>
   </sheetData>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 210 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 211 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -132,8 +132,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -168,7 +174,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="32">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
@@ -195,6 +201,12 @@
     <cellStyle name="style1596634631525" xfId="24"/>
     <cellStyle name="style1596634631572" xfId="22"/>
     <cellStyle name="style1596634631591" xfId="25"/>
+    <cellStyle name="style1596809114744" xfId="26"/>
+    <cellStyle name="style1596809114762" xfId="29"/>
+    <cellStyle name="style1596809114807" xfId="27"/>
+    <cellStyle name="style1596809114826" xfId="30"/>
+    <cellStyle name="style1596809114867" xfId="28"/>
+    <cellStyle name="style1596809114887" xfId="31"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U178"/>
+  <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7025,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7051,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -7090,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="U101">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -9852,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -9885,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="U144">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -10989,7 +11001,7 @@
       <c r="T161">
         <v>0</v>
       </c>
-      <c r="U161" s="2">
+      <c r="U161">
         <v>3</v>
       </c>
     </row>
@@ -11054,7 +11066,7 @@
       <c r="T162">
         <v>0</v>
       </c>
-      <c r="U162" s="2">
+      <c r="U162">
         <v>2</v>
       </c>
     </row>
@@ -11119,7 +11131,7 @@
       <c r="T163">
         <v>0</v>
       </c>
-      <c r="U163" s="2">
+      <c r="U163">
         <v>0</v>
       </c>
     </row>
@@ -11184,7 +11196,7 @@
       <c r="T164">
         <v>0</v>
       </c>
-      <c r="U164" s="2">
+      <c r="U164">
         <v>5</v>
       </c>
     </row>
@@ -11249,7 +11261,7 @@
       <c r="T165">
         <v>0</v>
       </c>
-      <c r="U165" s="2">
+      <c r="U165">
         <v>7</v>
       </c>
     </row>
@@ -11314,7 +11326,7 @@
       <c r="T166">
         <v>0</v>
       </c>
-      <c r="U166" s="2">
+      <c r="U166">
         <v>6</v>
       </c>
     </row>
@@ -11444,7 +11456,7 @@
       <c r="T168">
         <v>0</v>
       </c>
-      <c r="U168" s="2">
+      <c r="U168">
         <v>11</v>
       </c>
     </row>
@@ -11509,7 +11521,7 @@
       <c r="T169">
         <v>0</v>
       </c>
-      <c r="U169" s="2">
+      <c r="U169">
         <v>4</v>
       </c>
     </row>
@@ -11574,7 +11586,7 @@
       <c r="T170">
         <v>0</v>
       </c>
-      <c r="U170" s="2">
+      <c r="U170">
         <v>7</v>
       </c>
     </row>
@@ -11639,7 +11651,7 @@
       <c r="T171">
         <v>0</v>
       </c>
-      <c r="U171" s="2">
+      <c r="U171">
         <v>3</v>
       </c>
     </row>
@@ -11704,7 +11716,7 @@
       <c r="T172">
         <v>0</v>
       </c>
-      <c r="U172" s="2">
+      <c r="U172">
         <v>3</v>
       </c>
     </row>
@@ -11899,7 +11911,7 @@
       <c r="T175">
         <v>0</v>
       </c>
-      <c r="U175" s="2">
+      <c r="U175">
         <v>0</v>
       </c>
     </row>
@@ -11964,18 +11976,86 @@
       <c r="T176">
         <v>0</v>
       </c>
-      <c r="U176" s="2">
+      <c r="U176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U177" s="2"/>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U178" s="2"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U179" s="2"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U180" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 211 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 218 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U180"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6868,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6907,7 +6902,7 @@
         <v>3</v>
       </c>
       <c r="U98">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7063,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -7102,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="U101">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -7128,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I102">
         <v>5</v>
@@ -7167,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="U102">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -7243,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7297,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="U104">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7373,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -7427,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="U106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7453,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>5</v>
@@ -7492,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -8023,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -8077,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -9453,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -9507,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="U138">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -9778,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9832,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="U143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -9843,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -9897,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="U144">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -9973,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -10027,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -10103,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -10157,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -10883,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -10937,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -10948,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -11002,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="U161">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11078,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -11132,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="U163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
@@ -11208,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -11226,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>3</v>
@@ -11262,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="U165">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11468,61 +11463,61 @@
         <v>0</v>
       </c>
       <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
         <v>3</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>1</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>0</v>
-      </c>
-      <c r="S169">
-        <v>0</v>
-      </c>
-      <c r="T169">
-        <v>0</v>
-      </c>
-      <c r="U169">
-        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -11598,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -11652,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="U171">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11663,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -11717,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="U172">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -11728,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -11743,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -11782,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="U173">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -11793,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -11808,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -11847,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="U174">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -11858,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -11912,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="U175">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -11923,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -11944,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -11977,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -11985,16 +11980,16 @@
         <v>44049</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -12006,10 +12001,10 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -12024,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -12042,20 +12037,214 @@
         <v>0</v>
       </c>
       <c r="U177">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>4</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>2</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U178" s="2"/>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U179" s="2"/>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U180" s="2"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U182" s="2"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U183" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U183"/>
+  <dimension ref="A1:U184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -11842,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="U174">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="U177">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -12063,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
@@ -12110,7 +12110,7 @@
         <v>44051</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -12128,10 +12128,10 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -12232,19 +12232,85 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U183" s="2"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U184" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U184"/>
+  <dimension ref="A1:U185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -791,7 +791,7 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -856,7 +856,7 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -986,7 +986,7 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="2">
         <v>14</v>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="T27">
         <v>1</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="2">
         <v>16</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="2">
         <v>26</v>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="2">
         <v>55</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       <c r="T31">
         <v>1</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="2">
         <v>78</v>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="2">
         <v>104</v>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="2">
         <v>129</v>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="2">
         <v>176</v>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="2">
         <v>186</v>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="2">
         <v>234</v>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       <c r="T37">
         <v>4</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="2">
         <v>307</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="T38">
         <v>12</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="2">
         <v>418</v>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="T39">
         <v>9</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="2">
         <v>494</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="2">
         <v>535</v>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="T41">
         <v>9</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="2">
         <v>659</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       <c r="T42">
         <v>6</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="2">
         <v>707</v>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       <c r="T43">
         <v>13</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="2">
         <v>782</v>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="T44">
         <v>9</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="2">
         <v>843</v>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="T45">
         <v>6</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="2">
         <v>877</v>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       <c r="T46">
         <v>6</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="2">
         <v>814</v>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       <c r="T47">
         <v>7</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="2">
         <v>788</v>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="T48">
         <v>10</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="2">
         <v>888</v>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       <c r="T49">
         <v>13</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="2">
         <v>870</v>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       <c r="T50">
         <v>6</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="2">
         <v>868</v>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       <c r="T51">
         <v>15</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="2">
         <v>814</v>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       <c r="T52">
         <v>16</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="2">
         <v>759</v>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       <c r="T53">
         <v>11</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="2">
         <v>708</v>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       <c r="T54">
         <v>11</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="2">
         <v>724</v>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       <c r="T55">
         <v>14</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="2">
         <v>733</v>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       <c r="T56">
         <v>15</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="2">
         <v>713</v>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       <c r="T57">
         <v>15</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="2">
         <v>713</v>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       <c r="T58">
         <v>7</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="2">
         <v>642</v>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       <c r="T59">
         <v>9</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="2">
         <v>643</v>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       <c r="T60">
         <v>4</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="2">
         <v>593</v>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       <c r="T61">
         <v>5</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="2">
         <v>521</v>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       <c r="T62">
         <v>12</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="2">
         <v>563</v>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       <c r="T63">
         <v>11</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="2">
         <v>575</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       <c r="T64">
         <v>8</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="2">
         <v>526</v>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       <c r="T65">
         <v>8</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="2">
         <v>463</v>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       <c r="T66">
         <v>8</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="2">
         <v>476</v>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       <c r="T67">
         <v>5</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="2">
         <v>410</v>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       <c r="T68">
         <v>8</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="2">
         <v>375</v>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       <c r="T69">
         <v>3</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="2">
         <v>359</v>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       <c r="T70">
         <v>5</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="2">
         <v>396</v>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       <c r="T71">
         <v>5</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="2">
         <v>318</v>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       <c r="T72">
         <v>2</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="2">
         <v>300</v>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       <c r="T73">
         <v>5</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="2">
         <v>313</v>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       <c r="T74">
         <v>3</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="2">
         <v>280</v>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       <c r="T75">
         <v>5</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="2">
         <v>259</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       <c r="T76">
         <v>4</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="2">
         <v>250</v>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="T77">
         <v>1</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="2">
         <v>247</v>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="T78">
         <v>2</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="2">
         <v>224</v>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="T79">
         <v>1</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="2">
         <v>206</v>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="T80">
         <v>0</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="2">
         <v>170</v>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="T81">
         <v>1</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="2">
         <v>191</v>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="T82">
         <v>1</v>
       </c>
-      <c r="U82">
+      <c r="U82" s="2">
         <v>185</v>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="T83">
         <v>1</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="2">
         <v>177</v>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       <c r="T84">
         <v>1</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="2">
         <v>175</v>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       <c r="T85">
         <v>1</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="2">
         <v>147</v>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       <c r="T86">
         <v>4</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="2">
         <v>158</v>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       <c r="T87">
         <v>2</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="2">
         <v>140</v>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       <c r="T88">
         <v>2</v>
       </c>
-      <c r="U88">
+      <c r="U88" s="2">
         <v>121</v>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       <c r="T89">
         <v>1</v>
       </c>
-      <c r="U89">
+      <c r="U89" s="2">
         <v>106</v>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       <c r="T90" s="5">
         <v>1</v>
       </c>
-      <c r="U90">
+      <c r="U90" s="2">
         <v>118</v>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       <c r="T91">
         <v>0</v>
       </c>
-      <c r="U91">
+      <c r="U91" s="2">
         <v>108</v>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       <c r="T92">
         <v>0</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="2">
         <v>88</v>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="T93">
         <v>0</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="2">
         <v>83</v>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       <c r="T94">
         <v>1</v>
       </c>
-      <c r="U94">
+      <c r="U94" s="2">
         <v>70</v>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       <c r="T95">
         <v>2</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="2">
         <v>58</v>
       </c>
     </row>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T96">
         <v>1</v>
       </c>
-      <c r="U96">
-        <v>53</v>
+      <c r="U96" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6836,7 +6836,7 @@
       <c r="T97">
         <v>1</v>
       </c>
-      <c r="U97">
+      <c r="U97" s="2">
         <v>65</v>
       </c>
     </row>
@@ -6896,13 +6896,13 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
-      <c r="U98">
-        <v>60</v>
+      <c r="U98" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
       <c r="T99">
         <v>0</v>
       </c>
-      <c r="U99">
+      <c r="U99" s="2">
         <v>54</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       <c r="T100">
         <v>3</v>
       </c>
-      <c r="U100">
+      <c r="U100" s="2">
         <v>62</v>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       <c r="T101">
         <v>1</v>
       </c>
-      <c r="U101">
+      <c r="U101" s="2">
         <v>64</v>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       <c r="T102">
         <v>1</v>
       </c>
-      <c r="U102">
+      <c r="U102" s="2">
         <v>58</v>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       <c r="T103">
         <v>0</v>
       </c>
-      <c r="U103">
+      <c r="U103" s="2">
         <v>51</v>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       <c r="T104">
         <v>0</v>
       </c>
-      <c r="U104">
+      <c r="U104" s="2">
         <v>54</v>
       </c>
     </row>
@@ -7356,7 +7356,7 @@
       <c r="T105">
         <v>0</v>
       </c>
-      <c r="U105">
+      <c r="U105" s="2">
         <v>42</v>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       <c r="T106">
         <v>0</v>
       </c>
-      <c r="U106">
+      <c r="U106" s="2">
         <v>34</v>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       <c r="T107">
         <v>0</v>
       </c>
-      <c r="U107">
+      <c r="U107" s="2">
         <v>34</v>
       </c>
     </row>
@@ -7546,13 +7546,13 @@
         <v>0</v>
       </c>
       <c r="S108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
-      <c r="U108">
-        <v>37</v>
+      <c r="U108" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
       <c r="T109">
         <v>1</v>
       </c>
-      <c r="U109">
+      <c r="U109" s="2">
         <v>39</v>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       <c r="T110">
         <v>0</v>
       </c>
-      <c r="U110">
+      <c r="U110" s="2">
         <v>32</v>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       <c r="T111">
         <v>0</v>
       </c>
-      <c r="U111">
+      <c r="U111" s="2">
         <v>24</v>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       <c r="T112">
         <v>0</v>
       </c>
-      <c r="U112">
+      <c r="U112" s="2">
         <v>34</v>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       <c r="T113">
         <v>1</v>
       </c>
-      <c r="U113">
+      <c r="U113" s="2">
         <v>24</v>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       <c r="T114">
         <v>0</v>
       </c>
-      <c r="U114">
+      <c r="U114" s="2">
         <v>33</v>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       <c r="T115">
         <v>1</v>
       </c>
-      <c r="U115">
+      <c r="U115" s="2">
         <v>16</v>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       <c r="T116">
         <v>0</v>
       </c>
-      <c r="U116">
+      <c r="U116" s="2">
         <v>20</v>
       </c>
     </row>
@@ -8131,13 +8131,13 @@
         <v>0</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
-      <c r="U117">
-        <v>13</v>
+      <c r="U117" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -8196,13 +8196,13 @@
         <v>0</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
-      <c r="U118">
-        <v>18</v>
+      <c r="U118" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8266,7 +8266,7 @@
       <c r="T119">
         <v>0</v>
       </c>
-      <c r="U119">
+      <c r="U119" s="2">
         <v>11</v>
       </c>
     </row>
@@ -8326,13 +8326,13 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T120">
         <v>0</v>
       </c>
-      <c r="U120">
-        <v>25</v>
+      <c r="U120" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8396,7 +8396,7 @@
       <c r="T121">
         <v>0</v>
       </c>
-      <c r="U121">
+      <c r="U121" s="2">
         <v>15</v>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       <c r="T122">
         <v>0</v>
       </c>
-      <c r="U122">
+      <c r="U122" s="2">
         <v>9</v>
       </c>
     </row>
@@ -8521,13 +8521,13 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T123">
         <v>0</v>
       </c>
-      <c r="U123">
-        <v>10</v>
+      <c r="U123" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -8591,7 +8591,7 @@
       <c r="T124">
         <v>0</v>
       </c>
-      <c r="U124">
+      <c r="U124" s="2">
         <v>9</v>
       </c>
     </row>
@@ -8656,7 +8656,7 @@
       <c r="T125">
         <v>0</v>
       </c>
-      <c r="U125">
+      <c r="U125" s="2">
         <v>9</v>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="T126">
         <v>0</v>
       </c>
-      <c r="U126">
+      <c r="U126" s="2">
         <v>6</v>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
       <c r="T127">
         <v>0</v>
       </c>
-      <c r="U127">
+      <c r="U127" s="2">
         <v>6</v>
       </c>
     </row>
@@ -8846,13 +8846,13 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
-      <c r="U128">
-        <v>3</v>
+      <c r="U128" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -8916,7 +8916,7 @@
       <c r="T129">
         <v>0</v>
       </c>
-      <c r="U129">
+      <c r="U129" s="2">
         <v>3</v>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       <c r="T130">
         <v>0</v>
       </c>
-      <c r="U130">
+      <c r="U130" s="2">
         <v>3</v>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       <c r="T131">
         <v>0</v>
       </c>
-      <c r="U131">
+      <c r="U131" s="2">
         <v>5</v>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       <c r="T132">
         <v>0</v>
       </c>
-      <c r="U132">
+      <c r="U132" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9171,13 +9171,13 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T133">
         <v>0</v>
       </c>
-      <c r="U133">
-        <v>4</v>
+      <c r="U133" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -9241,7 +9241,7 @@
       <c r="T134">
         <v>0</v>
       </c>
-      <c r="U134">
+      <c r="U134" s="2">
         <v>1</v>
       </c>
     </row>
@@ -9306,7 +9306,7 @@
       <c r="T135">
         <v>0</v>
       </c>
-      <c r="U135">
+      <c r="U135" s="2">
         <v>5</v>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="T136">
         <v>1</v>
       </c>
-      <c r="U136">
+      <c r="U136" s="2">
         <v>4</v>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="T137">
         <v>0</v>
       </c>
-      <c r="U137">
+      <c r="U137" s="2">
         <v>1</v>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       <c r="T138">
         <v>0</v>
       </c>
-      <c r="U138">
+      <c r="U138" s="2">
         <v>7</v>
       </c>
     </row>
@@ -9561,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139">
         <v>0</v>
       </c>
-      <c r="U139">
-        <v>6</v>
+      <c r="U139" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -9631,7 +9631,7 @@
       <c r="T140">
         <v>0</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="2">
         <v>3</v>
       </c>
     </row>
@@ -9691,13 +9691,13 @@
         <v>0</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T141">
         <v>0</v>
       </c>
-      <c r="U141">
-        <v>5</v>
+      <c r="U141" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
       <c r="T142">
         <v>0</v>
       </c>
-      <c r="U142">
+      <c r="U142" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
       <c r="T143">
         <v>0</v>
       </c>
-      <c r="U143">
+      <c r="U143" s="2">
         <v>3</v>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       <c r="T144">
         <v>0</v>
       </c>
-      <c r="U144">
+      <c r="U144" s="2">
         <v>3</v>
       </c>
     </row>
@@ -9956,7 +9956,7 @@
       <c r="T145">
         <v>0</v>
       </c>
-      <c r="U145">
+      <c r="U145" s="2">
         <v>0</v>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       <c r="T146">
         <v>0</v>
       </c>
-      <c r="U146">
+      <c r="U146" s="2">
         <v>3</v>
       </c>
     </row>
@@ -10086,7 +10086,7 @@
       <c r="T147">
         <v>0</v>
       </c>
-      <c r="U147">
+      <c r="U147" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       <c r="T148">
         <v>0</v>
       </c>
-      <c r="U148">
+      <c r="U148" s="2">
         <v>3</v>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       <c r="T149">
         <v>0</v>
       </c>
-      <c r="U149">
+      <c r="U149" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       <c r="T150">
         <v>0</v>
       </c>
-      <c r="U150">
+      <c r="U150" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10346,7 +10346,7 @@
       <c r="T151">
         <v>0</v>
       </c>
-      <c r="U151">
+      <c r="U151" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
       <c r="T152">
         <v>0</v>
       </c>
-      <c r="U152">
+      <c r="U152" s="2">
         <v>1</v>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       <c r="T153">
         <v>0</v>
       </c>
-      <c r="U153">
+      <c r="U153" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       <c r="T154">
         <v>0</v>
       </c>
-      <c r="U154">
+      <c r="U154" s="2">
         <v>1</v>
       </c>
     </row>
@@ -10606,7 +10606,7 @@
       <c r="T155">
         <v>0</v>
       </c>
-      <c r="U155">
+      <c r="U155" s="2">
         <v>5</v>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       <c r="T156">
         <v>0</v>
       </c>
-      <c r="U156">
+      <c r="U156" s="2">
         <v>0</v>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       <c r="T157">
         <v>0</v>
       </c>
-      <c r="U157">
+      <c r="U157" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
       <c r="T158">
         <v>0</v>
       </c>
-      <c r="U158">
+      <c r="U158" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       <c r="T159">
         <v>0</v>
       </c>
-      <c r="U159">
+      <c r="U159" s="2">
         <v>4</v>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       <c r="T160">
         <v>0</v>
       </c>
-      <c r="U160">
+      <c r="U160" s="2">
         <v>2</v>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
       <c r="T161">
         <v>0</v>
       </c>
-      <c r="U161">
+      <c r="U161" s="2">
         <v>4</v>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       <c r="T162">
         <v>0</v>
       </c>
-      <c r="U162">
+      <c r="U162" s="2">
         <v>2</v>
       </c>
     </row>
@@ -11126,7 +11126,7 @@
       <c r="T163">
         <v>0</v>
       </c>
-      <c r="U163">
+      <c r="U163" s="2">
         <v>1</v>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       <c r="T164">
         <v>0</v>
       </c>
-      <c r="U164">
+      <c r="U164" s="2">
         <v>5</v>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       <c r="T165">
         <v>0</v>
       </c>
-      <c r="U165">
+      <c r="U165" s="2">
         <v>5</v>
       </c>
     </row>
@@ -11321,7 +11321,7 @@
       <c r="T166">
         <v>0</v>
       </c>
-      <c r="U166">
+      <c r="U166" s="2">
         <v>6</v>
       </c>
     </row>
@@ -11386,7 +11386,7 @@
       <c r="T167">
         <v>0</v>
       </c>
-      <c r="U167">
+      <c r="U167" s="2">
         <v>6</v>
       </c>
     </row>
@@ -11451,7 +11451,7 @@
       <c r="T168">
         <v>0</v>
       </c>
-      <c r="U168">
+      <c r="U168" s="2">
         <v>11</v>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
       <c r="T169">
         <v>0</v>
       </c>
-      <c r="U169">
+      <c r="U169" s="2">
         <v>3</v>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       <c r="T170">
         <v>0</v>
       </c>
-      <c r="U170">
+      <c r="U170" s="2">
         <v>7</v>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
       <c r="T171">
         <v>0</v>
       </c>
-      <c r="U171">
+      <c r="U171" s="2">
         <v>8</v>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       <c r="T172">
         <v>0</v>
       </c>
-      <c r="U172">
+      <c r="U172" s="2">
         <v>4</v>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -11776,8 +11776,8 @@
       <c r="T173">
         <v>0</v>
       </c>
-      <c r="U173">
-        <v>9</v>
+      <c r="U173" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -11841,7 +11841,7 @@
       <c r="T174">
         <v>0</v>
       </c>
-      <c r="U174">
+      <c r="U174" s="2">
         <v>7</v>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       <c r="T175">
         <v>0</v>
       </c>
-      <c r="U175">
+      <c r="U175" s="2">
         <v>9</v>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="T176">
         <v>0</v>
       </c>
-      <c r="U176">
+      <c r="U176" s="2">
         <v>6</v>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M177">
         <v>1</v>
@@ -12036,8 +12036,8 @@
       <c r="T177">
         <v>0</v>
       </c>
-      <c r="U177">
-        <v>17</v>
+      <c r="U177" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12226,13 +12226,13 @@
         <v>0</v>
       </c>
       <c r="S180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T180">
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -12296,21 +12296,86 @@
       <c r="T181">
         <v>0</v>
       </c>
-      <c r="U181">
-        <v>1</v>
+      <c r="U181" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U182" s="2"/>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U183" s="2"/>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U184" s="2"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U185" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 218 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 221 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U185"/>
+  <dimension ref="A1:U186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>1</v>
       </c>
       <c r="U96" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6896,13 +6896,13 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7546,13 +7546,13 @@
         <v>0</v>
       </c>
       <c r="S108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T108">
         <v>0</v>
       </c>
       <c r="U108" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -8131,13 +8131,13 @@
         <v>0</v>
       </c>
       <c r="S117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>0</v>
       </c>
       <c r="U117" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -8196,13 +8196,13 @@
         <v>0</v>
       </c>
       <c r="S118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8326,13 +8326,13 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T120">
         <v>0</v>
       </c>
       <c r="U120" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8521,13 +8521,13 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>0</v>
       </c>
       <c r="U123" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -8846,13 +8846,13 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -9171,13 +9171,13 @@
         <v>0</v>
       </c>
       <c r="S133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133">
         <v>0</v>
       </c>
       <c r="U133" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -9561,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139">
         <v>0</v>
       </c>
       <c r="U139" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -9691,13 +9691,13 @@
         <v>0</v>
       </c>
       <c r="S141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>0</v>
       </c>
       <c r="U141" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="U163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
@@ -12004,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12214,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="O180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12329,7 +12329,7 @@
         <v>2</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -12362,20 +12362,85 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U183" s="2"/>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U184" s="2"/>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U185" s="2"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U186" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 221 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 223 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U186"/>
+  <dimension ref="A1:U187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="O183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -12418,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="R183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S183">
         <v>0</v>
@@ -12427,20 +12427,85 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U184" s="2"/>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U185" s="2"/>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U186" s="2"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U187" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 223 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 225 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U187"/>
+  <dimension ref="A1:U188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -12004,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12279,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182">
         <v>1</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12388,10 +12388,10 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="O184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -12492,20 +12492,208 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>2</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U185" s="2"/>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U186" s="2"/>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U187" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 225 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 224 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11564,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="O170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -11582,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11785,7 +11790,7 @@
         <v>44046</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>6</v>
@@ -11824,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -11842,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="U174" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -11889,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -11907,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="U175" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -11954,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -11972,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -12149,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -12167,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12279,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -12297,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12335,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>1</v>
@@ -12362,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12435,7 +12440,7 @@
         <v>44056</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -12492,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12565,10 +12570,10 @@
         <v>44058</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -12604,7 +12609,7 @@
         <v>2</v>
       </c>
       <c r="O186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -12622,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12630,7 +12635,7 @@
         <v>44059</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -12639,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -12654,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -12669,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="O187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -12687,13 +12692,84 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>1</v>
+      </c>
+      <c r="U188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U190" s="2"/>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U191" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 224 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 225 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U191"/>
+  <dimension ref="A1:U192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7243,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7297,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7373,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -7427,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7698,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -7752,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -8023,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -8077,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -9778,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9832,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -10818,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10872,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="U159" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
@@ -10948,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -11002,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11078,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -11132,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="U163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
@@ -11468,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -11522,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -11598,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -11652,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11663,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -11717,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="U172" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -12053,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -12107,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
@@ -12118,7 +12113,7 @@
         <v>2</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -12172,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12183,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -12237,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12248,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -12302,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12313,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12367,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12378,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -12432,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12443,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -12470,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -12497,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12508,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -12529,13 +12524,13 @@
         <v>2</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -12562,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12570,47 +12565,47 @@
         <v>44058</v>
       </c>
       <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186">
         <v>3</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>2</v>
-      </c>
-      <c r="O186">
-        <v>2</v>
-      </c>
       <c r="P186">
         <v>0</v>
       </c>
@@ -12627,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12638,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -12674,7 +12669,7 @@
         <v>0</v>
       </c>
       <c r="O187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -12692,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12703,13 +12698,13 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -12724,7 +12719,7 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -12739,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="O188">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -12757,19 +12752,85 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>3</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U190" s="2"/>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U191" s="2"/>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U192" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 225 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 226 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U192"/>
+  <dimension ref="A1:U193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -12199,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12604,7 +12604,7 @@
         <v>2</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12760,47 +12760,47 @@
         <v>44061</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
         <v>9</v>
       </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <v>1</v>
-      </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189">
-        <v>0</v>
-      </c>
-      <c r="N189">
-        <v>0</v>
-      </c>
-      <c r="O189">
-        <v>3</v>
-      </c>
       <c r="P189">
         <v>0</v>
       </c>
@@ -12817,20 +12817,85 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U190" s="2"/>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U191" s="2"/>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U192" s="2"/>
+    </row>
+    <row r="193" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U193" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 226 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 229 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U193"/>
+  <dimension ref="A1:U194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11200,7 +11200,7 @@
         <v>44037</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -12199,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="O184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12760,7 +12760,7 @@
         <v>44061</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189">
         <v>10</v>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
         <v>44062</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -12849,22 +12849,22 @@
         <v>1</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -12882,20 +12882,85 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U191" s="2"/>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U192" s="2"/>
     </row>
     <row r="193" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U193" s="2"/>
+    </row>
+    <row r="194" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U194" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 229 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 232 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U194"/>
+  <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="U132" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -10485,7 +10485,7 @@
         <v>44026</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="U154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
@@ -12630,7 +12630,7 @@
         <v>44059</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>3</v>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="O188">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190">
         <v>1</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12908,34 +12908,34 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191">
         <v>0</v>
       </c>
       <c r="N191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P191">
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R191">
         <v>0</v>
@@ -12947,20 +12947,208 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192">
+        <v>2</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>1</v>
+      </c>
+      <c r="U192" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U192" s="2"/>
-    </row>
-    <row r="193" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U193" s="2"/>
-    </row>
-    <row r="194" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U194" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 232 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 231 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U195"/>
+  <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="O184">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12604,7 +12604,7 @@
         <v>2</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="O191">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P191">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M192">
         <v>1</v>
@@ -12994,7 +12994,7 @@
         <v>3</v>
       </c>
       <c r="O192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13038,10 +13038,10 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="O193">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13085,7 +13085,7 @@
         <v>44066</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="O194">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P194">
         <v>0</v>
@@ -13136,17 +13136,82 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>2</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>1</v>
+      </c>
+      <c r="U195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 231 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 233 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U196"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M92">
         <v>2</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="U102" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -11901,13 +11901,13 @@
         <v>0</v>
       </c>
       <c r="S175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T175">
         <v>0</v>
       </c>
       <c r="U175" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -12004,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12524,7 +12524,7 @@
         <v>3</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -12551,13 +12551,13 @@
         <v>0</v>
       </c>
       <c r="S185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T185">
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="J188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -12746,13 +12746,13 @@
         <v>0</v>
       </c>
       <c r="S188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T188">
         <v>1</v>
       </c>
       <c r="U188">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
         <v>2</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -12876,13 +12876,13 @@
         <v>0</v>
       </c>
       <c r="S190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12941,13 +12941,13 @@
         <v>0</v>
       </c>
       <c r="S191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T191">
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -13006,13 +13006,13 @@
         <v>0</v>
       </c>
       <c r="S192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13020,7 +13020,7 @@
         <v>44065</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>2</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
       <c r="N193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O193">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13085,7 +13085,7 @@
         <v>44066</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="O194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P194">
         <v>0</v>
@@ -13136,13 +13136,13 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13150,7 +13150,7 @@
         <v>44067</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -13171,10 +13171,10 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13207,11 +13207,76 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>2</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 233 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 232 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U197"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12890,7 +12890,7 @@
         <v>44063</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M192">
         <v>1</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M193">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13085,7 +13085,7 @@
         <v>44066</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13171,16 +13171,16 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13236,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -13272,11 +13272,76 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 232 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 235 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U198"/>
+  <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13280,7 +13280,7 @@
         <v>44069</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="O197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -13337,11 +13337,76 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 235 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 243 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:U202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12846,10 +12846,10 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13150,7 +13150,7 @@
         <v>44067</v>
       </c>
       <c r="B195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13280,7 +13280,7 @@
         <v>44069</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="O197">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13345,7 +13345,7 @@
         <v>44070</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -13366,16 +13366,16 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="O198">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P198">
         <v>0</v>
@@ -13402,11 +13402,206 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199">
+        <v>13</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200">
+        <v>4</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>1</v>
+      </c>
+      <c r="U200">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>2</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 243 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 246 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U202"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12955,7 +12955,7 @@
         <v>44064</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13369,7 +13369,7 @@
         <v>3</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13431,16 +13431,16 @@
         <v>1</v>
       </c>
       <c r="I199">
+        <v>7</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
         <v>4</v>
-      </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
-      <c r="K199">
-        <v>1</v>
-      </c>
-      <c r="L199">
-        <v>0</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -13449,7 +13449,7 @@
         <v>3</v>
       </c>
       <c r="O199">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13475,7 +13475,7 @@
         <v>44072</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M200">
         <v>1</v>
@@ -13514,7 +13514,7 @@
         <v>3</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -13529,10 +13529,10 @@
         <v>0</v>
       </c>
       <c r="T200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13540,7 +13540,7 @@
         <v>44073</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -13561,25 +13561,25 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201">
         <v>0</v>
       </c>
       <c r="N201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O201">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -13597,11 +13597,76 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
+        <v>2</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>1</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="U202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 246 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 249 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U203"/>
+  <dimension ref="A1:U204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="O191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P191">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="O197">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13369,7 +13369,7 @@
         <v>3</v>
       </c>
       <c r="J198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="O198">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P198">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13434,7 +13434,7 @@
         <v>7</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13493,13 +13493,13 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>3</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -13514,7 +13514,7 @@
         <v>3</v>
       </c>
       <c r="O200">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -13532,7 +13532,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>3</v>
@@ -13579,7 +13579,7 @@
         <v>2</v>
       </c>
       <c r="O201">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13605,7 +13605,7 @@
         <v>44074</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -13626,16 +13626,16 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>2</v>
       </c>
       <c r="O202">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -13662,11 +13662,76 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>1</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>1</v>
+      </c>
+      <c r="U203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 249 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 247 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U204"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12305,7 +12305,7 @@
         <v>44054</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
         <v>12</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
         <v>44060</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188">
         <v>8</v>
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190">
         <v>2</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -13174,7 +13174,7 @@
         <v>3</v>
       </c>
       <c r="J195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13431,7 +13431,7 @@
         <v>1</v>
       </c>
       <c r="I199">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J199">
         <v>2</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>2</v>
       </c>
       <c r="O202">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13670,7 +13670,7 @@
         <v>44075</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M203">
         <v>2</v>
@@ -13709,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="O203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -13727,11 +13727,76 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>3</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 247 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 250 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U205"/>
+  <dimension ref="A1:U206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12373,7 +12373,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12763,7 +12763,7 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
         <v>2</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>3</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>3</v>
       </c>
       <c r="O192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13023,7 +13023,7 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13088,7 +13088,7 @@
         <v>4</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13153,7 +13153,7 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -13174,7 +13174,7 @@
         <v>3</v>
       </c>
       <c r="J195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13218,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="I197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13348,7 +13348,7 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J198">
         <v>3</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13413,7 +13413,7 @@
         <v>2</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -13449,7 +13449,7 @@
         <v>3</v>
       </c>
       <c r="O199">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13478,7 +13478,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -13532,7 +13532,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13543,7 +13543,7 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13608,7 +13608,7 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="I202">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -13644,7 +13644,7 @@
         <v>2</v>
       </c>
       <c r="O202">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13673,7 +13673,7 @@
         <v>4</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -13691,16 +13691,16 @@
         <v>1</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M203">
         <v>2</v>
@@ -13709,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13735,28 +13735,28 @@
         <v>44076</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204">
         <v>3</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -13765,16 +13765,16 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
       <c r="N204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O204">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13792,11 +13792,76 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <v>9</v>
+      </c>
+      <c r="P205">
+        <v>1</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
+      <c r="U205">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U206"/>
+  <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13174,7 +13174,7 @@
         <v>3</v>
       </c>
       <c r="J195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -13207,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13280,7 +13280,7 @@
         <v>44069</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -13304,7 +13304,7 @@
         <v>4</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13345,7 +13345,7 @@
         <v>44070</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13410,7 +13410,7 @@
         <v>44071</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13564,13 +13564,13 @@
         <v>3</v>
       </c>
       <c r="J201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13605,7 +13605,7 @@
         <v>44074</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C202">
         <v>7</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13670,7 +13670,7 @@
         <v>44075</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C203">
         <v>12</v>
@@ -13694,13 +13694,13 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M203">
         <v>2</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13735,7 +13735,7 @@
         <v>44076</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13759,13 +13759,13 @@
         <v>2</v>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -13774,7 +13774,7 @@
         <v>5</v>
       </c>
       <c r="O204">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13792,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13800,16 +13800,16 @@
         <v>44077</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -13830,16 +13830,16 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M205">
         <v>1</v>
       </c>
       <c r="N205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O205">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="P205">
         <v>1</v>
@@ -13857,11 +13857,206 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206">
+        <v>3</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>3</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>1</v>
+      </c>
+      <c r="U208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
+    <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 250 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 245 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:U210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U210" sqref="U210:U212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6902,7 +6907,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6993,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7032,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -11614,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -11647,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11954,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -11972,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -11995,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -12037,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12255,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -12297,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12840,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -12882,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -13490,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -13532,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13540,7 +13545,7 @@
         <v>44073</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C201">
         <v>6</v>
@@ -13597,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13620,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -13662,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13679,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -13727,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13735,7 +13740,7 @@
         <v>44076</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13744,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F204">
         <v>3</v>
@@ -13756,7 +13761,7 @@
         <v>2</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J204">
         <v>1</v>
@@ -13765,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -13774,7 +13779,7 @@
         <v>5</v>
       </c>
       <c r="O204">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13786,13 +13791,13 @@
         <v>0</v>
       </c>
       <c r="S204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T204">
         <v>0</v>
       </c>
       <c r="U204">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13821,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -13830,16 +13835,16 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M205">
         <v>1</v>
       </c>
       <c r="N205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O205">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P205">
         <v>1</v>
@@ -13857,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13874,19 +13879,19 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -13895,16 +13900,16 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206">
         <v>2</v>
       </c>
       <c r="N206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O206">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -13922,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13930,7 +13935,7 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -13969,7 +13974,7 @@
         <v>3</v>
       </c>
       <c r="O207">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P207">
         <v>0</v>
@@ -13981,13 +13986,13 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -13995,7 +14000,7 @@
         <v>44080</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -14004,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -14016,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -14025,22 +14030,22 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M208">
         <v>1</v>
       </c>
       <c r="N208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P208">
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208">
         <v>1</v>
@@ -14052,11 +14057,76 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>2</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,14 +84,14 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 245 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 247 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,13 +173,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U210"/>
+  <dimension ref="A1:U213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U210" sqref="U210:U212"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T215" sqref="T215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6868,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6907,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6998,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7037,7 +7045,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -11959,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -11977,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -12919,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12952,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13380,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13407,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13714,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="O203">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -13726,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="S203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T203">
         <v>1</v>
@@ -13791,13 +13799,13 @@
         <v>0</v>
       </c>
       <c r="S204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>0</v>
       </c>
       <c r="U204">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13844,7 +13852,7 @@
         <v>4</v>
       </c>
       <c r="O205">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P205">
         <v>1</v>
@@ -13856,13 +13864,13 @@
         <v>0</v>
       </c>
       <c r="S205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T205">
         <v>1</v>
       </c>
       <c r="U205">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13894,13 +13902,13 @@
         <v>4</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M206">
         <v>2</v>
@@ -13909,7 +13917,7 @@
         <v>3</v>
       </c>
       <c r="O206">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -13921,13 +13929,13 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
       <c r="U206">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13935,7 +13943,7 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -13965,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -13986,13 +13994,13 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14065,7 +14073,7 @@
         <v>44081</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -14074,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -14086,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -14095,16 +14103,16 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -14122,13 +14130,84 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>4</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>1</v>
+      </c>
+      <c r="U210">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U212" s="6"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U213" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 247 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 252 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U213"/>
+  <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T215" sqref="T215"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12738,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -12765,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -13249,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -13285,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13423,7 +13418,7 @@
         <v>44071</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -13480,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13509,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -13545,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13553,7 +13548,7 @@
         <v>44073</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201">
         <v>6</v>
@@ -13610,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13852,7 +13847,7 @@
         <v>4</v>
       </c>
       <c r="O205">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P205">
         <v>1</v>
@@ -13870,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13878,7 +13873,7 @@
         <v>44078</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -13887,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -13908,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M206">
         <v>2</v>
@@ -13917,7 +13912,7 @@
         <v>3</v>
       </c>
       <c r="O206">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -13935,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13943,7 +13938,7 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -14000,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14038,16 +14033,16 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>1</v>
       </c>
       <c r="N208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O208">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -14065,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14073,7 +14068,7 @@
         <v>44081</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -14112,7 +14107,7 @@
         <v>2</v>
       </c>
       <c r="O209">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -14130,7 +14125,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14138,7 +14133,7 @@
         <v>44082</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -14147,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -14159,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210">
         <v>1</v>
@@ -14168,16 +14163,16 @@
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210">
         <v>4</v>
       </c>
       <c r="N210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -14195,19 +14190,85 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>1</v>
+      </c>
+      <c r="U211">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U212" s="6"/>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U213" s="2"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U214" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 252 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 253 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U214"/>
+  <dimension ref="A1:U215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11551,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -11590,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11888,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175">
         <v>0</v>
@@ -11915,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="U175" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -12408,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -12435,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12777,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -12825,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -13093,7 +13098,7 @@
         <v>44066</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C194">
         <v>12</v>
@@ -13150,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13557,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -13578,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -13605,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13829,10 +13834,10 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -13847,7 +13852,7 @@
         <v>4</v>
       </c>
       <c r="O205">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P205">
         <v>1</v>
@@ -13865,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13962,13 +13967,13 @@
         <v>4</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -13995,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14003,7 +14008,7 @@
         <v>44080</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -14033,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -14060,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14077,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -14107,7 +14112,7 @@
         <v>2</v>
       </c>
       <c r="O209">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -14125,7 +14130,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14142,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -14157,13 +14162,13 @@
         <v>2</v>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M210">
         <v>4</v>
@@ -14190,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14198,7 +14203,7 @@
         <v>44083</v>
       </c>
       <c r="B211">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -14207,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -14219,25 +14224,25 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K211">
         <v>1</v>
       </c>
       <c r="L211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M211">
         <v>0</v>
       </c>
       <c r="N211">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -14246,29 +14251,94 @@
         <v>0</v>
       </c>
       <c r="R211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S211">
         <v>0</v>
       </c>
       <c r="T211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U212" s="6"/>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U213" s="2"/>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U214" s="2"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U215" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 253 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 265 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12413,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -12440,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -13834,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="I205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J205">
         <v>2</v>
@@ -13870,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13899,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J206">
         <v>1</v>
@@ -13917,7 +13912,7 @@
         <v>3</v>
       </c>
       <c r="O206">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -13935,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13943,7 +13938,7 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -14000,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14029,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -14038,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -14065,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14073,7 +14068,7 @@
         <v>44081</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -14094,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -14130,7 +14125,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14147,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -14159,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J210">
         <v>3</v>
@@ -14177,13 +14172,13 @@
         <v>3</v>
       </c>
       <c r="O210">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P210">
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210">
         <v>0</v>
@@ -14195,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14203,7 +14198,7 @@
         <v>44083</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -14233,16 +14228,16 @@
         <v>1</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M211">
         <v>0</v>
       </c>
       <c r="N211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O211">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -14260,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14268,7 +14263,7 @@
         <v>44084</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -14280,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -14289,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -14304,10 +14299,10 @@
         <v>0</v>
       </c>
       <c r="N212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O212">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -14322,23 +14317,217 @@
         <v>0</v>
       </c>
       <c r="T212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U212" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>5</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>5</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>3</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U213" s="2"/>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U214" s="2"/>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U215" s="2"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U217" s="2"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U218" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 265 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 269 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:U219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13014,13 +13014,13 @@
         <v>0</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T192">
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13469,13 +13469,13 @@
         <v>0</v>
       </c>
       <c r="S199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T199">
         <v>0</v>
       </c>
       <c r="U199">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13534,13 +13534,13 @@
         <v>1</v>
       </c>
       <c r="S200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T200">
         <v>2</v>
       </c>
       <c r="U200">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13729,13 +13729,13 @@
         <v>1</v>
       </c>
       <c r="S203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T203">
         <v>1</v>
       </c>
       <c r="U203">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13924,13 +13924,13 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
       <c r="U206">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -13959,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="I207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -13995,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14003,7 +14003,7 @@
         <v>44080</v>
       </c>
       <c r="B208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="O208">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -14054,13 +14054,13 @@
         <v>1</v>
       </c>
       <c r="S208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T208">
         <v>1</v>
       </c>
       <c r="U208">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14133,7 +14133,7 @@
         <v>44082</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -14145,7 +14145,7 @@
         <v>3</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -14184,13 +14184,13 @@
         <v>0</v>
       </c>
       <c r="S210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T210">
         <v>1</v>
       </c>
       <c r="U210">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -14237,7 +14237,7 @@
         <v>7</v>
       </c>
       <c r="O211">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14263,7 +14263,7 @@
         <v>44084</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -14302,25 +14302,25 @@
         <v>2</v>
       </c>
       <c r="O212">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P212">
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R212">
         <v>1</v>
       </c>
       <c r="S212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T212">
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14328,7 +14328,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -14349,7 +14349,7 @@
         <v>5</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>3</v>
       </c>
       <c r="O213">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>44086</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -14432,10 +14432,10 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14458,7 +14458,7 @@
         <v>44087</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>6</v>
       </c>
       <c r="O215">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14515,19 +14515,85 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>3</v>
+      </c>
+      <c r="U216">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U217" s="2"/>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U218" s="2"/>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U219" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 269 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 268 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U219"/>
+  <dimension ref="A1:U220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11584,13 +11584,13 @@
         <v>0</v>
       </c>
       <c r="S170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T170">
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11649,13 +11649,13 @@
         <v>0</v>
       </c>
       <c r="S171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T171">
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11714,13 +11714,13 @@
         <v>0</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T172">
         <v>0</v>
       </c>
       <c r="U172" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -11779,13 +11779,13 @@
         <v>0</v>
       </c>
       <c r="S173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T173">
         <v>0</v>
       </c>
       <c r="U173" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -12039,13 +12039,13 @@
         <v>0</v>
       </c>
       <c r="S177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T177">
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12104,13 +12104,13 @@
         <v>1</v>
       </c>
       <c r="S178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T178">
         <v>0</v>
       </c>
       <c r="U178" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
@@ -12169,13 +12169,13 @@
         <v>0</v>
       </c>
       <c r="S179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T179">
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12299,13 +12299,13 @@
         <v>1</v>
       </c>
       <c r="S181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T181">
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12364,13 +12364,13 @@
         <v>0</v>
       </c>
       <c r="S182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T182">
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12429,13 +12429,13 @@
         <v>1</v>
       </c>
       <c r="S183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T183">
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12624,13 +12624,13 @@
         <v>0</v>
       </c>
       <c r="S186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T186">
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12689,13 +12689,13 @@
         <v>0</v>
       </c>
       <c r="S187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187">
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12819,13 +12819,13 @@
         <v>0</v>
       </c>
       <c r="S189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T189">
         <v>0</v>
       </c>
       <c r="U189">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12884,13 +12884,13 @@
         <v>0</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T190">
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12949,13 +12949,13 @@
         <v>0</v>
       </c>
       <c r="S191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13014,13 +13014,13 @@
         <v>0</v>
       </c>
       <c r="S192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T192">
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13079,13 +13079,13 @@
         <v>1</v>
       </c>
       <c r="S193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T193">
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13144,13 +13144,13 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13188,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -13209,13 +13209,13 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T195">
         <v>1</v>
       </c>
       <c r="U195">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13274,13 +13274,13 @@
         <v>0</v>
       </c>
       <c r="S196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T196">
         <v>0</v>
       </c>
       <c r="U196">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13339,13 +13339,13 @@
         <v>0</v>
       </c>
       <c r="S197">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T197">
         <v>0</v>
       </c>
       <c r="U197">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13404,13 +13404,13 @@
         <v>0</v>
       </c>
       <c r="S198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>0</v>
       </c>
       <c r="U198">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13469,13 +13469,13 @@
         <v>0</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T199">
         <v>0</v>
       </c>
       <c r="U199">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13534,13 +13534,13 @@
         <v>1</v>
       </c>
       <c r="S200">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T200">
         <v>2</v>
       </c>
       <c r="U200">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13599,13 +13599,13 @@
         <v>0</v>
       </c>
       <c r="S201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T201">
         <v>0</v>
       </c>
       <c r="U201">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13664,13 +13664,13 @@
         <v>1</v>
       </c>
       <c r="S202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T202">
         <v>1</v>
       </c>
       <c r="U202">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13729,13 +13729,13 @@
         <v>1</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T203">
         <v>1</v>
       </c>
       <c r="U203">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
         <v>2</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J204">
         <v>1</v>
@@ -13794,13 +13794,13 @@
         <v>0</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T204">
         <v>0</v>
       </c>
       <c r="U204">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -13859,13 +13859,13 @@
         <v>0</v>
       </c>
       <c r="S205">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T205">
         <v>1</v>
       </c>
       <c r="U205">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13924,13 +13924,13 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
       <c r="U206">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13962,7 +13962,7 @@
         <v>5</v>
       </c>
       <c r="J207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -13989,13 +13989,13 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14003,7 +14003,7 @@
         <v>44080</v>
       </c>
       <c r="B208">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -14054,13 +14054,13 @@
         <v>1</v>
       </c>
       <c r="S208">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T208">
         <v>1</v>
       </c>
       <c r="U208">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -14119,13 +14119,13 @@
         <v>0</v>
       </c>
       <c r="S209">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F210">
         <v>3</v>
@@ -14157,7 +14157,7 @@
         <v>3</v>
       </c>
       <c r="J210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -14184,13 +14184,13 @@
         <v>0</v>
       </c>
       <c r="S210">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T210">
         <v>1</v>
       </c>
       <c r="U210">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
         <v>44083</v>
       </c>
       <c r="B211">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -14219,10 +14219,10 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14249,13 +14249,13 @@
         <v>1</v>
       </c>
       <c r="S211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T211">
         <v>2</v>
       </c>
       <c r="U211">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14272,10 +14272,10 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14314,13 +14314,13 @@
         <v>1</v>
       </c>
       <c r="S212">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T212">
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14328,7 +14328,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
         <v>3</v>
@@ -14352,7 +14352,7 @@
         <v>4</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K213">
         <v>1</v>
@@ -14379,13 +14379,13 @@
         <v>0</v>
       </c>
       <c r="S213">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T213">
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>44086</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -14420,10 +14420,10 @@
         <v>0</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P214">
         <v>1</v>
@@ -14444,13 +14444,13 @@
         <v>3</v>
       </c>
       <c r="S214">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T214">
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14458,7 +14458,7 @@
         <v>44087</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -14479,16 +14479,16 @@
         <v>0</v>
       </c>
       <c r="I215">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>6</v>
       </c>
       <c r="O215">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14509,13 +14509,13 @@
         <v>2</v>
       </c>
       <c r="S215">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T215">
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14523,7 +14523,7 @@
         <v>44088</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -14535,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -14562,7 +14562,7 @@
         <v>5</v>
       </c>
       <c r="O216">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -14574,26 +14574,91 @@
         <v>1</v>
       </c>
       <c r="S216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>5</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>1</v>
+      </c>
+      <c r="S217">
+        <v>1</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U217" s="2"/>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U218" s="2"/>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U219" s="2"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U220" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 268 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 273 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U220"/>
+  <dimension ref="A1:U221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -12169,13 +12169,13 @@
         <v>0</v>
       </c>
       <c r="S179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13031,7 +13031,7 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -13764,10 +13764,10 @@
         <v>2</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13811,7 +13811,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13876,7 +13876,7 @@
         <v>7</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13912,7 +13912,7 @@
         <v>3</v>
       </c>
       <c r="O206">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13938,10 +13938,10 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -13962,7 +13962,7 @@
         <v>5</v>
       </c>
       <c r="J207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -13995,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14003,10 +14003,10 @@
         <v>44080</v>
       </c>
       <c r="B208">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -14027,7 +14027,7 @@
         <v>5</v>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14068,10 +14068,10 @@
         <v>44081</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -14092,7 +14092,7 @@
         <v>5</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14136,7 +14136,7 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>3</v>
       </c>
       <c r="O210">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14198,10 +14198,10 @@
         <v>44083</v>
       </c>
       <c r="B211">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -14222,7 +14222,7 @@
         <v>7</v>
       </c>
       <c r="J211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14249,13 +14249,13 @@
         <v>1</v>
       </c>
       <c r="S211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T211">
         <v>2</v>
       </c>
       <c r="U211">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14263,10 +14263,10 @@
         <v>44084</v>
       </c>
       <c r="B212">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14320,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14331,7 +14331,7 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14393,10 +14393,10 @@
         <v>44086</v>
       </c>
       <c r="B214">
+        <v>9</v>
+      </c>
+      <c r="C214">
         <v>8</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -14417,7 +14417,7 @@
         <v>8</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K214">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14458,10 +14458,10 @@
         <v>44087</v>
       </c>
       <c r="B215">
+        <v>11</v>
+      </c>
+      <c r="C215">
         <v>9</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>6</v>
       </c>
       <c r="O215">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14523,10 +14523,10 @@
         <v>44088</v>
       </c>
       <c r="B216">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -14562,7 +14562,7 @@
         <v>5</v>
       </c>
       <c r="O216">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14588,28 +14588,28 @@
         <v>44089</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -14627,7 +14627,7 @@
         <v>3</v>
       </c>
       <c r="O217">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -14642,23 +14642,88 @@
         <v>1</v>
       </c>
       <c r="T217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
+        <v>4</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>1</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>2</v>
+      </c>
+      <c r="U218" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U218" s="2"/>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U219" s="2"/>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U220" s="2"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U221" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 273 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 289 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U221"/>
+  <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R186">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12943,13 +12943,13 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R191">
         <v>0</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T191">
         <v>0</v>
@@ -13014,13 +13014,13 @@
         <v>0</v>
       </c>
       <c r="S192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T192">
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13079,13 +13079,13 @@
         <v>1</v>
       </c>
       <c r="S193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T193">
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13144,13 +13144,13 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13203,19 +13203,19 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R195">
         <v>0</v>
       </c>
       <c r="S195">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T195">
         <v>1</v>
       </c>
       <c r="U195">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R208">
         <v>1</v>
@@ -14119,13 +14119,13 @@
         <v>0</v>
       </c>
       <c r="S209">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R210">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14249,13 +14249,13 @@
         <v>1</v>
       </c>
       <c r="S211">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T211">
         <v>2</v>
       </c>
       <c r="U211">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14308,13 +14308,13 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R212">
         <v>1</v>
       </c>
       <c r="S212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T212">
         <v>2</v>
@@ -14328,7 +14328,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P214">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14458,7 +14458,7 @@
         <v>44087</v>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -14497,7 +14497,7 @@
         <v>6</v>
       </c>
       <c r="O215">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14523,7 +14523,7 @@
         <v>44088</v>
       </c>
       <c r="B216">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="I216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -14562,7 +14562,7 @@
         <v>5</v>
       </c>
       <c r="O216">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14588,7 +14588,7 @@
         <v>44089</v>
       </c>
       <c r="B217">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C217">
         <v>5</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -14627,7 +14627,7 @@
         <v>3</v>
       </c>
       <c r="O217">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -14645,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14653,7 +14653,7 @@
         <v>44090</v>
       </c>
       <c r="B218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -14671,10 +14671,10 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -14683,47 +14683,112 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O218">
+        <v>8</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>1</v>
+      </c>
+      <c r="S218">
+        <v>1</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B219">
         <v>4</v>
       </c>
-      <c r="P218">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>1</v>
-      </c>
-      <c r="S218">
-        <v>0</v>
-      </c>
-      <c r="T218">
-        <v>2</v>
-      </c>
-      <c r="U218" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>3</v>
+      </c>
+      <c r="S219">
+        <v>1</v>
+      </c>
+      <c r="T219">
+        <v>1</v>
+      </c>
+      <c r="U219" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U219" s="2"/>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U220" s="2"/>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U221" s="2"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U222" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U222"/>
+  <dimension ref="A1:U223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -6780,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="U96" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -8026,7 +8026,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -8286,7 +8286,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -8741,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="U159" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="U160" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="U168" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="U172" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -11731,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="U173" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="U174" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="U175" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -11991,7 +11991,7 @@
         <v>2</v>
       </c>
       <c r="C177">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="C179">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12576,7 +12576,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -12612,13 +12612,13 @@
         <v>2</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P186">
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R186">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12641,7 +12641,7 @@
         <v>2</v>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="O187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -12689,13 +12689,13 @@
         <v>0</v>
       </c>
       <c r="S187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T187">
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12706,13 +12706,13 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12771,7 +12771,7 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
         <v>2</v>
       </c>
       <c r="C190">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -12857,7 +12857,7 @@
         <v>2</v>
       </c>
       <c r="J190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12937,13 +12937,13 @@
         <v>1</v>
       </c>
       <c r="O191">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P191">
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R191">
         <v>0</v>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13031,7 +13031,7 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13096,13 +13096,13 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13161,13 +13161,13 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -13197,13 +13197,13 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P195">
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R196">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13291,13 +13291,13 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -13356,13 +13356,13 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13421,13 +13421,13 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -13457,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="O199">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -13522,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="O200">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -13551,13 +13551,13 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>7</v>
       </c>
       <c r="C202">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>2</v>
       </c>
       <c r="O202">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13681,7 +13681,7 @@
         <v>5</v>
       </c>
       <c r="C203">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13811,7 +13811,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13876,7 +13876,7 @@
         <v>7</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13941,7 +13941,7 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -13995,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14006,7 +14006,7 @@
         <v>9</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208">
         <v>1</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14071,7 +14071,7 @@
         <v>5</v>
       </c>
       <c r="C209">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14136,7 +14136,7 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14201,7 +14201,7 @@
         <v>15</v>
       </c>
       <c r="C211">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -14228,16 +14228,16 @@
         <v>1</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M211">
         <v>0</v>
       </c>
       <c r="N211">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O211">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14266,7 +14266,7 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R212">
         <v>1</v>
@@ -14320,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14331,7 +14331,7 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -14349,7 +14349,7 @@
         <v>5</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -14367,13 +14367,13 @@
         <v>3</v>
       </c>
       <c r="O213">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P213">
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R213">
         <v>0</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14396,7 +14396,7 @@
         <v>9</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -14432,13 +14432,13 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P214">
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214">
         <v>3</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14461,7 +14461,7 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14526,7 +14526,7 @@
         <v>14</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -14544,16 +14544,16 @@
         <v>1</v>
       </c>
       <c r="I216">
+        <v>6</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
         <v>5</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-      <c r="K216">
-        <v>0</v>
-      </c>
-      <c r="L216">
-        <v>4</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14588,10 +14588,10 @@
         <v>44089</v>
       </c>
       <c r="B217">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -14606,10 +14606,10 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -14627,13 +14627,13 @@
         <v>3</v>
       </c>
       <c r="O217">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P217">
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R217">
         <v>1</v>
@@ -14645,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14653,7 +14653,7 @@
         <v>44090</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -14677,13 +14677,13 @@
         <v>3</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M218">
         <v>2</v>
@@ -14692,7 +14692,7 @@
         <v>5</v>
       </c>
       <c r="O218">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -14704,13 +14704,13 @@
         <v>1</v>
       </c>
       <c r="S218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T218">
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14718,77 +14718,265 @@
         <v>44091</v>
       </c>
       <c r="B219">
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>9</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219">
+        <v>10</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>3</v>
+      </c>
+      <c r="S219">
+        <v>3</v>
+      </c>
+      <c r="T219">
+        <v>1</v>
+      </c>
+      <c r="U219" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
         <v>4</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>2</v>
-      </c>
-      <c r="G219">
-        <v>3</v>
-      </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-      <c r="I219">
-        <v>3</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <v>0</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-      <c r="M219">
-        <v>3</v>
-      </c>
-      <c r="N219">
-        <v>2</v>
-      </c>
-      <c r="O219">
-        <v>1</v>
-      </c>
-      <c r="P219">
-        <v>0</v>
-      </c>
-      <c r="Q219">
-        <v>0</v>
-      </c>
-      <c r="R219">
-        <v>3</v>
-      </c>
-      <c r="S219">
-        <v>1</v>
-      </c>
-      <c r="T219">
-        <v>1</v>
-      </c>
-      <c r="U219" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220">
+        <v>2</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>6</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>1</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>3</v>
+      </c>
+      <c r="U221" s="2">
         <v>21</v>
       </c>
-      <c r="U220" s="2"/>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U221" s="2"/>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U222" s="2"/>
+      <c r="A222" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>3</v>
+      </c>
+      <c r="U222" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 289 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 308 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U223"/>
+  <dimension ref="A1:U224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6726,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -6780,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="U96" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -8026,7 +8026,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -8286,7 +8286,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -8340,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -8741,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -9976,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -10106,7 +10106,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="U159" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="U160" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
@@ -11406,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="U168" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="U172" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
@@ -11731,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="U173" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="U174" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -11861,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="U175" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -11991,7 +11991,7 @@
         <v>2</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12576,7 +12576,7 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12641,7 +12641,7 @@
         <v>2</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12706,7 +12706,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -12760,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12771,7 +12771,7 @@
         <v>2</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
         <v>2</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12901,7 +12901,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13031,7 +13031,7 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13096,7 +13096,7 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -13209,13 +13209,13 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T195">
         <v>1</v>
       </c>
       <c r="U195">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13291,7 +13291,7 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -13339,13 +13339,13 @@
         <v>0</v>
       </c>
       <c r="S197">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T197">
         <v>0</v>
       </c>
       <c r="U197">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13356,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13421,7 +13421,7 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -13442,7 +13442,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="I200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -13540,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13551,7 +13551,7 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>7</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13681,7 +13681,7 @@
         <v>5</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -13729,13 +13729,13 @@
         <v>1</v>
       </c>
       <c r="S203">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T203">
         <v>1</v>
       </c>
       <c r="U203">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -13794,13 +13794,13 @@
         <v>0</v>
       </c>
       <c r="S204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T204">
         <v>0</v>
       </c>
       <c r="U204">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13811,7 +13811,7 @@
         <v>3</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13876,7 +13876,7 @@
         <v>7</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13924,13 +13924,13 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
       <c r="U206">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13941,7 +13941,7 @@
         <v>10</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -13995,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14006,7 +14006,7 @@
         <v>9</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -14054,13 +14054,13 @@
         <v>1</v>
       </c>
       <c r="S208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T208">
         <v>1</v>
       </c>
       <c r="U208">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14071,7 +14071,7 @@
         <v>5</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -14125,7 +14125,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14136,7 +14136,7 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14201,7 +14201,7 @@
         <v>15</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -14210,7 +14210,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -14228,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="L211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M211">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14266,7 +14266,7 @@
         <v>10</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14320,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14331,7 +14331,7 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14393,10 +14393,10 @@
         <v>44086</v>
       </c>
       <c r="B214">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14461,7 +14461,7 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14509,13 +14509,13 @@
         <v>2</v>
       </c>
       <c r="S215">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T215">
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14523,10 +14523,10 @@
         <v>44088</v>
       </c>
       <c r="B216">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -14547,19 +14547,19 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M216">
         <v>0</v>
       </c>
       <c r="N216">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O216">
         <v>21</v>
@@ -14574,13 +14574,13 @@
         <v>1</v>
       </c>
       <c r="S216">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14588,10 +14588,10 @@
         <v>44089</v>
       </c>
       <c r="B217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -14639,13 +14639,13 @@
         <v>1</v>
       </c>
       <c r="S217">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14653,7 +14653,7 @@
         <v>44090</v>
       </c>
       <c r="B218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -14674,7 +14674,7 @@
         <v>4</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J218">
         <v>2</v>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M218">
         <v>2</v>
@@ -14692,7 +14692,7 @@
         <v>5</v>
       </c>
       <c r="O218">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -14704,13 +14704,13 @@
         <v>1</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="T218">
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14742,7 +14742,7 @@
         <v>9</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -14757,7 +14757,7 @@
         <v>3</v>
       </c>
       <c r="O219">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -14769,13 +14769,13 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="T219">
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14783,7 +14783,7 @@
         <v>44092</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -14804,7 +14804,7 @@
         <v>3</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M220">
         <v>1</v>
@@ -14822,7 +14822,7 @@
         <v>5</v>
       </c>
       <c r="O220">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="P220">
         <v>0</v>
@@ -14834,13 +14834,13 @@
         <v>2</v>
       </c>
       <c r="S220">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14848,7 +14848,7 @@
         <v>44093</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -14869,7 +14869,7 @@
         <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -14887,7 +14887,7 @@
         <v>6</v>
       </c>
       <c r="O221">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -14899,13 +14899,13 @@
         <v>1</v>
       </c>
       <c r="S221">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T221">
         <v>3</v>
       </c>
       <c r="U221" s="2">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14913,46 +14913,46 @@
         <v>44094</v>
       </c>
       <c r="B222">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222">
+        <v>8</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
         <v>4</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-      <c r="K222">
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-      <c r="M222">
-        <v>3</v>
-      </c>
       <c r="N222">
         <v>3</v>
       </c>
       <c r="O222">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -14964,17 +14964,82 @@
         <v>0</v>
       </c>
       <c r="S222">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223">
+        <v>2</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>5</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>4</v>
+      </c>
+      <c r="U223">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 308 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 285 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U224"/>
+  <dimension ref="A1:U225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7246,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>3</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -12334,7 +12334,7 @@
         <v>1</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -13247,7 +13247,7 @@
         <v>3</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13729,13 +13729,13 @@
         <v>1</v>
       </c>
       <c r="S203">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T203">
         <v>1</v>
       </c>
       <c r="U203">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -14222,7 +14222,7 @@
         <v>7</v>
       </c>
       <c r="J211">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14255,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14320,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14426,7 +14426,7 @@
         <v>3</v>
       </c>
       <c r="M214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N214">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14547,7 +14547,7 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14591,7 +14591,7 @@
         <v>13</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -14612,13 +14612,13 @@
         <v>8</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -14645,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14656,13 +14656,13 @@
         <v>8</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D218">
         <v>1</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -14671,13 +14671,13 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I218">
         <v>4</v>
       </c>
       <c r="J218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -14710,7 +14710,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14718,16 +14718,16 @@
         <v>44091</v>
       </c>
       <c r="B219">
+        <v>9</v>
+      </c>
+      <c r="C219">
         <v>8</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -14742,13 +14742,13 @@
         <v>9</v>
       </c>
       <c r="J219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14786,7 +14786,7 @@
         <v>4</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -14807,13 +14807,13 @@
         <v>6</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M220">
         <v>1</v>
@@ -14840,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14848,16 +14848,16 @@
         <v>44093</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
         <v>6</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="L221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -14902,10 +14902,10 @@
         <v>7</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14916,13 +14916,13 @@
         <v>6</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M222">
         <v>4</v>
@@ -14952,7 +14952,7 @@
         <v>3</v>
       </c>
       <c r="O222">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -14978,16 +14978,16 @@
         <v>44095</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D223">
         <v>1</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -14996,28 +14996,28 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N223">
         <v>1</v>
       </c>
       <c r="O223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15035,11 +15035,76 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>4</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>2</v>
+      </c>
+      <c r="U224">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 285 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 286 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U225"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A226" sqref="A226"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6910,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>1</v>
       </c>
       <c r="U136" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -13182,7 +13182,7 @@
         <v>3</v>
       </c>
       <c r="J195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13891,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>5</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>5</v>
@@ -13989,13 +13989,13 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14151,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>3</v>
@@ -14190,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="L213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M213">
         <v>0</v>
@@ -14379,13 +14379,13 @@
         <v>0</v>
       </c>
       <c r="S213">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T213">
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14411,10 +14411,10 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J214">
         <v>2</v>
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M214">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14562,7 +14562,7 @@
         <v>6</v>
       </c>
       <c r="O216">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14627,7 +14627,7 @@
         <v>3</v>
       </c>
       <c r="O217">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -14739,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="I219">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J219">
         <v>4</v>
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14801,22 +14801,22 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I220">
+        <v>8</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
         <v>6</v>
       </c>
-      <c r="J220">
-        <v>1</v>
-      </c>
-      <c r="K220">
-        <v>0</v>
-      </c>
-      <c r="L220">
-        <v>5</v>
-      </c>
       <c r="M220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N220">
         <v>5</v>
@@ -14840,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14869,7 +14869,7 @@
         <v>3</v>
       </c>
       <c r="I221">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -14899,13 +14899,13 @@
         <v>1</v>
       </c>
       <c r="S221">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T221">
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14934,7 +14934,7 @@
         <v>3</v>
       </c>
       <c r="I222">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="S222">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T222">
         <v>3</v>
@@ -14987,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -14996,10 +14996,10 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I223">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J223">
         <v>1</v>
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15035,7 +15035,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -15073,16 +15073,16 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M224">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N224">
         <v>1</v>
       </c>
       <c r="O224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -15100,11 +15100,76 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>5</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>1</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 286 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 298 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:U227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6910,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>3</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="U150" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="U160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193">
         <v>4</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>4</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13507,7 +13507,7 @@
         <v>5</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -13540,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I201">
         <v>3</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>5</v>
@@ -13968,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -13995,7 +13995,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14086,7 +14086,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>5</v>
@@ -14125,7 +14125,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
         <v>44083</v>
       </c>
       <c r="B211">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C211">
         <v>8</v>
@@ -14255,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M214">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I215">
         <v>7</v>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>6</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M217">
         <v>1</v>
@@ -14645,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14653,7 +14653,7 @@
         <v>44090</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M218">
         <v>2</v>
@@ -14692,7 +14692,7 @@
         <v>5</v>
       </c>
       <c r="O218">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -14710,7 +14710,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14718,7 +14718,7 @@
         <v>44091</v>
       </c>
       <c r="B219">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C219">
         <v>8</v>
@@ -14736,7 +14736,7 @@
         <v>3</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219">
         <v>10</v>
@@ -14748,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I220">
         <v>8</v>
@@ -14840,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14860,13 +14860,13 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>7</v>
@@ -14887,7 +14887,7 @@
         <v>6</v>
       </c>
       <c r="O221">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -14899,13 +14899,13 @@
         <v>1</v>
       </c>
       <c r="S221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T221">
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14913,7 +14913,7 @@
         <v>44094</v>
       </c>
       <c r="B222">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I222">
         <v>9</v>
@@ -14943,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M222">
         <v>4</v>
@@ -14964,13 +14964,13 @@
         <v>0</v>
       </c>
       <c r="S222">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -14978,7 +14978,7 @@
         <v>44095</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C223">
         <v>10</v>
@@ -14993,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
         <v>5</v>
@@ -15002,13 +15002,13 @@
         <v>9</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M223">
         <v>3</v>
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="O223">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15029,13 +15029,13 @@
         <v>5</v>
       </c>
       <c r="S223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T223">
         <v>4</v>
       </c>
       <c r="U223">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15043,7 +15043,7 @@
         <v>44096</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C224">
         <v>11</v>
@@ -15067,13 +15067,13 @@
         <v>7</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
       <c r="L224">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15082,25 +15082,25 @@
         <v>1</v>
       </c>
       <c r="O224">
+        <v>12</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>1</v>
+      </c>
+      <c r="S224">
         <v>5</v>
       </c>
-      <c r="P224">
-        <v>0</v>
-      </c>
-      <c r="Q224">
-        <v>0</v>
-      </c>
-      <c r="R224">
-        <v>1</v>
-      </c>
-      <c r="S224">
-        <v>0</v>
-      </c>
       <c r="T224">
         <v>2</v>
       </c>
       <c r="U224">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15108,7 +15108,7 @@
         <v>44097</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -15129,25 +15129,25 @@
         <v>2</v>
       </c>
       <c r="I225">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M225">
         <v>2</v>
       </c>
       <c r="N225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -15159,17 +15159,82 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T225">
         <v>1</v>
       </c>
       <c r="U225">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226">
+        <v>2</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 298 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 302 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U227"/>
+  <dimension ref="A1:U230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6910,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>7</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="U152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="U174" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
@@ -12006,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>2</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>3</v>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13244,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13569,7 +13569,7 @@
         <v>3</v>
       </c>
       <c r="I201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J201">
         <v>2</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>8</v>
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13767,7 +13767,7 @@
         <v>3</v>
       </c>
       <c r="J204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13891,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>5</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14222,7 +14222,7 @@
         <v>7</v>
       </c>
       <c r="J211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14255,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14320,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14328,7 +14328,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -14346,13 +14346,13 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I213">
         <v>5</v>
       </c>
       <c r="J213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K213">
         <v>1</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I215">
         <v>7</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14547,7 +14547,7 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14588,7 +14588,7 @@
         <v>44089</v>
       </c>
       <c r="B217">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C217">
         <v>11</v>
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14645,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14653,7 +14653,7 @@
         <v>44090</v>
       </c>
       <c r="B218">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M218">
         <v>2</v>
@@ -14783,7 +14783,7 @@
         <v>44092</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C220">
         <v>6</v>
@@ -14840,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14848,7 +14848,7 @@
         <v>44093</v>
       </c>
       <c r="B221">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221">
         <v>7</v>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
         <v>7</v>
@@ -14905,7 +14905,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14913,7 +14913,7 @@
         <v>44094</v>
       </c>
       <c r="B222">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -14931,10 +14931,10 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -14978,7 +14978,7 @@
         <v>44095</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C223">
         <v>10</v>
@@ -14999,7 +14999,7 @@
         <v>5</v>
       </c>
       <c r="I223">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J223">
         <v>2</v>
@@ -15035,7 +15035,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15043,7 +15043,7 @@
         <v>44096</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C224">
         <v>11</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -15061,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15073,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15082,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -15100,7 +15100,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15108,7 +15108,7 @@
         <v>44097</v>
       </c>
       <c r="B225">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -15129,7 +15129,7 @@
         <v>2</v>
       </c>
       <c r="I225">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J225">
         <v>2</v>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M225">
         <v>2</v>
@@ -15147,7 +15147,7 @@
         <v>3</v>
       </c>
       <c r="O225">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -15159,13 +15159,13 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T225">
         <v>1</v>
       </c>
       <c r="U225">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15173,7 +15173,7 @@
         <v>44098</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -15185,16 +15185,16 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G226">
         <v>0</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M226">
         <v>2</v>
@@ -15212,7 +15212,7 @@
         <v>2</v>
       </c>
       <c r="O226">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -15224,17 +15224,212 @@
         <v>1</v>
       </c>
       <c r="S226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T226">
         <v>1</v>
       </c>
       <c r="U226">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B227">
+        <v>8</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>5</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
+        <v>10</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227">
+        <v>1</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
+        <v>4</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>3</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228">
+        <v>1</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>3</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 302 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 319 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,8 +139,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -177,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="38">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
@@ -210,6 +221,12 @@
     <cellStyle name="style1596809114826" xfId="30"/>
     <cellStyle name="style1596809114867" xfId="28"/>
     <cellStyle name="style1596809114887" xfId="31"/>
+    <cellStyle name="style1601472990654" xfId="32"/>
+    <cellStyle name="style1601472990673" xfId="35"/>
+    <cellStyle name="style1601472990711" xfId="33"/>
+    <cellStyle name="style1601472990730" xfId="36"/>
+    <cellStyle name="style1601472990774" xfId="34"/>
+    <cellStyle name="style1601472990793" xfId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U230"/>
+  <dimension ref="A1:U232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S232" sqref="S232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -6910,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -7001,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100">
         <v>7</v>
@@ -7040,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7849,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -7885,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="U113" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -8171,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>7</v>
@@ -8210,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8236,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -8275,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -8821,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8860,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -10381,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -10420,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="U152" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -10446,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -10485,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -13067,7 +13084,7 @@
         <v>2</v>
       </c>
       <c r="O193">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -13085,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13578,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -13605,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13631,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>8</v>
@@ -13670,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13826,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>3</v>
@@ -13865,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -14068,7 +14085,7 @@
         <v>44081</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209">
         <v>8</v>
@@ -14086,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>5</v>
@@ -14098,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -14125,7 +14142,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14216,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>7</v>
@@ -14237,7 +14254,7 @@
         <v>8</v>
       </c>
       <c r="O211">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -14255,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14263,7 +14280,7 @@
         <v>44084</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C212">
         <v>9</v>
@@ -14281,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>3</v>
@@ -14320,7 +14337,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14346,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I213">
         <v>5</v>
@@ -14385,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14411,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I214">
         <v>9</v>
@@ -14423,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M214">
         <v>1</v>
@@ -14450,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14523,7 +14540,7 @@
         <v>44088</v>
       </c>
       <c r="B216">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -14541,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216">
         <v>6</v>
@@ -14574,13 +14591,13 @@
         <v>1</v>
       </c>
       <c r="S216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14606,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14645,7 +14662,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14671,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14710,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14718,7 +14735,7 @@
         <v>44091</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219">
         <v>8</v>
@@ -14748,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14775,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14783,7 +14800,7 @@
         <v>44092</v>
       </c>
       <c r="B220">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220">
         <v>6</v>
@@ -14792,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -14834,13 +14851,13 @@
         <v>2</v>
       </c>
       <c r="S220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T220">
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14866,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I221">
         <v>7</v>
@@ -14905,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14913,7 +14930,7 @@
         <v>44094</v>
       </c>
       <c r="B222">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -14970,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -14978,7 +14995,7 @@
         <v>44095</v>
       </c>
       <c r="B223">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C223">
         <v>10</v>
@@ -14987,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -14996,10 +15013,10 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I223">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J223">
         <v>2</v>
@@ -15017,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="O223">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15029,13 +15046,13 @@
         <v>5</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T223">
         <v>4</v>
       </c>
       <c r="U223">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15043,7 +15060,7 @@
         <v>44096</v>
       </c>
       <c r="B224">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C224">
         <v>11</v>
@@ -15052,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -15061,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15073,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15082,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -15094,13 +15111,13 @@
         <v>1</v>
       </c>
       <c r="S224">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T224">
         <v>2</v>
       </c>
       <c r="U224">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15108,7 +15125,7 @@
         <v>44097</v>
       </c>
       <c r="B225">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -15126,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15147,7 +15164,7 @@
         <v>3</v>
       </c>
       <c r="O225">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -15159,13 +15176,13 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T225">
         <v>1</v>
       </c>
       <c r="U225">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15173,7 +15190,7 @@
         <v>44098</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -15191,10 +15208,10 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I226">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -15212,7 +15229,7 @@
         <v>2</v>
       </c>
       <c r="O226">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -15224,13 +15241,13 @@
         <v>1</v>
       </c>
       <c r="S226">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T226">
         <v>1</v>
       </c>
       <c r="U226">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15238,7 +15255,7 @@
         <v>44099</v>
       </c>
       <c r="B227">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -15247,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F227">
         <v>5</v>
@@ -15259,43 +15276,43 @@
         <v>3</v>
       </c>
       <c r="I227">
+        <v>14</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>5</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227">
+        <v>31</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>1</v>
+      </c>
+      <c r="R227">
+        <v>1</v>
+      </c>
+      <c r="S227">
         <v>10</v>
       </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-      <c r="K227">
-        <v>0</v>
-      </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227">
-        <v>3</v>
-      </c>
-      <c r="N227">
-        <v>2</v>
-      </c>
-      <c r="O227">
-        <v>1</v>
-      </c>
-      <c r="P227">
-        <v>0</v>
-      </c>
-      <c r="Q227">
-        <v>0</v>
-      </c>
-      <c r="R227">
-        <v>1</v>
-      </c>
-      <c r="S227">
-        <v>4</v>
-      </c>
       <c r="T227">
         <v>1</v>
       </c>
       <c r="U227">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15303,46 +15320,46 @@
         <v>44100</v>
       </c>
       <c r="B228">
+        <v>8</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+      <c r="I228">
         <v>6</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>1</v>
-      </c>
-      <c r="I228">
-        <v>3</v>
-      </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228">
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M228">
         <v>1</v>
       </c>
       <c r="N228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O228">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -15354,13 +15371,13 @@
         <v>2</v>
       </c>
       <c r="S228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T228">
         <v>1</v>
       </c>
       <c r="U228">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15368,7 +15385,7 @@
         <v>44101</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -15377,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -15386,10 +15403,10 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -15398,38 +15415,168 @@
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M229">
         <v>2</v>
       </c>
       <c r="N229">
+        <v>5</v>
+      </c>
+      <c r="O229">
+        <v>14</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>3</v>
+      </c>
+      <c r="S229">
         <v>4</v>
       </c>
-      <c r="O229">
-        <v>0</v>
-      </c>
-      <c r="P229">
-        <v>0</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>3</v>
-      </c>
-      <c r="S229">
-        <v>0</v>
-      </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B230">
+        <v>10</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>14</v>
+      </c>
+      <c r="I230">
+        <v>10</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230">
+        <v>6</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1</v>
+      </c>
+      <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="U230">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>4</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>2</v>
+      </c>
+      <c r="U231">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 319 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 315 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U232"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S232" sqref="S232"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8188,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>7</v>
@@ -8227,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8253,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -8292,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -8838,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8877,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -10398,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -10437,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="U152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
@@ -10463,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -10502,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
@@ -12555,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="L185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -12582,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -13258,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -13297,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13335,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -13362,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -14020,7 +14015,7 @@
         <v>44080</v>
       </c>
       <c r="B208">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C208">
         <v>3</v>
@@ -14077,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14085,7 +14080,7 @@
         <v>44081</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209">
         <v>8</v>
@@ -14136,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="S209">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T209">
         <v>2</v>
@@ -14239,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="J211">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14272,7 +14267,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14298,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I212">
         <v>3</v>
@@ -14337,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14363,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I213">
         <v>5</v>
@@ -14402,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14428,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I214">
         <v>9</v>
@@ -14440,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M214">
         <v>1</v>
@@ -14475,7 +14470,7 @@
         <v>44087</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -14493,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I215">
         <v>7</v>
@@ -14532,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14605,7 +14600,7 @@
         <v>44089</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C217">
         <v>11</v>
@@ -14623,13 +14618,13 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I217">
         <v>8</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -14662,7 +14657,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14721,13 +14716,13 @@
         <v>1</v>
       </c>
       <c r="S218">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T218">
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14753,7 +14748,7 @@
         <v>3</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I219">
         <v>10</v>
@@ -14774,7 +14769,7 @@
         <v>3</v>
       </c>
       <c r="O219">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -14792,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14821,7 +14816,7 @@
         <v>6</v>
       </c>
       <c r="I220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J220">
         <v>1</v>
@@ -14857,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14889,7 +14884,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14904,7 +14899,7 @@
         <v>6</v>
       </c>
       <c r="O221">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -14922,7 +14917,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14969,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="O222">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -14987,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15025,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="L223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M223">
         <v>3</v>
@@ -15052,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15060,10 +15055,10 @@
         <v>44096</v>
       </c>
       <c r="B224">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C224">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -15078,13 +15073,13 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>7</v>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15128,7 +15123,7 @@
         <v>10</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15193,7 +15188,7 @@
         <v>8</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -15208,13 +15203,13 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I226">
         <v>8</v>
       </c>
       <c r="J226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -15247,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15255,10 +15250,10 @@
         <v>44099</v>
       </c>
       <c r="B227">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -15273,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I227">
         <v>14</v>
@@ -15294,7 +15289,7 @@
         <v>2</v>
       </c>
       <c r="O227">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P227">
         <v>0</v>
@@ -15306,13 +15301,13 @@
         <v>1</v>
       </c>
       <c r="S227">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T227">
         <v>1</v>
       </c>
       <c r="U227">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15320,10 +15315,10 @@
         <v>44100</v>
       </c>
       <c r="B228">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -15338,13 +15333,13 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I228">
         <v>6</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -15371,13 +15366,13 @@
         <v>2</v>
       </c>
       <c r="S228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T228">
         <v>1</v>
       </c>
       <c r="U228">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15385,10 +15380,10 @@
         <v>44101</v>
       </c>
       <c r="B229">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -15406,7 +15401,7 @@
         <v>6</v>
       </c>
       <c r="I229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -15424,7 +15419,7 @@
         <v>5</v>
       </c>
       <c r="O229">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P229">
         <v>0</v>
@@ -15436,13 +15431,13 @@
         <v>3</v>
       </c>
       <c r="S229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15450,16 +15445,16 @@
         <v>44102</v>
       </c>
       <c r="B230">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -15468,10 +15463,10 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I230">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -15480,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M230">
         <v>3</v>
@@ -15489,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="O230">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -15501,13 +15496,13 @@
         <v>2</v>
       </c>
       <c r="S230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T230">
         <v>2</v>
       </c>
       <c r="U230">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15515,10 +15510,10 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -15533,50 +15528,115 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
+        <v>8</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>2</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>6</v>
+      </c>
+      <c r="O231">
+        <v>12</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>2</v>
+      </c>
+      <c r="T231">
+        <v>2</v>
+      </c>
+      <c r="U231">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
         <v>4</v>
       </c>
-      <c r="J231">
-        <v>0</v>
-      </c>
-      <c r="K231">
-        <v>0</v>
-      </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-      <c r="M231">
-        <v>2</v>
-      </c>
-      <c r="N231">
-        <v>2</v>
-      </c>
-      <c r="O231">
-        <v>0</v>
-      </c>
-      <c r="P231">
-        <v>0</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>2</v>
-      </c>
-      <c r="S231">
-        <v>0</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
-      <c r="U231">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232">
+        <v>3</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 315 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 323 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -523,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:U234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14039,7 +14039,7 @@
         <v>5</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -14072,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I209">
         <v>5</v>
@@ -14137,7 +14137,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14340,7 +14340,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I213">
         <v>5</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14405,7 +14405,7 @@
         <v>44086</v>
       </c>
       <c r="B214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C214">
         <v>8</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I214">
         <v>9</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I215">
         <v>7</v>
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14559,7 +14559,7 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14704,7 +14704,7 @@
         <v>5</v>
       </c>
       <c r="O218">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -14722,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14795,7 +14795,7 @@
         <v>44092</v>
       </c>
       <c r="B220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220">
         <v>6</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14872,13 +14872,13 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I221">
         <v>7</v>
@@ -14917,7 +14917,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -15047,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="M225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N225">
         <v>3</v>
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15197,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15250,7 +15250,7 @@
         <v>44099</v>
       </c>
       <c r="B227">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -15292,7 +15292,7 @@
         <v>36</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q227">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15348,13 +15348,13 @@
         <v>2</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N228">
         <v>2</v>
       </c>
       <c r="O228">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -15372,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15380,7 +15380,7 @@
         <v>44101</v>
       </c>
       <c r="B229">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C229">
         <v>4</v>
@@ -15404,7 +15404,7 @@
         <v>11</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>5</v>
       </c>
       <c r="O229">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P229">
         <v>0</v>
@@ -15437,7 +15437,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15445,7 +15445,7 @@
         <v>44102</v>
       </c>
       <c r="B230">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C230">
         <v>3</v>
@@ -15463,13 +15463,13 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I230">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15484,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="O230">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -15502,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15510,7 +15510,7 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -15528,10 +15528,10 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J231">
         <v>1</v>
@@ -15540,16 +15540,16 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N231">
         <v>6</v>
       </c>
       <c r="O231">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -15561,13 +15561,13 @@
         <v>2</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15575,7 +15575,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -15593,10 +15593,10 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J232">
         <v>1</v>
@@ -15605,38 +15605,103 @@
         <v>0</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M232">
+        <v>5</v>
+      </c>
+      <c r="N232">
+        <v>5</v>
+      </c>
+      <c r="O232">
+        <v>11</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>1</v>
+      </c>
+      <c r="S232">
+        <v>3</v>
+      </c>
+      <c r="T232">
         <v>4</v>
       </c>
-      <c r="N232">
-        <v>3</v>
-      </c>
-      <c r="O232">
-        <v>3</v>
-      </c>
-      <c r="P232">
-        <v>0</v>
-      </c>
-      <c r="Q232">
-        <v>0</v>
-      </c>
-      <c r="R232">
-        <v>1</v>
-      </c>
-      <c r="S232">
-        <v>0</v>
-      </c>
-      <c r="T232">
-        <v>2</v>
-      </c>
       <c r="U232">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>1</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>4</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 323 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 333 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U234"/>
+  <dimension ref="A1:U237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13135,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -13162,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -14760,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14787,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -15029,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="O223">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15047,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15094,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15224,7 +15229,7 @@
         <v>2</v>
       </c>
       <c r="O226">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -15242,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15280,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="L227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M227">
         <v>3</v>
@@ -15307,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15484,7 +15489,7 @@
         <v>2</v>
       </c>
       <c r="O230">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -15502,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15519,7 +15524,7 @@
         <v>2</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -15540,16 +15545,16 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N231">
         <v>6</v>
       </c>
       <c r="O231">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -15567,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15575,46 +15580,46 @@
         <v>44104</v>
       </c>
       <c r="B232">
+        <v>10</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>5</v>
+      </c>
+      <c r="I232">
+        <v>14</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
+      <c r="M232">
         <v>6</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>3</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <v>3</v>
-      </c>
-      <c r="I232">
-        <v>11</v>
-      </c>
-      <c r="J232">
-        <v>1</v>
-      </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232">
-        <v>3</v>
-      </c>
-      <c r="M232">
-        <v>5</v>
       </c>
       <c r="N232">
         <v>5</v>
       </c>
       <c r="O232">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -15632,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15640,16 +15645,16 @@
         <v>44105</v>
       </c>
       <c r="B233">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -15661,10 +15666,10 @@
         <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15676,10 +15681,10 @@
         <v>2</v>
       </c>
       <c r="N233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -15688,20 +15693,215 @@
         <v>0</v>
       </c>
       <c r="R233">
+        <v>5</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>6</v>
+      </c>
+      <c r="I234">
+        <v>12</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>5</v>
+      </c>
+      <c r="N234">
+        <v>5</v>
+      </c>
+      <c r="O234">
+        <v>3</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>1</v>
+      </c>
+      <c r="R234">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <v>1</v>
+      </c>
+      <c r="T234">
+        <v>2</v>
+      </c>
+      <c r="U234">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>6</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>2</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>1</v>
+      </c>
+      <c r="S235">
+        <v>1</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
         <v>4</v>
       </c>
-      <c r="S233">
-        <v>0</v>
-      </c>
-      <c r="T233">
-        <v>0</v>
-      </c>
-      <c r="U233">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="O236">
+        <v>3</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 333 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 345 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U237"/>
+  <dimension ref="A1:U238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -6472,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -13214,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13232,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13574,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -13622,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13799,7 +13794,7 @@
         <v>5</v>
       </c>
       <c r="O204">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13817,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -13825,7 +13820,7 @@
         <v>44077</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -13882,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -14345,7 +14340,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -14378,7 +14373,7 @@
         <v>2</v>
       </c>
       <c r="M213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N213">
         <v>3</v>
@@ -14393,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="R213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S213">
         <v>9</v>
@@ -14402,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14449,7 +14444,7 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P214">
         <v>1</v>
@@ -14467,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14718,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="R218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S218">
         <v>14</v>
@@ -14727,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14786,13 +14781,13 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T219">
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14833,7 +14828,7 @@
         <v>6</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N220">
         <v>5</v>
@@ -14848,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S220">
         <v>7</v>
@@ -14857,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14913,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="R221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S221">
         <v>9</v>
@@ -14922,7 +14917,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14978,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="R222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S222">
         <v>6</v>
@@ -14987,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15125,7 +15120,7 @@
         <v>44097</v>
       </c>
       <c r="B225">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15190,7 +15185,7 @@
         <v>44098</v>
       </c>
       <c r="B226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C226">
         <v>8</v>
@@ -15247,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15279,7 +15274,7 @@
         <v>14</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -15288,13 +15283,13 @@
         <v>6</v>
       </c>
       <c r="M227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N227">
         <v>2</v>
       </c>
       <c r="O227">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P227">
         <v>1</v>
@@ -15303,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="R227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S227">
         <v>11</v>
@@ -15312,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15359,7 +15354,7 @@
         <v>2</v>
       </c>
       <c r="O228">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -15377,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15403,10 +15398,10 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I229">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J229">
         <v>1</v>
@@ -15433,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="R229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S229">
         <v>5</v>
@@ -15442,7 +15437,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15474,40 +15469,40 @@
         <v>13</v>
       </c>
       <c r="J230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
       <c r="L230">
+        <v>5</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230">
+        <v>44</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
         <v>4</v>
       </c>
-      <c r="M230">
-        <v>3</v>
-      </c>
-      <c r="N230">
-        <v>2</v>
-      </c>
-      <c r="O230">
-        <v>26</v>
-      </c>
-      <c r="P230">
-        <v>0</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>2</v>
-      </c>
-      <c r="S230">
-        <v>2</v>
-      </c>
       <c r="T230">
         <v>2</v>
       </c>
       <c r="U230">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15536,7 +15531,7 @@
         <v>5</v>
       </c>
       <c r="I231">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J231">
         <v>1</v>
@@ -15554,7 +15549,7 @@
         <v>6</v>
       </c>
       <c r="O231">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -15563,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S231">
         <v>4</v>
@@ -15572,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15619,7 +15614,7 @@
         <v>5</v>
       </c>
       <c r="O232">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -15628,16 +15623,16 @@
         <v>0</v>
       </c>
       <c r="R232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T232">
         <v>4</v>
       </c>
       <c r="U232">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15645,7 +15640,7 @@
         <v>44105</v>
       </c>
       <c r="B233">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -15666,16 +15661,16 @@
         <v>1</v>
       </c>
       <c r="I233">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K233">
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M233">
         <v>2</v>
@@ -15684,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="O233">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -15696,13 +15691,13 @@
         <v>5</v>
       </c>
       <c r="S233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T233">
         <v>0</v>
       </c>
       <c r="U233">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15710,7 +15705,7 @@
         <v>44106</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -15719,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -15728,19 +15723,19 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I234">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M234">
         <v>5</v>
@@ -15749,7 +15744,7 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -15758,16 +15753,16 @@
         <v>1</v>
       </c>
       <c r="R234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15775,7 +15770,7 @@
         <v>44107</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -15784,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -15793,10 +15788,10 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -15814,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="O235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -15826,13 +15821,13 @@
         <v>1</v>
       </c>
       <c r="S235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T235">
         <v>0</v>
       </c>
       <c r="U235">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15840,7 +15835,7 @@
         <v>44108</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -15861,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -15870,38 +15865,103 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M236">
         <v>0</v>
       </c>
       <c r="N236">
+        <v>5</v>
+      </c>
+      <c r="O236">
+        <v>13</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
+        <v>3</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
         <v>4</v>
       </c>
-      <c r="O236">
-        <v>3</v>
-      </c>
-      <c r="P236">
-        <v>0</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>0</v>
-      </c>
-      <c r="S236">
-        <v>0</v>
-      </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="N237">
+        <v>7</v>
+      </c>
+      <c r="O237">
+        <v>5</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>4</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 345 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 337 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U238"/>
+  <dimension ref="A1:U239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6597,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -12624,7 +12629,7 @@
         <v>2</v>
       </c>
       <c r="O186">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -12642,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -12754,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="O188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -12772,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -13209,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13227,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13339,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="O197">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -13357,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13590,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -13617,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13649,7 +13654,7 @@
         <v>8</v>
       </c>
       <c r="J202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -13682,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -14379,7 +14384,7 @@
         <v>3</v>
       </c>
       <c r="O213">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -14397,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14674,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -14722,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14955,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M222">
         <v>4</v>
@@ -14982,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15085,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15206,7 +15211,7 @@
         <v>9</v>
       </c>
       <c r="I226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J226">
         <v>2</v>
@@ -15242,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15283,7 +15288,7 @@
         <v>6</v>
       </c>
       <c r="M227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N227">
         <v>2</v>
@@ -15307,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15336,7 +15341,7 @@
         <v>5</v>
       </c>
       <c r="I228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J228">
         <v>2</v>
@@ -15348,7 +15353,7 @@
         <v>2</v>
       </c>
       <c r="M228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N228">
         <v>2</v>
@@ -15372,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15401,7 +15406,7 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J229">
         <v>1</v>
@@ -15437,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15445,7 +15450,7 @@
         <v>44102</v>
       </c>
       <c r="B230">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C230">
         <v>3</v>
@@ -15502,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15540,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M231">
         <v>4</v>
@@ -15567,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15575,7 +15580,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -15596,16 +15601,16 @@
         <v>5</v>
       </c>
       <c r="I232">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M232">
         <v>6</v>
@@ -15632,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15640,7 +15645,7 @@
         <v>44105</v>
       </c>
       <c r="B233">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -15658,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>16</v>
@@ -15670,10 +15675,10 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N233">
         <v>1</v>
@@ -15697,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15723,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I234">
         <v>14</v>
@@ -15735,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="L234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M234">
         <v>5</v>
@@ -15762,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15770,7 +15775,7 @@
         <v>44107</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -15788,10 +15793,10 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -15827,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15835,29 +15840,29 @@
         <v>44108</v>
       </c>
       <c r="B236">
+        <v>10</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
         <v>8</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>1</v>
-      </c>
-      <c r="H236">
-        <v>1</v>
-      </c>
-      <c r="I236">
-        <v>6</v>
-      </c>
       <c r="J236">
         <v>1</v>
       </c>
@@ -15865,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M236">
         <v>0</v>
@@ -15874,7 +15879,7 @@
         <v>5</v>
       </c>
       <c r="O236">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -15892,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15900,7 +15905,7 @@
         <v>44109</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -15918,25 +15923,25 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O237">
         <v>5</v>
@@ -15957,11 +15962,76 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>4</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238">
+        <v>1</v>
+      </c>
+      <c r="P238">
+        <v>1</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 337 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 346 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U239"/>
+  <dimension ref="A1:U240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12490,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -12517,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
@@ -12614,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12647,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
@@ -13096,13 +13091,13 @@
         <v>1</v>
       </c>
       <c r="S193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T193">
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13161,13 +13156,13 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13199,7 +13194,7 @@
         <v>3</v>
       </c>
       <c r="J195">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -13232,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13595,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -13622,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13769,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F204">
         <v>3</v>
@@ -13817,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -14103,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I209">
         <v>5</v>
@@ -14142,7 +14137,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14656,13 +14651,13 @@
         <v>1</v>
       </c>
       <c r="S217">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14688,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14727,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14851,13 +14846,13 @@
         <v>3</v>
       </c>
       <c r="S220">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T220">
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14916,13 +14911,13 @@
         <v>2</v>
       </c>
       <c r="S221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T221">
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14960,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M222">
         <v>4</v>
@@ -14987,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15046,13 +15041,13 @@
         <v>5</v>
       </c>
       <c r="S223">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T223">
         <v>4</v>
       </c>
       <c r="U223">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15090,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15279,7 +15274,7 @@
         <v>14</v>
       </c>
       <c r="J227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -15312,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15350,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="L228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M228">
         <v>4</v>
@@ -15371,13 +15366,13 @@
         <v>2</v>
       </c>
       <c r="S228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T228">
         <v>1</v>
       </c>
       <c r="U228">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15436,13 +15431,13 @@
         <v>4</v>
       </c>
       <c r="S229">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15468,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I230">
         <v>13</v>
@@ -15501,13 +15496,13 @@
         <v>2</v>
       </c>
       <c r="S230">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T230">
         <v>2</v>
       </c>
       <c r="U230">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15545,7 +15540,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M231">
         <v>4</v>
@@ -15554,7 +15549,7 @@
         <v>6</v>
       </c>
       <c r="O231">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -15566,13 +15561,13 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15580,7 +15575,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -15631,13 +15626,13 @@
         <v>3</v>
       </c>
       <c r="S232">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T232">
         <v>4</v>
       </c>
       <c r="U232">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15645,7 +15640,7 @@
         <v>44105</v>
       </c>
       <c r="B233">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -15696,13 +15691,13 @@
         <v>5</v>
       </c>
       <c r="S233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T233">
         <v>0</v>
       </c>
       <c r="U233">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15710,7 +15705,7 @@
         <v>44106</v>
       </c>
       <c r="B234">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -15761,13 +15756,13 @@
         <v>4</v>
       </c>
       <c r="S234">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15775,7 +15770,7 @@
         <v>44107</v>
       </c>
       <c r="B235">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -15793,10 +15788,10 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -15805,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="L235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M235">
         <v>3</v>
@@ -15826,13 +15821,13 @@
         <v>1</v>
       </c>
       <c r="S235">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T235">
         <v>0</v>
       </c>
       <c r="U235">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15840,7 +15835,7 @@
         <v>44108</v>
       </c>
       <c r="B236">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -15870,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M236">
         <v>0</v>
@@ -15891,13 +15886,13 @@
         <v>2</v>
       </c>
       <c r="S236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T236">
         <v>2</v>
       </c>
       <c r="U236">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15905,7 +15900,7 @@
         <v>44109</v>
       </c>
       <c r="B237">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -15914,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -15926,7 +15921,7 @@
         <v>5</v>
       </c>
       <c r="I237">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J237">
         <v>2</v>
@@ -15935,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M237">
         <v>6</v>
@@ -15956,13 +15951,13 @@
         <v>4</v>
       </c>
       <c r="S237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>0</v>
       </c>
       <c r="U237">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15970,7 +15965,7 @@
         <v>44110</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -15988,25 +15983,25 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K238">
         <v>0</v>
       </c>
       <c r="L238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M238">
         <v>4</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O238">
         <v>1</v>
@@ -16021,17 +16016,82 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>13</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>1</v>
+      </c>
+      <c r="R239">
+        <v>4</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 346 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 345 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -523,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U240"/>
+  <dimension ref="A1:U241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="U159" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -12978,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -13014,7 +13014,7 @@
         <v>3</v>
       </c>
       <c r="O192">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P192">
         <v>0</v>
@@ -13043,7 +13043,7 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -13227,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="O196">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13339,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="O197">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13693,7 +13693,7 @@
         <v>5</v>
       </c>
       <c r="C203">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -13747,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13885,7 +13885,7 @@
         <v>44078</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206">
         <v>3</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
         <v>4</v>
@@ -14007,7 +14007,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14054,7 +14054,7 @@
         <v>2</v>
       </c>
       <c r="O208">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -14072,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14119,7 +14119,7 @@
         <v>2</v>
       </c>
       <c r="O209">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -14137,7 +14137,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14148,7 +14148,7 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14249,7 +14249,7 @@
         <v>8</v>
       </c>
       <c r="O211">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -14267,7 +14267,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14408,7 +14408,7 @@
         <v>11</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14674,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -14722,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14730,7 +14730,7 @@
         <v>44091</v>
       </c>
       <c r="B219">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C219">
         <v>8</v>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14884,7 +14884,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14899,7 +14899,7 @@
         <v>6</v>
       </c>
       <c r="O221">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -14990,10 +14990,10 @@
         <v>44095</v>
       </c>
       <c r="B223">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C223">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -15047,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15318,7 +15318,7 @@
         <v>9</v>
       </c>
       <c r="C228">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -15372,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15383,7 +15383,7 @@
         <v>20</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>5</v>
       </c>
       <c r="O229">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P229">
         <v>0</v>
@@ -15448,13 +15448,13 @@
         <v>20</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -15469,7 +15469,7 @@
         <v>13</v>
       </c>
       <c r="J230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15502,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15513,7 +15513,7 @@
         <v>12</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D231">
         <v>2</v>
@@ -15534,7 +15534,7 @@
         <v>10</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -15549,7 +15549,7 @@
         <v>6</v>
       </c>
       <c r="O231">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -15567,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15578,7 +15578,7 @@
         <v>11</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D232">
         <v>3</v>
@@ -15599,7 +15599,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15614,7 +15614,7 @@
         <v>5</v>
       </c>
       <c r="O232">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -15632,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15643,7 +15643,7 @@
         <v>24</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -15661,10 +15661,10 @@
         <v>2</v>
       </c>
       <c r="I233">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15679,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="O233">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15705,10 +15705,10 @@
         <v>44106</v>
       </c>
       <c r="B234">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -15726,7 +15726,7 @@
         <v>11</v>
       </c>
       <c r="I234">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J234">
         <v>1</v>
@@ -15744,7 +15744,7 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -15762,7 +15762,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15773,7 +15773,7 @@
         <v>12</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="O235">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -15827,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15838,7 +15838,7 @@
         <v>14</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>8</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -15874,7 +15874,7 @@
         <v>5</v>
       </c>
       <c r="O236">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -15892,7 +15892,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15903,7 +15903,7 @@
         <v>9</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -15921,7 +15921,7 @@
         <v>5</v>
       </c>
       <c r="I237">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J237">
         <v>2</v>
@@ -15939,7 +15939,7 @@
         <v>8</v>
       </c>
       <c r="O237">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15965,10 +15965,10 @@
         <v>44110</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -15986,7 +15986,7 @@
         <v>4</v>
       </c>
       <c r="I238">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J238">
         <v>1</v>
@@ -15995,7 +15995,7 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M238">
         <v>4</v>
@@ -16004,7 +16004,7 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -16022,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16030,10 +16030,10 @@
         <v>44111</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -16042,34 +16042,34 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I239">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -16087,11 +16087,76 @@
         <v>0</v>
       </c>
       <c r="U239">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>7</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240">
+        <v>2</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>4</v>
+      </c>
+      <c r="S240">
+        <v>1</v>
+      </c>
+      <c r="T240">
+        <v>1</v>
+      </c>
+      <c r="U240">
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 345 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 358 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U241"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13300,7 +13305,7 @@
         <v>44069</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -13357,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13664,7 +13669,7 @@
         <v>2</v>
       </c>
       <c r="O202">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -13682,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13850,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -13877,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -14683,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14722,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -15014,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15047,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15073,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15138,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15177,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15224,7 +15229,7 @@
         <v>2</v>
       </c>
       <c r="O226">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -15242,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15333,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I228">
         <v>7</v>
@@ -15372,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15404,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15437,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15445,7 +15450,7 @@
         <v>44102</v>
       </c>
       <c r="B230">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -15502,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15534,13 +15539,13 @@
         <v>10</v>
       </c>
       <c r="J231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
       <c r="L231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M231">
         <v>4</v>
@@ -15599,7 +15604,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15632,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15640,7 +15645,7 @@
         <v>44105</v>
       </c>
       <c r="B233">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C233">
         <v>14</v>
@@ -15697,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15744,7 +15749,7 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -15762,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15788,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I235">
         <v>18</v>
@@ -15827,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15859,7 +15864,7 @@
         <v>8</v>
       </c>
       <c r="J236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -15874,7 +15879,7 @@
         <v>5</v>
       </c>
       <c r="O236">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -15892,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15918,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I237">
         <v>15</v>
@@ -15930,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M237">
         <v>6</v>
@@ -15939,7 +15944,7 @@
         <v>8</v>
       </c>
       <c r="O237">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -15957,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15965,7 +15970,7 @@
         <v>44110</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C238">
         <v>14</v>
@@ -15977,19 +15982,19 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I238">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16004,7 +16009,7 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -16022,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16030,7 +16035,7 @@
         <v>44111</v>
       </c>
       <c r="B239">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C239">
         <v>4</v>
@@ -16048,10 +16053,10 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I239">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J239">
         <v>4</v>
@@ -16069,7 +16074,7 @@
         <v>4</v>
       </c>
       <c r="O239">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -16087,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16095,68 +16100,263 @@
         <v>44112</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>5</v>
+      </c>
+      <c r="I240">
+        <v>13</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>5</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240">
         <v>4</v>
       </c>
-      <c r="D240">
-        <v>3</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>1</v>
-      </c>
-      <c r="I240">
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>5</v>
+      </c>
+      <c r="S240">
+        <v>1</v>
+      </c>
+      <c r="T240">
+        <v>1</v>
+      </c>
+      <c r="U240">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B241">
+        <v>10</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>11</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241">
+        <v>2</v>
+      </c>
+      <c r="P241">
+        <v>2</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>4</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+      <c r="T241">
+        <v>1</v>
+      </c>
+      <c r="U241">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B242">
+        <v>8</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
         <v>7</v>
       </c>
-      <c r="J240">
-        <v>0</v>
-      </c>
-      <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240">
-        <v>0</v>
-      </c>
-      <c r="M240">
-        <v>1</v>
-      </c>
-      <c r="N240">
-        <v>3</v>
-      </c>
-      <c r="O240">
-        <v>2</v>
-      </c>
-      <c r="P240">
-        <v>0</v>
-      </c>
-      <c r="Q240">
-        <v>0</v>
-      </c>
-      <c r="R240">
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242">
+        <v>2</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>1</v>
+      </c>
+      <c r="U242">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B243">
         <v>4</v>
       </c>
-      <c r="S240">
-        <v>1</v>
-      </c>
-      <c r="T240">
-        <v>1</v>
-      </c>
-      <c r="U240">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>5</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 358 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 366 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U244"/>
+  <dimension ref="A1:U245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A245" sqref="A245"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15078,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15143,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15480,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M230">
         <v>3</v>
@@ -15501,13 +15496,13 @@
         <v>2</v>
       </c>
       <c r="S230">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T230">
         <v>2</v>
       </c>
       <c r="U230">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15566,13 +15561,13 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15805,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="L235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M235">
         <v>3</v>
@@ -15832,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15891,13 +15886,13 @@
         <v>2</v>
       </c>
       <c r="S236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T236">
         <v>2</v>
       </c>
       <c r="U236">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15953,16 +15948,16 @@
         <v>0</v>
       </c>
       <c r="R237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T237">
         <v>0</v>
       </c>
       <c r="U237">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -16021,13 +16016,13 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16083,16 +16078,16 @@
         <v>1</v>
       </c>
       <c r="R239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S239">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T239">
         <v>0</v>
       </c>
       <c r="U239">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16145,19 +16140,19 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R240">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S240">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T240">
         <v>1</v>
       </c>
       <c r="U240">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16180,7 +16175,7 @@
         <v>2</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -16198,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N241">
         <v>4</v>
@@ -16216,13 +16211,13 @@
         <v>4</v>
       </c>
       <c r="S241">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T241">
         <v>1</v>
       </c>
       <c r="U241">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16251,7 +16246,7 @@
         <v>0</v>
       </c>
       <c r="I242">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -16281,13 +16276,13 @@
         <v>2</v>
       </c>
       <c r="S242">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
       <c r="U242">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16298,7 +16293,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -16307,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -16316,47 +16311,112 @@
         <v>1</v>
       </c>
       <c r="I243">
+        <v>8</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243">
+        <v>1</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>4</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+      <c r="U243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
         <v>5</v>
       </c>
-      <c r="J243">
-        <v>0</v>
-      </c>
-      <c r="K243">
-        <v>0</v>
-      </c>
-      <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243">
-        <v>2</v>
-      </c>
-      <c r="N243">
-        <v>2</v>
-      </c>
-      <c r="O243">
-        <v>0</v>
-      </c>
-      <c r="P243">
-        <v>0</v>
-      </c>
-      <c r="Q243">
-        <v>0</v>
-      </c>
-      <c r="R243">
-        <v>0</v>
-      </c>
-      <c r="S243">
-        <v>0</v>
-      </c>
-      <c r="T243">
-        <v>0</v>
-      </c>
-      <c r="U243">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>4</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>1</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 366 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 384 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U245"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13495,7 +13495,7 @@
         <v>44072</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13552,7 +13552,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13885,7 +13885,7 @@
         <v>44078</v>
       </c>
       <c r="B206">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206">
         <v>3</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I210">
         <v>3</v>
@@ -14202,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14261,13 +14261,13 @@
         <v>1</v>
       </c>
       <c r="S211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T211">
         <v>2</v>
       </c>
       <c r="U211">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14340,7 +14340,7 @@
         <v>44085</v>
       </c>
       <c r="B213">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14470,7 +14470,7 @@
         <v>44087</v>
       </c>
       <c r="B215">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15112,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M230">
         <v>3</v>
@@ -15502,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15661,7 +15661,7 @@
         <v>2</v>
       </c>
       <c r="I233">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J233">
         <v>3</v>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15791,7 +15791,7 @@
         <v>4</v>
       </c>
       <c r="I235">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J235">
         <v>0</v>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="L235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M235">
         <v>3</v>
@@ -15924,7 +15924,7 @@
         <v>15</v>
       </c>
       <c r="J237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15968,7 +15968,7 @@
         <v>10</v>
       </c>
       <c r="C238">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -15989,7 +15989,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16004,7 +16004,7 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -16022,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16051,7 +16051,7 @@
         <v>13</v>
       </c>
       <c r="I239">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J239">
         <v>4</v>
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M239">
         <v>3</v>
@@ -16069,7 +16069,7 @@
         <v>4</v>
       </c>
       <c r="O239">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16095,7 +16095,7 @@
         <v>44112</v>
       </c>
       <c r="B240">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C240">
         <v>8</v>
@@ -16116,7 +16116,7 @@
         <v>5</v>
       </c>
       <c r="I240">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J240">
         <v>1</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M240">
         <v>5</v>
@@ -16134,7 +16134,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16160,7 +16160,7 @@
         <v>44113</v>
       </c>
       <c r="B241">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C241">
         <v>3</v>
@@ -16169,7 +16169,7 @@
         <v>2</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -16178,10 +16178,10 @@
         <v>2</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I241">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -16190,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="L241">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M241">
         <v>1</v>
@@ -16199,7 +16199,7 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P241">
         <v>2</v>
@@ -16214,10 +16214,10 @@
         <v>9</v>
       </c>
       <c r="T241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16225,10 +16225,10 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -16243,19 +16243,19 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R242">
         <v>2</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16290,7 +16290,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -16311,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="I243">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -16320,16 +16320,16 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O243">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P243">
         <v>0</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16355,16 +16355,16 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D244">
         <v>1</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -16373,13 +16373,13 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -16388,13 +16388,13 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N244">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O244">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P244">
         <v>1</v>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="R244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S244">
         <v>0</v>
@@ -16412,11 +16412,76 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245">
+        <v>11</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>2</v>
+      </c>
+      <c r="N245">
+        <v>6</v>
+      </c>
+      <c r="O245">
+        <v>6</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>1</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>4</v>
+      </c>
+      <c r="U245">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 384 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 382 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U246"/>
+  <dimension ref="A1:U247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -11510,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169">
         <v>1</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
@@ -13794,7 +13794,7 @@
         <v>5</v>
       </c>
       <c r="O204">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="U204">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
@@ -14444,7 +14444,7 @@
         <v>2</v>
       </c>
       <c r="O214">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P214">
         <v>1</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14509,7 +14509,7 @@
         <v>6</v>
       </c>
       <c r="O215">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14704,7 +14704,7 @@
         <v>5</v>
       </c>
       <c r="O218">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -14722,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14769,7 +14769,7 @@
         <v>3</v>
       </c>
       <c r="O219">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14955,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M222">
         <v>4</v>
@@ -14982,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="O223">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15047,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M224">
         <v>6</v>
@@ -15112,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I228">
         <v>7</v>
@@ -15372,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I229">
         <v>13</v>
@@ -15431,7 +15431,7 @@
         <v>4</v>
       </c>
       <c r="S229">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T229">
         <v>2</v>
@@ -15510,7 +15510,7 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C231">
         <v>9</v>
@@ -15567,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15658,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>18</v>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15788,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I235">
         <v>19</v>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="L235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M235">
         <v>3</v>
@@ -15827,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236">
         <v>8</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M236">
         <v>0</v>
@@ -15892,7 +15892,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15918,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I237">
         <v>15</v>
@@ -15933,7 +15933,7 @@
         <v>3</v>
       </c>
       <c r="M237">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N237">
         <v>8</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I238">
         <v>18</v>
@@ -16022,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I239">
         <v>23</v>
@@ -16069,7 +16069,7 @@
         <v>4</v>
       </c>
       <c r="O239">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16119,7 +16119,7 @@
         <v>14</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -16134,7 +16134,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16160,7 +16160,7 @@
         <v>44113</v>
       </c>
       <c r="B241">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C241">
         <v>3</v>
@@ -16181,10 +16181,10 @@
         <v>6</v>
       </c>
       <c r="I241">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -16199,7 +16199,7 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P241">
         <v>2</v>
@@ -16217,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16225,7 +16225,7 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C242">
         <v>5</v>
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -16243,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I242">
         <v>16</v>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -16264,7 +16264,7 @@
         <v>2</v>
       </c>
       <c r="O242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P242">
         <v>0</v>
@@ -16276,13 +16276,13 @@
         <v>2</v>
       </c>
       <c r="S242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
       <c r="U242">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16290,37 +16290,37 @@
         <v>44115</v>
       </c>
       <c r="B243">
+        <v>9</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
         <v>6</v>
-      </c>
-      <c r="C243">
-        <v>3</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>2</v>
-      </c>
-      <c r="G243">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>1</v>
       </c>
       <c r="I243">
         <v>9</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M243">
         <v>3</v>
@@ -16329,7 +16329,7 @@
         <v>3</v>
       </c>
       <c r="O243">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P243">
         <v>0</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16355,7 +16355,7 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C244">
         <v>6</v>
@@ -16373,22 +16373,22 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I244">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N244">
         <v>6</v>
@@ -16406,13 +16406,13 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
       <c r="U244">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16420,16 +16420,16 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D245">
         <v>4</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -16438,28 +16438,28 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I245">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O245">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -16468,20 +16468,85 @@
         <v>1</v>
       </c>
       <c r="R245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S245">
         <v>0</v>
       </c>
       <c r="T245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U245">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>3</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+      <c r="I246">
+        <v>10</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+      <c r="N246">
+        <v>5</v>
+      </c>
+      <c r="O246">
+        <v>1</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>5</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 382 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 386 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11250,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -11277,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
@@ -14423,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I214">
         <v>9</v>
@@ -14462,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14500,7 +14505,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -14509,7 +14514,7 @@
         <v>6</v>
       </c>
       <c r="O215">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -14565,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -14592,7 +14597,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14819,7 +14824,7 @@
         <v>9</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -14852,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14955,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M222">
         <v>4</v>
@@ -14982,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15094,7 +15099,7 @@
         <v>1</v>
       </c>
       <c r="O224">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15289,7 +15294,7 @@
         <v>2</v>
       </c>
       <c r="O227">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P227">
         <v>1</v>
@@ -15307,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15354,7 +15359,7 @@
         <v>2</v>
       </c>
       <c r="O228">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -15372,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15463,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I230">
         <v>13</v>
@@ -15502,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15528,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I231">
         <v>10</v>
@@ -15540,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M231">
         <v>4</v>
@@ -15549,7 +15554,7 @@
         <v>6</v>
       </c>
       <c r="O231">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -15567,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15575,7 +15580,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -15593,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I232">
         <v>15</v>
@@ -15614,7 +15619,7 @@
         <v>5</v>
       </c>
       <c r="O232">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -15632,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15640,7 +15645,7 @@
         <v>44105</v>
       </c>
       <c r="B233">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C233">
         <v>14</v>
@@ -15658,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I233">
         <v>18</v>
@@ -15697,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15723,13 +15728,13 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I234">
         <v>15</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -15762,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15794,7 +15799,7 @@
         <v>19</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K235">
         <v>1</v>
@@ -15809,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="O235">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -15827,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15859,7 +15864,7 @@
         <v>8</v>
       </c>
       <c r="J236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -15892,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15918,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I237">
         <v>15</v>
@@ -15939,7 +15944,7 @@
         <v>8</v>
       </c>
       <c r="O237">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -15957,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15983,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I238">
         <v>18</v>
@@ -16004,7 +16009,7 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -16022,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16030,7 +16035,7 @@
         <v>44111</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C239">
         <v>4</v>
@@ -16081,7 +16086,7 @@
         <v>5</v>
       </c>
       <c r="S239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T239">
         <v>0</v>
@@ -16134,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16160,7 +16165,7 @@
         <v>44113</v>
       </c>
       <c r="B241">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C241">
         <v>3</v>
@@ -16199,7 +16204,7 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="P241">
         <v>2</v>
@@ -16211,13 +16216,13 @@
         <v>4</v>
       </c>
       <c r="S241">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T241">
         <v>2</v>
       </c>
       <c r="U241">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16225,7 +16230,7 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C242">
         <v>5</v>
@@ -16234,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -16243,19 +16248,19 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I242">
         <v>16</v>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -16264,7 +16269,7 @@
         <v>2</v>
       </c>
       <c r="O242">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P242">
         <v>0</v>
@@ -16282,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16290,7 +16295,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16308,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I243">
         <v>9</v>
@@ -16329,7 +16334,7 @@
         <v>3</v>
       </c>
       <c r="O243">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="P243">
         <v>0</v>
@@ -16347,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16355,7 +16360,7 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C244">
         <v>6</v>
@@ -16373,10 +16378,10 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I244">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J244">
         <v>2</v>
@@ -16385,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="L244">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M244">
         <v>3</v>
@@ -16394,7 +16399,7 @@
         <v>6</v>
       </c>
       <c r="O244">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="P244">
         <v>1</v>
@@ -16406,13 +16411,13 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
       <c r="U244">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16420,7 +16425,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16441,7 +16446,7 @@
         <v>8</v>
       </c>
       <c r="I245">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -16459,7 +16464,7 @@
         <v>8</v>
       </c>
       <c r="O245">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -16474,10 +16479,10 @@
         <v>0</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U245">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16485,16 +16490,16 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D246">
         <v>3</v>
       </c>
       <c r="E246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -16503,10 +16508,10 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I246">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -16515,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M246">
         <v>2</v>
@@ -16524,7 +16529,7 @@
         <v>5</v>
       </c>
       <c r="O246">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P246">
         <v>0</v>
@@ -16533,20 +16538,85 @@
         <v>0</v>
       </c>
       <c r="R246">
+        <v>6</v>
+      </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>2</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>6</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>3</v>
+      </c>
+      <c r="N247">
         <v>5</v>
       </c>
-      <c r="S246">
-        <v>0</v>
-      </c>
-      <c r="T246">
-        <v>0</v>
-      </c>
-      <c r="U246">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="O247">
+        <v>1</v>
+      </c>
+      <c r="P247">
+        <v>1</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>5</v>
+      </c>
+      <c r="S247">
+        <v>1</v>
+      </c>
+      <c r="T247">
+        <v>1</v>
+      </c>
+      <c r="U247">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 386 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 392 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U248"/>
+  <dimension ref="A1:U251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13400,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13427,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -14319,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="O212">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -14337,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14570,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -14597,7 +14592,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14623,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14662,7 +14657,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14774,7 +14769,7 @@
         <v>3</v>
       </c>
       <c r="O219">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -14792,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14839,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="O220">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P220">
         <v>0</v>
@@ -14857,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -15125,7 +15120,7 @@
         <v>44097</v>
       </c>
       <c r="B225">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15255,7 +15250,7 @@
         <v>44099</v>
       </c>
       <c r="B227">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -15312,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15335,7 +15330,7 @@
         <v>1</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
         <v>5</v>
@@ -15377,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15385,7 +15380,7 @@
         <v>44101</v>
       </c>
       <c r="B229">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -15442,7 +15437,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15471,7 +15466,7 @@
         <v>21</v>
       </c>
       <c r="I230">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J230">
         <v>4</v>
@@ -15507,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15545,7 +15540,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M231">
         <v>4</v>
@@ -15566,7 +15561,7 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T231">
         <v>2</v>
@@ -15631,13 +15626,13 @@
         <v>3</v>
       </c>
       <c r="S232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T232">
         <v>4</v>
       </c>
       <c r="U232">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15660,10 +15655,10 @@
         <v>2</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I233">
         <v>18</v>
@@ -15702,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15734,7 +15729,7 @@
         <v>15</v>
       </c>
       <c r="J234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -15767,7 +15762,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15793,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I235">
         <v>19</v>
@@ -15832,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15944,7 +15939,7 @@
         <v>8</v>
       </c>
       <c r="O237">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -15956,13 +15951,13 @@
         <v>5</v>
       </c>
       <c r="S237">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T237">
         <v>0</v>
       </c>
       <c r="U237">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15994,7 +15989,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16009,7 +16004,7 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -16121,7 +16116,7 @@
         <v>5</v>
       </c>
       <c r="I240">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J240">
         <v>2</v>
@@ -16157,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16186,7 +16181,7 @@
         <v>6</v>
       </c>
       <c r="I241">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J241">
         <v>1</v>
@@ -16195,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="L241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M241">
         <v>1</v>
@@ -16204,7 +16199,7 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P241">
         <v>2</v>
@@ -16216,13 +16211,13 @@
         <v>4</v>
       </c>
       <c r="S241">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T241">
         <v>2</v>
       </c>
       <c r="U241">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16230,10 +16225,10 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -16269,7 +16264,7 @@
         <v>2</v>
       </c>
       <c r="O242">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="P242">
         <v>0</v>
@@ -16287,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16295,7 +16290,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16316,7 +16311,7 @@
         <v>8</v>
       </c>
       <c r="I243">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J243">
         <v>1</v>
@@ -16325,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M243">
         <v>3</v>
@@ -16334,7 +16329,7 @@
         <v>3</v>
       </c>
       <c r="O243">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P243">
         <v>0</v>
@@ -16352,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16360,10 +16355,10 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C244">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -16390,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="L244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M244">
         <v>3</v>
@@ -16411,13 +16406,13 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
       <c r="U244">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16425,7 +16420,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16446,7 +16441,7 @@
         <v>8</v>
       </c>
       <c r="I245">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -16464,7 +16459,7 @@
         <v>8</v>
       </c>
       <c r="O245">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -16476,13 +16471,13 @@
         <v>2</v>
       </c>
       <c r="S245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T245">
         <v>4</v>
       </c>
       <c r="U245">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16490,7 +16485,7 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C246">
         <v>7</v>
@@ -16508,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I246">
         <v>12</v>
@@ -16520,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M246">
         <v>2</v>
@@ -16538,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="R246">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S246">
         <v>2</v>
@@ -16547,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16555,10 +16550,10 @@
         <v>44119</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -16573,13 +16568,13 @@
         <v>2</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16594,7 +16589,7 @@
         <v>5</v>
       </c>
       <c r="O247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -16612,11 +16607,206 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B248">
+        <v>8</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>6</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>4</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>3</v>
+      </c>
+      <c r="N248">
+        <v>7</v>
+      </c>
+      <c r="O248">
+        <v>1</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>7</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>8</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>17</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>2</v>
+      </c>
+      <c r="U249">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>6</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>4</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>1</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 392 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 415 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -523,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U251"/>
+  <dimension ref="A1:U252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13676,13 +13676,13 @@
         <v>1</v>
       </c>
       <c r="S202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T202">
         <v>1</v>
       </c>
       <c r="U202">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F221">
         <v>4</v>
@@ -14917,7 +14917,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14928,7 +14928,7 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -14982,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15144,7 +15144,7 @@
         <v>12</v>
       </c>
       <c r="J225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15194,7 +15194,7 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F226">
         <v>6</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15614,7 +15614,7 @@
         <v>5</v>
       </c>
       <c r="O232">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -15632,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15750,7 +15750,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R234">
         <v>4</v>
@@ -15762,7 +15762,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -16033,7 +16033,7 @@
         <v>13</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16276,13 +16276,13 @@
         <v>2</v>
       </c>
       <c r="S242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
       <c r="U242">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16290,7 +16290,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M243">
         <v>3</v>
@@ -16341,13 +16341,13 @@
         <v>2</v>
       </c>
       <c r="S243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T243">
         <v>0</v>
       </c>
       <c r="U243">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16379,7 +16379,7 @@
         <v>17</v>
       </c>
       <c r="J244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -16406,13 +16406,13 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
       <c r="U244">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16420,7 +16420,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16441,7 +16441,7 @@
         <v>8</v>
       </c>
       <c r="I245">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -16459,7 +16459,7 @@
         <v>8</v>
       </c>
       <c r="O245">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -16471,13 +16471,13 @@
         <v>2</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T245">
         <v>4</v>
       </c>
       <c r="U245">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16485,13 +16485,13 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C246">
         <v>7</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -16506,7 +16506,7 @@
         <v>6</v>
       </c>
       <c r="I246">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -16518,13 +16518,13 @@
         <v>6</v>
       </c>
       <c r="M246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N246">
         <v>5</v>
       </c>
       <c r="O246">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P246">
         <v>0</v>
@@ -16536,13 +16536,13 @@
         <v>7</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T246">
         <v>0</v>
       </c>
       <c r="U246">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16550,7 +16550,7 @@
         <v>44119</v>
       </c>
       <c r="B247">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C247">
         <v>8</v>
@@ -16571,16 +16571,16 @@
         <v>4</v>
       </c>
       <c r="I247">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M247">
         <v>3</v>
@@ -16589,7 +16589,7 @@
         <v>5</v>
       </c>
       <c r="O247">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -16601,13 +16601,13 @@
         <v>5</v>
       </c>
       <c r="S247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T247">
         <v>1</v>
       </c>
       <c r="U247">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16615,7 +16615,7 @@
         <v>44120</v>
       </c>
       <c r="B248">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C248">
         <v>8</v>
@@ -16636,16 +16636,16 @@
         <v>1</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M248">
         <v>3</v>
@@ -16654,7 +16654,7 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -16666,13 +16666,13 @@
         <v>7</v>
       </c>
       <c r="S248">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T248">
         <v>0</v>
       </c>
       <c r="U248">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16680,7 +16680,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16698,10 +16698,10 @@
         <v>3</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>1</v>
       </c>
       <c r="L249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16719,7 +16719,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16731,13 +16731,13 @@
         <v>4</v>
       </c>
       <c r="S249">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T249">
         <v>2</v>
       </c>
       <c r="U249">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16745,16 +16745,16 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250">
         <v>2</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -16766,25 +16766,25 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M250">
         <v>1</v>
       </c>
       <c r="N250">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O250">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P250">
         <v>0</v>
@@ -16793,20 +16793,85 @@
         <v>0</v>
       </c>
       <c r="R250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S250">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T250">
         <v>0</v>
       </c>
       <c r="U250">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>10</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>4</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="P251">
+        <v>1</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>4</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>1</v>
+      </c>
+      <c r="U251">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 415 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 423 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U252"/>
+  <dimension ref="A1:U253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12922,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -12967,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -14222,7 +14227,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -14267,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14479,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -14527,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14760,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14787,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14928,7 +14933,7 @@
         <v>12</v>
       </c>
       <c r="C222">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -14982,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15064,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15865,10 +15870,10 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236">
         <v>5</v>
@@ -15892,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15989,7 +15994,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16022,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16051,10 +16056,10 @@
         <v>15</v>
       </c>
       <c r="I239">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -16087,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16134,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16184,7 +16189,7 @@
         <v>19</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -16217,7 +16222,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16299,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -16320,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M243">
         <v>3</v>
@@ -16347,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16379,7 +16384,7 @@
         <v>17</v>
       </c>
       <c r="J244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -16412,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16444,7 +16449,7 @@
         <v>18</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -16477,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16515,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M246">
         <v>3</v>
@@ -16524,7 +16529,7 @@
         <v>5</v>
       </c>
       <c r="O246">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P246">
         <v>0</v>
@@ -16542,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16574,13 +16579,13 @@
         <v>18</v>
       </c>
       <c r="J247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M247">
         <v>3</v>
@@ -16589,7 +16594,7 @@
         <v>5</v>
       </c>
       <c r="O247">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -16607,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16645,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M248">
         <v>3</v>
@@ -16654,13 +16659,13 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P248">
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -16672,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16710,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="L249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16719,7 +16724,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16745,7 +16750,7 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16763,19 +16768,19 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>17</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M250">
         <v>1</v>
@@ -16784,7 +16789,7 @@
         <v>7</v>
       </c>
       <c r="O250">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P250">
         <v>0</v>
@@ -16802,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16810,16 +16815,16 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C251">
         <v>10</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -16831,47 +16836,112 @@
         <v>0</v>
       </c>
       <c r="I251">
+        <v>19</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>3</v>
+      </c>
+      <c r="M251">
+        <v>4</v>
+      </c>
+      <c r="N251">
+        <v>5</v>
+      </c>
+      <c r="O251">
+        <v>4</v>
+      </c>
+      <c r="P251">
+        <v>1</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>5</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>1</v>
+      </c>
+      <c r="U251">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
         <v>10</v>
       </c>
-      <c r="J251">
-        <v>0</v>
-      </c>
-      <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251">
-        <v>0</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>4</v>
-      </c>
-      <c r="O251">
-        <v>1</v>
-      </c>
-      <c r="P251">
-        <v>1</v>
-      </c>
-      <c r="Q251">
-        <v>0</v>
-      </c>
-      <c r="R251">
-        <v>4</v>
-      </c>
-      <c r="S251">
-        <v>0</v>
-      </c>
-      <c r="T251">
-        <v>1</v>
-      </c>
-      <c r="U251">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252">
+        <v>9</v>
+      </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>6</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>1</v>
+      </c>
+      <c r="U252">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 423 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 435 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U253"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -12777,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13264,7 +13264,7 @@
         <v>4</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -13297,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13524,7 +13524,7 @@
         <v>5</v>
       </c>
       <c r="J200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -13557,7 +13557,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13589,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="J201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
         <v>3</v>
       </c>
       <c r="J205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -14614,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -14629,7 +14629,7 @@
         <v>8</v>
       </c>
       <c r="J217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -14656,13 +14656,13 @@
         <v>1</v>
       </c>
       <c r="S217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M219">
         <v>3</v>
@@ -14786,13 +14786,13 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T219">
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14889,7 +14889,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14922,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -14954,7 +14954,7 @@
         <v>10</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -14987,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15004,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -15019,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15149,7 +15149,7 @@
         <v>12</v>
       </c>
       <c r="J225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -15182,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -15377,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15409,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15442,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15474,7 +15474,7 @@
         <v>14</v>
       </c>
       <c r="J230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15507,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15613,7 +15613,7 @@
         <v>6</v>
       </c>
       <c r="M232">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N232">
         <v>5</v>
@@ -15637,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15654,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -15669,7 +15669,7 @@
         <v>18</v>
       </c>
       <c r="J233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15678,7 +15678,7 @@
         <v>2</v>
       </c>
       <c r="M233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N233">
         <v>1</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         <v>19</v>
       </c>
       <c r="J235">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K235">
         <v>1</v>
@@ -15832,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M236">
         <v>1</v>
@@ -15897,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15938,7 +15938,7 @@
         <v>3</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N237">
         <v>8</v>
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15994,7 +15994,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16124,7 +16124,7 @@
         <v>15</v>
       </c>
       <c r="J240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -16157,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16254,7 +16254,7 @@
         <v>16</v>
       </c>
       <c r="J242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -16287,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16319,13 +16319,13 @@
         <v>10</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M243">
         <v>3</v>
@@ -16384,7 +16384,7 @@
         <v>17</v>
       </c>
       <c r="J244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16446,7 +16446,7 @@
         <v>8</v>
       </c>
       <c r="I245">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J245">
         <v>2</v>
@@ -16482,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16511,7 +16511,7 @@
         <v>6</v>
       </c>
       <c r="I246">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16579,7 +16579,7 @@
         <v>18</v>
       </c>
       <c r="J247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>5</v>
       </c>
       <c r="O247">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M248">
         <v>3</v>
@@ -16659,7 +16659,7 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16703,7 +16703,7 @@
         <v>3</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249">
         <v>21</v>
@@ -16724,7 +16724,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16771,16 +16771,16 @@
         <v>1</v>
       </c>
       <c r="I250">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M250">
         <v>1</v>
@@ -16789,7 +16789,7 @@
         <v>7</v>
       </c>
       <c r="O250">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P250">
         <v>0</v>
@@ -16801,13 +16801,13 @@
         <v>2</v>
       </c>
       <c r="S250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T250">
         <v>0</v>
       </c>
       <c r="U250">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="L251">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M251">
         <v>4</v>
@@ -16854,7 +16854,7 @@
         <v>5</v>
       </c>
       <c r="O251">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P251">
         <v>1</v>
@@ -16866,13 +16866,13 @@
         <v>5</v>
       </c>
       <c r="S251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T251">
         <v>1</v>
       </c>
       <c r="U251">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16883,13 +16883,13 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -16898,28 +16898,28 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
+        <v>21</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
         <v>10</v>
       </c>
-      <c r="J252">
-        <v>0</v>
-      </c>
-      <c r="K252">
-        <v>0</v>
-      </c>
-      <c r="L252">
-        <v>0</v>
-      </c>
-      <c r="M252">
-        <v>2</v>
-      </c>
-      <c r="N252">
+      <c r="O252">
         <v>9</v>
-      </c>
-      <c r="O252">
-        <v>1</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -16937,11 +16937,76 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>6</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253">
+        <v>7</v>
+      </c>
+      <c r="O253">
+        <v>2</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>1</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>1</v>
+      </c>
+      <c r="U253">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 435 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 451 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U254"/>
+  <dimension ref="A1:U255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12576,13 +12571,13 @@
         <v>0</v>
       </c>
       <c r="S185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -13704,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -13752,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -14094,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -14142,7 +14137,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14289,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -14337,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14865,7 +14860,7 @@
         <v>44093</v>
       </c>
       <c r="B221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221">
         <v>7</v>
@@ -14922,7 +14917,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14969,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="O222">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -14987,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15084,7 +15079,7 @@
         <v>7</v>
       </c>
       <c r="J224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15306,13 +15301,13 @@
         <v>2</v>
       </c>
       <c r="S227">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T227">
         <v>1</v>
       </c>
       <c r="U227">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15371,13 +15366,13 @@
         <v>2</v>
       </c>
       <c r="S228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T228">
         <v>1</v>
       </c>
       <c r="U228">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15450,7 +15445,7 @@
         <v>44102</v>
       </c>
       <c r="B230">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -15507,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15515,7 +15510,7 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C231">
         <v>9</v>
@@ -15572,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15580,7 +15575,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -15589,7 +15584,7 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -15637,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15654,7 +15649,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -15702,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15784,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -15832,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -16035,7 +16030,7 @@
         <v>44111</v>
       </c>
       <c r="B239">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -16092,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16100,7 +16095,7 @@
         <v>44112</v>
       </c>
       <c r="B240">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C240">
         <v>8</v>
@@ -16157,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16230,7 +16225,7 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -16260,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="L242">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -16287,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16295,7 +16290,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16325,10 +16320,10 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N243">
         <v>3</v>
@@ -16352,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="U243">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16434,7 +16429,7 @@
         <v>4</v>
       </c>
       <c r="E245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -16482,7 +16477,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16490,10 +16485,10 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C246">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -16576,7 +16571,7 @@
         <v>4</v>
       </c>
       <c r="I247">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J247">
         <v>6</v>
@@ -16585,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="L247">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M247">
         <v>3</v>
@@ -16612,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16620,7 +16615,7 @@
         <v>44120</v>
       </c>
       <c r="B248">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C248">
         <v>8</v>
@@ -16650,10 +16645,10 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N248">
         <v>7</v>
@@ -16677,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16685,7 +16680,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16715,7 +16710,7 @@
         <v>1</v>
       </c>
       <c r="L249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16736,13 +16731,13 @@
         <v>4</v>
       </c>
       <c r="S249">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T249">
         <v>2</v>
       </c>
       <c r="U249">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16750,7 +16745,7 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16771,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="I250">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J250">
         <v>4</v>
@@ -16780,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M250">
         <v>1</v>
@@ -16807,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16815,7 +16810,7 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -16833,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>20</v>
@@ -16845,16 +16840,16 @@
         <v>0</v>
       </c>
       <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
         <v>5</v>
-      </c>
-      <c r="M251">
-        <v>4</v>
       </c>
       <c r="N251">
         <v>5</v>
       </c>
       <c r="O251">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="P251">
         <v>1</v>
@@ -16872,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16880,7 +16875,7 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C252">
         <v>17</v>
@@ -16898,34 +16893,34 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I252">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N252">
         <v>10</v>
       </c>
       <c r="O252">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="P252">
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252">
         <v>6</v>
@@ -16937,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16945,68 +16940,133 @@
         <v>44125</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D253">
+        <v>7</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>13</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>3</v>
+      </c>
+      <c r="N253">
+        <v>8</v>
+      </c>
+      <c r="O253">
+        <v>13</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>1</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>1</v>
+      </c>
+      <c r="T253">
+        <v>1</v>
+      </c>
+      <c r="U253">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B254">
         <v>6</v>
       </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="H253">
-        <v>1</v>
-      </c>
-      <c r="I253">
+      <c r="C254">
         <v>6</v>
       </c>
-      <c r="J253">
-        <v>0</v>
-      </c>
-      <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253">
-        <v>2</v>
-      </c>
-      <c r="N253">
+      <c r="D254">
         <v>7</v>
       </c>
-      <c r="O253">
-        <v>2</v>
-      </c>
-      <c r="P253">
-        <v>0</v>
-      </c>
-      <c r="Q253">
-        <v>1</v>
-      </c>
-      <c r="R253">
-        <v>2</v>
-      </c>
-      <c r="S253">
-        <v>0</v>
-      </c>
-      <c r="T253">
-        <v>1</v>
-      </c>
-      <c r="U253">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>14</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>2</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>5</v>
+      </c>
+      <c r="O254">
+        <v>1</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+      <c r="T254">
+        <v>1</v>
+      </c>
+      <c r="U254">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 451 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 450 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U255"/>
+  <dimension ref="A1:U258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9988,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -10042,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -12328,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12382,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12854,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -12902,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12919,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -12967,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13439,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -13487,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13525,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M200">
         <v>1</v>
@@ -13552,7 +13557,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13888,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13942,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14473,7 +14478,7 @@
         <v>14</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14527,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14668,7 +14673,7 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -14722,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -15100,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R224">
         <v>1</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15150,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M225">
         <v>3</v>
@@ -15177,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15295,7 +15300,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R227">
         <v>2</v>
@@ -15307,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15333,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I228">
         <v>7</v>
@@ -15372,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15448,7 +15453,7 @@
         <v>23</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -15502,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15756,13 +15761,13 @@
         <v>4</v>
       </c>
       <c r="S234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15809,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="O235">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -15821,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="S235">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T235">
         <v>0</v>
@@ -16033,7 +16038,7 @@
         <v>15</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -16048,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I239">
         <v>24</v>
@@ -16087,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16098,7 +16103,7 @@
         <v>13</v>
       </c>
       <c r="C240">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -16152,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16320,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M243">
         <v>4</v>
@@ -16344,7 +16349,7 @@
         <v>5</v>
       </c>
       <c r="T243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U243">
         <v>88</v>
@@ -16358,7 +16363,7 @@
         <v>17</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -16412,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16574,7 +16579,7 @@
         <v>19</v>
       </c>
       <c r="J247">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16607,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16618,7 +16623,7 @@
         <v>18</v>
       </c>
       <c r="C248">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -16672,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16680,7 +16685,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16698,7 +16703,7 @@
         <v>3</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I249">
         <v>21</v>
@@ -16737,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16763,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250">
         <v>19</v>
@@ -16802,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16813,7 +16818,7 @@
         <v>17</v>
       </c>
       <c r="C251">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -16840,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M251">
         <v>5</v>
@@ -16867,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16875,10 +16880,10 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C252">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D252">
         <v>5</v>
@@ -16914,7 +16919,7 @@
         <v>10</v>
       </c>
       <c r="O252">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -16932,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16940,16 +16945,16 @@
         <v>44125</v>
       </c>
       <c r="B253">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -16958,10 +16963,10 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I253">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -16970,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="L253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M253">
         <v>3</v>
@@ -16979,7 +16984,7 @@
         <v>8</v>
       </c>
       <c r="O253">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P253">
         <v>0</v>
@@ -16991,13 +16996,13 @@
         <v>2</v>
       </c>
       <c r="S253">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U253">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17005,10 +17010,10 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C254">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D254">
         <v>7</v>
@@ -17017,16 +17022,16 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I254">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -17035,38 +17040,233 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N254">
+        <v>7</v>
+      </c>
+      <c r="O254">
+        <v>10</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>1</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
+        <v>3</v>
+      </c>
+      <c r="T254">
+        <v>1</v>
+      </c>
+      <c r="U254">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B255">
+        <v>10</v>
+      </c>
+      <c r="C255">
+        <v>19</v>
+      </c>
+      <c r="D255">
+        <v>6</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>17</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>4</v>
+      </c>
+      <c r="N255">
+        <v>4</v>
+      </c>
+      <c r="O255">
+        <v>3</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>1</v>
+      </c>
+      <c r="R255">
+        <v>4</v>
+      </c>
+      <c r="S255">
+        <v>1</v>
+      </c>
+      <c r="T255">
+        <v>4</v>
+      </c>
+      <c r="U255">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B256">
         <v>5</v>
       </c>
-      <c r="O254">
-        <v>1</v>
-      </c>
-      <c r="P254">
-        <v>0</v>
-      </c>
-      <c r="Q254">
-        <v>0</v>
-      </c>
-      <c r="R254">
-        <v>2</v>
-      </c>
-      <c r="S254">
-        <v>0</v>
-      </c>
-      <c r="T254">
-        <v>1</v>
-      </c>
-      <c r="U254">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>8</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>24</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>3</v>
+      </c>
+      <c r="N256">
+        <v>9</v>
+      </c>
+      <c r="O256">
+        <v>1</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>3</v>
+      </c>
+      <c r="U256">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>8</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>3</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>1</v>
+      </c>
+      <c r="R257">
+        <v>1</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>5</v>
+      </c>
+      <c r="U257">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 450 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 470 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U258"/>
+  <dimension ref="A1:U259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A259" sqref="A259"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13920,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M206">
         <v>2</v>
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I216">
         <v>6</v>
@@ -14597,7 +14597,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14623,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14662,7 +14662,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14727,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -14987,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15255,7 +15255,7 @@
         <v>44099</v>
       </c>
       <c r="B227">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -15312,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="R232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S232">
         <v>8</v>
@@ -15637,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -16183,7 +16183,7 @@
         <v>2</v>
       </c>
       <c r="H241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I241">
         <v>19</v>
@@ -16222,7 +16222,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16295,7 +16295,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="R244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S244">
         <v>5</v>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16514,7 +16514,7 @@
         <v>14</v>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="R246">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S246">
         <v>6</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16709,7 +16709,7 @@
         <v>21</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16750,7 +16750,7 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16774,7 +16774,7 @@
         <v>19</v>
       </c>
       <c r="J250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16839,7 +16839,7 @@
         <v>20</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S251">
         <v>1</v>
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16919,7 +16919,7 @@
         <v>10</v>
       </c>
       <c r="O252">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>1</v>
       </c>
       <c r="R252">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S252">
         <v>0</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16963,19 +16963,19 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I253">
         <v>15</v>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M253">
         <v>3</v>
@@ -16984,7 +16984,7 @@
         <v>8</v>
       </c>
       <c r="O253">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P253">
         <v>0</v>
@@ -16993,16 +16993,16 @@
         <v>1</v>
       </c>
       <c r="R253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S253">
         <v>3</v>
       </c>
       <c r="T253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U253">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17010,7 +17010,7 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C254">
         <v>13</v>
@@ -17019,19 +17019,19 @@
         <v>7</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I254">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M254">
         <v>6</v>
@@ -17049,7 +17049,7 @@
         <v>7</v>
       </c>
       <c r="O254">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="P254">
         <v>0</v>
@@ -17058,16 +17058,16 @@
         <v>1</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T254">
         <v>1</v>
       </c>
       <c r="U254">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17075,7 +17075,7 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C255">
         <v>19</v>
@@ -17093,19 +17093,19 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K255">
         <v>0</v>
       </c>
       <c r="L255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M255">
         <v>4</v>
@@ -17114,7 +17114,7 @@
         <v>4</v>
       </c>
       <c r="O255">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="P255">
         <v>0</v>
@@ -17123,16 +17123,16 @@
         <v>1</v>
       </c>
       <c r="R255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T255">
         <v>4</v>
       </c>
       <c r="U255">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17140,10 +17140,10 @@
         <v>44128</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D256">
         <v>8</v>
@@ -17158,10 +17158,10 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I256">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M256">
         <v>3</v>
@@ -17179,13 +17179,13 @@
         <v>9</v>
       </c>
       <c r="O256">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P256">
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R256">
         <v>2</v>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,10 +17205,10 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -17226,47 +17226,112 @@
         <v>0</v>
       </c>
       <c r="I257">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K257">
         <v>3</v>
       </c>
       <c r="L257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N257">
         <v>5</v>
       </c>
       <c r="O257">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P257">
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T257">
         <v>5</v>
       </c>
       <c r="U257">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
+        <v>11</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>8</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258">
+        <v>5</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>2</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 470 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 473 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U259"/>
+  <dimension ref="A1:U260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10008,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -10047,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -13707,7 +13702,7 @@
         <v>3</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -13752,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13920,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M206">
         <v>2</v>
@@ -13947,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -15944,7 +15939,7 @@
         <v>8</v>
       </c>
       <c r="O237">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -15962,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15970,7 +15965,7 @@
         <v>44110</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C238">
         <v>13</v>
@@ -16009,7 +16004,7 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -16021,13 +16016,13 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16074,7 +16069,7 @@
         <v>4</v>
       </c>
       <c r="O239">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -16092,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16186,7 +16181,7 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J241">
         <v>2</v>
@@ -16222,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16281,13 +16276,13 @@
         <v>2</v>
       </c>
       <c r="S242">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
       <c r="U242">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16493,7 +16488,7 @@
         <v>19</v>
       </c>
       <c r="C246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -16523,7 +16518,7 @@
         <v>8</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N246">
         <v>5</v>
@@ -16558,7 +16553,7 @@
         <v>15</v>
       </c>
       <c r="C247">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -16612,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16623,7 +16618,7 @@
         <v>18</v>
       </c>
       <c r="C248">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -16677,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16685,7 +16680,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16724,7 +16719,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16736,13 +16731,13 @@
         <v>4</v>
       </c>
       <c r="S249">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T249">
         <v>2</v>
       </c>
       <c r="U249">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16801,13 +16796,13 @@
         <v>2</v>
       </c>
       <c r="S250">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T250">
         <v>0</v>
       </c>
       <c r="U250">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16815,10 +16810,10 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C251">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -16866,13 +16861,13 @@
         <v>6</v>
       </c>
       <c r="S251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T251">
         <v>1</v>
       </c>
       <c r="U251">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16880,10 +16875,10 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C252">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D252">
         <v>5</v>
@@ -16931,13 +16926,13 @@
         <v>8</v>
       </c>
       <c r="S252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T252">
         <v>1</v>
       </c>
       <c r="U252">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16945,7 +16940,7 @@
         <v>44125</v>
       </c>
       <c r="B253">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C253">
         <v>8</v>
@@ -16969,7 +16964,7 @@
         <v>15</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -16978,7 +16973,7 @@
         <v>4</v>
       </c>
       <c r="M253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N253">
         <v>8</v>
@@ -16996,13 +16991,13 @@
         <v>3</v>
       </c>
       <c r="S253">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U253">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17010,7 +17005,7 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C254">
         <v>13</v>
@@ -17031,16 +17026,16 @@
         <v>5</v>
       </c>
       <c r="I254">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K254">
         <v>0</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M254">
         <v>6</v>
@@ -17067,7 +17062,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17075,7 +17070,7 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C255">
         <v>19</v>
@@ -17105,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M255">
         <v>4</v>
@@ -17114,7 +17109,7 @@
         <v>4</v>
       </c>
       <c r="O255">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P255">
         <v>0</v>
@@ -17126,13 +17121,13 @@
         <v>5</v>
       </c>
       <c r="S255">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T255">
         <v>4</v>
       </c>
       <c r="U255">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17140,7 +17135,7 @@
         <v>44128</v>
       </c>
       <c r="B256">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C256">
         <v>7</v>
@@ -17164,13 +17159,13 @@
         <v>26</v>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256">
         <v>0</v>
       </c>
       <c r="L256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M256">
         <v>3</v>
@@ -17179,7 +17174,7 @@
         <v>9</v>
       </c>
       <c r="O256">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P256">
         <v>0</v>
@@ -17191,13 +17186,13 @@
         <v>2</v>
       </c>
       <c r="S256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T256">
         <v>3</v>
       </c>
       <c r="U256">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17200,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C257">
         <v>6</v>
@@ -17223,10 +17218,10 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I257">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J257">
         <v>1</v>
@@ -17235,7 +17230,7 @@
         <v>3</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M257">
         <v>1</v>
@@ -17244,7 +17239,7 @@
         <v>5</v>
       </c>
       <c r="O257">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P257">
         <v>0</v>
@@ -17256,13 +17251,13 @@
         <v>2</v>
       </c>
       <c r="S257">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T257">
         <v>5</v>
       </c>
       <c r="U257">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17270,7 +17265,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -17288,10 +17283,10 @@
         <v>2</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I258">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -17300,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M258">
         <v>8</v>
@@ -17309,29 +17304,94 @@
         <v>2</v>
       </c>
       <c r="O258">
+        <v>10</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>3</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>1</v>
+      </c>
+      <c r="U258">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B259">
         <v>5</v>
       </c>
-      <c r="P258">
-        <v>0</v>
-      </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258">
-        <v>2</v>
-      </c>
-      <c r="S258">
-        <v>0</v>
-      </c>
-      <c r="T258">
-        <v>0</v>
-      </c>
-      <c r="U258">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+      <c r="C259">
+        <v>12</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>5</v>
+      </c>
+      <c r="I259">
+        <v>12</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>4</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>1</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>6</v>
+      </c>
+      <c r="S259">
+        <v>1</v>
+      </c>
+      <c r="T259">
+        <v>2</v>
+      </c>
+      <c r="U259">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 473 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 483 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U260"/>
+  <dimension ref="A1:U261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10003,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -10042,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -14352,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -14397,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -15073,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15138,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15177,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -16134,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16438,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I245">
         <v>19</v>
@@ -16447,7 +16452,7 @@
         <v>2</v>
       </c>
       <c r="K245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L245">
         <v>2</v>
@@ -16477,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16503,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I246">
         <v>14</v>
@@ -16542,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16763,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I250">
         <v>19</v>
@@ -16802,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16828,13 +16833,13 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I251">
         <v>20</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16849,7 +16854,7 @@
         <v>5</v>
       </c>
       <c r="O251">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P251">
         <v>1</v>
@@ -16867,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16899,7 +16904,7 @@
         <v>23</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -16914,7 +16919,7 @@
         <v>10</v>
       </c>
       <c r="O252">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P252">
         <v>0</v>
@@ -16932,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16943,7 +16948,7 @@
         <v>25</v>
       </c>
       <c r="C253">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D253">
         <v>8</v>
@@ -16958,13 +16963,13 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I253">
         <v>15</v>
       </c>
       <c r="J253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -16997,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17023,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I254">
         <v>22</v>
@@ -17062,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17070,7 +17075,7 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C255">
         <v>19</v>
@@ -17088,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I255">
         <v>23</v>
@@ -17100,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M255">
         <v>4</v>
@@ -17127,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17162,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="K256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256">
         <v>4</v>
@@ -17174,7 +17179,7 @@
         <v>9</v>
       </c>
       <c r="O256">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P256">
         <v>0</v>
@@ -17192,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17203,7 +17208,7 @@
         <v>22</v>
       </c>
       <c r="C257">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -17218,19 +17223,19 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I257">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K257">
         <v>3</v>
       </c>
       <c r="L257">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M257">
         <v>1</v>
@@ -17239,7 +17244,7 @@
         <v>5</v>
       </c>
       <c r="O257">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P257">
         <v>0</v>
@@ -17257,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17265,7 +17270,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -17286,16 +17291,16 @@
         <v>4</v>
       </c>
       <c r="I258">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M258">
         <v>8</v>
@@ -17304,13 +17309,13 @@
         <v>2</v>
       </c>
       <c r="O258">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P258">
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R258">
         <v>3</v>
@@ -17322,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17330,68 +17335,133 @@
         <v>44131</v>
       </c>
       <c r="B259">
+        <v>18</v>
+      </c>
+      <c r="C259">
+        <v>13</v>
+      </c>
+      <c r="D259">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>11</v>
+      </c>
+      <c r="I259">
+        <v>18</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
         <v>5</v>
       </c>
-      <c r="C259">
-        <v>12</v>
-      </c>
-      <c r="D259">
+      <c r="M259">
         <v>5</v>
       </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259">
-        <v>3</v>
-      </c>
-      <c r="G259">
-        <v>1</v>
-      </c>
-      <c r="H259">
+      <c r="N259">
+        <v>8</v>
+      </c>
+      <c r="O259">
+        <v>10</v>
+      </c>
+      <c r="P259">
+        <v>1</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>9</v>
+      </c>
+      <c r="S259">
+        <v>1</v>
+      </c>
+      <c r="T259">
+        <v>2</v>
+      </c>
+      <c r="U259">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
+        <v>10</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
         <v>5</v>
       </c>
-      <c r="I259">
-        <v>12</v>
-      </c>
-      <c r="J259">
-        <v>1</v>
-      </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259">
-        <v>1</v>
-      </c>
-      <c r="M259">
-        <v>4</v>
-      </c>
-      <c r="N259">
-        <v>7</v>
-      </c>
-      <c r="O259">
-        <v>0</v>
-      </c>
-      <c r="P259">
-        <v>1</v>
-      </c>
-      <c r="Q259">
-        <v>0</v>
-      </c>
-      <c r="R259">
-        <v>6</v>
-      </c>
-      <c r="S259">
-        <v>1</v>
-      </c>
-      <c r="T259">
-        <v>2</v>
-      </c>
-      <c r="U259">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
+      <c r="O260">
+        <v>2</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>2</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 483 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 347 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U261"/>
+  <dimension ref="A1:U262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9710,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -9722,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -10008,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -10047,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -10708,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -10762,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -12375,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -12387,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12830,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R189">
         <v>0</v>
@@ -12842,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -13415,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -13427,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13740,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203">
         <v>1</v>
@@ -13752,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13870,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R205">
         <v>0</v>
@@ -13882,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13935,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206">
         <v>3</v>
@@ -13947,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14065,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R208">
         <v>1</v>
@@ -14077,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14130,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209">
         <v>0</v>
@@ -14142,7 +14137,7 @@
         <v>2</v>
       </c>
       <c r="U209">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14227,7 +14222,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -14260,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R211">
         <v>1</v>
@@ -14272,7 +14267,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14325,7 +14320,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R212">
         <v>1</v>
@@ -14337,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14390,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R213">
         <v>1</v>
@@ -14402,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14455,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R214">
         <v>3</v>
@@ -14467,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14520,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R215">
         <v>2</v>
@@ -14532,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14585,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216">
         <v>1</v>
@@ -14597,7 +14592,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14650,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R217">
         <v>1</v>
@@ -14662,7 +14657,7 @@
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14768,7 +14763,7 @@
         <v>5</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N219">
         <v>3</v>
@@ -14780,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R219">
         <v>3</v>
@@ -14792,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14898,7 +14893,7 @@
         <v>2</v>
       </c>
       <c r="M221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221">
         <v>6</v>
@@ -14910,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R221">
         <v>2</v>
@@ -14922,7 +14917,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -15007,7 +15002,7 @@
         <v>5</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -15040,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R223">
         <v>5</v>
@@ -15052,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15078,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15105,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R224">
         <v>1</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15143,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15158,7 +15153,7 @@
         <v>6</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N225">
         <v>3</v>
@@ -15170,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R225">
         <v>0</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15235,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R226">
         <v>1</v>
@@ -15247,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15300,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R227">
         <v>2</v>
@@ -15312,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15365,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R228">
         <v>2</v>
@@ -15377,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15430,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R229">
         <v>4</v>
@@ -15442,7 +15437,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15495,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -15507,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15515,7 +15510,7 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C231">
         <v>9</v>
@@ -15539,7 +15534,7 @@
         <v>10</v>
       </c>
       <c r="J231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -15560,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R231">
         <v>3</v>
@@ -15572,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15625,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R232">
         <v>4</v>
@@ -15637,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15749,13 +15744,13 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P234">
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R234">
         <v>4</v>
@@ -15767,7 +15762,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15814,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="O235">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -15832,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15885,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R236">
         <v>2</v>
@@ -15897,7 +15892,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15950,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R237">
         <v>5</v>
@@ -15962,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -16015,19 +16010,19 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R238">
         <v>3</v>
       </c>
       <c r="S238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16080,7 +16075,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R239">
         <v>5</v>
@@ -16092,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16139,13 +16134,13 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P240">
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R240">
         <v>6</v>
@@ -16157,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16204,13 +16199,13 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P241">
         <v>2</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R241">
         <v>4</v>
@@ -16222,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16275,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R242">
         <v>2</v>
@@ -16287,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16319,7 +16314,7 @@
         <v>10</v>
       </c>
       <c r="J243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -16340,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R243">
         <v>2</v>
@@ -16352,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16399,13 +16394,13 @@
         <v>6</v>
       </c>
       <c r="O244">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P244">
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R244">
         <v>4</v>
@@ -16417,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16443,7 +16438,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I245">
         <v>19</v>
@@ -16464,25 +16459,25 @@
         <v>8</v>
       </c>
       <c r="O245">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P245">
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R245">
         <v>2</v>
       </c>
       <c r="S245">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T245">
         <v>4</v>
       </c>
       <c r="U245">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16529,13 +16524,13 @@
         <v>5</v>
       </c>
       <c r="O246">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P246">
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R246">
         <v>8</v>
@@ -16547,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16573,13 +16568,13 @@
         <v>2</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I247">
         <v>19</v>
       </c>
       <c r="J247">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16600,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R247">
         <v>5</v>
@@ -16612,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16638,13 +16633,13 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248">
         <v>6</v>
       </c>
       <c r="J248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -16665,19 +16660,19 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R248">
         <v>7</v>
       </c>
       <c r="S248">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T248">
         <v>0</v>
       </c>
       <c r="U248">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16697,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -16709,7 +16704,7 @@
         <v>21</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -16736,13 +16731,13 @@
         <v>4</v>
       </c>
       <c r="S249">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T249">
         <v>2</v>
       </c>
       <c r="U249">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16768,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I250">
         <v>19</v>
@@ -16795,7 +16790,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R250">
         <v>2</v>
@@ -16807,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16839,7 +16834,7 @@
         <v>20</v>
       </c>
       <c r="J251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16860,19 +16855,19 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R251">
         <v>6</v>
       </c>
       <c r="S251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T251">
         <v>1</v>
       </c>
       <c r="U251">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16925,19 +16920,19 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R252">
         <v>8</v>
       </c>
       <c r="S252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T252">
         <v>1</v>
       </c>
       <c r="U252">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16963,7 +16958,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I253">
         <v>15</v>
@@ -16978,7 +16973,7 @@
         <v>4</v>
       </c>
       <c r="M253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N253">
         <v>8</v>
@@ -16990,19 +16985,19 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R253">
         <v>3</v>
       </c>
       <c r="S253">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T253">
         <v>0</v>
       </c>
       <c r="U253">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17028,13 +17023,13 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I254">
         <v>22</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -17055,19 +17050,19 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R254">
         <v>3</v>
       </c>
       <c r="S254">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T254">
         <v>1</v>
       </c>
       <c r="U254">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17075,7 +17070,7 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C255">
         <v>19</v>
@@ -17096,7 +17091,7 @@
         <v>4</v>
       </c>
       <c r="I255">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J255">
         <v>1</v>
@@ -17105,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M255">
         <v>4</v>
@@ -17120,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R255">
         <v>5</v>
@@ -17132,7 +17127,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17158,13 +17153,13 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I256">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K256">
         <v>1</v>
@@ -17185,19 +17180,19 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R256">
         <v>2</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T256">
         <v>3</v>
       </c>
       <c r="U256">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17200,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17250,19 +17245,19 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R257">
         <v>2</v>
       </c>
       <c r="S257">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T257">
         <v>5</v>
       </c>
       <c r="U257">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17270,10 +17265,10 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D258">
         <v>5</v>
@@ -17288,19 +17283,19 @@
         <v>2</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I258">
         <v>18</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M258">
         <v>8</v>
@@ -17309,25 +17304,25 @@
         <v>2</v>
       </c>
       <c r="O258">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P258">
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R258">
         <v>3</v>
       </c>
       <c r="S258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T258">
         <v>1</v>
       </c>
       <c r="U258">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17335,16 +17330,16 @@
         <v>44131</v>
       </c>
       <c r="B259">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C259">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D259">
         <v>6</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F259">
         <v>3</v>
@@ -17353,19 +17348,19 @@
         <v>1</v>
       </c>
       <c r="H259">
+        <v>14</v>
+      </c>
+      <c r="I259">
+        <v>19</v>
+      </c>
+      <c r="J259">
+        <v>2</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
         <v>11</v>
-      </c>
-      <c r="I259">
-        <v>18</v>
-      </c>
-      <c r="J259">
-        <v>1</v>
-      </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259">
-        <v>5</v>
       </c>
       <c r="M259">
         <v>5</v>
@@ -17374,13 +17369,13 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P259">
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R259">
         <v>9</v>
@@ -17392,7 +17387,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17400,68 +17395,133 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C260">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
+        <v>24</v>
+      </c>
+      <c r="J260">
+        <v>2</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>4</v>
+      </c>
+      <c r="M260">
+        <v>3</v>
+      </c>
+      <c r="N260">
         <v>6</v>
       </c>
-      <c r="D260">
-        <v>6</v>
-      </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-      <c r="H260">
-        <v>2</v>
-      </c>
-      <c r="I260">
+      <c r="O260">
+        <v>4</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
+        <v>4</v>
+      </c>
+      <c r="R260">
+        <v>2</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B261">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+      <c r="D261">
         <v>10</v>
       </c>
-      <c r="J260">
-        <v>0</v>
-      </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260">
-        <v>2</v>
-      </c>
-      <c r="M260">
-        <v>1</v>
-      </c>
-      <c r="N260">
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>14</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
         <v>5</v>
       </c>
-      <c r="O260">
-        <v>2</v>
-      </c>
-      <c r="P260">
-        <v>0</v>
-      </c>
-      <c r="Q260">
-        <v>0</v>
-      </c>
-      <c r="R260">
-        <v>2</v>
-      </c>
-      <c r="S260">
-        <v>0</v>
-      </c>
-      <c r="T260">
-        <v>2</v>
-      </c>
-      <c r="U260">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="N261">
+        <v>11</v>
+      </c>
+      <c r="O261">
+        <v>2</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
+        <v>1</v>
+      </c>
+      <c r="R261">
+        <v>4</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>5</v>
+      </c>
+      <c r="U261">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 347 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 370 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U262"/>
+  <dimension ref="A1:U265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A263" sqref="A263"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10703,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -10757,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -14964,7 +14969,7 @@
         <v>3</v>
       </c>
       <c r="O222">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -14982,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15029,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="O223">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -15047,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -16036,7 +16041,7 @@
         <v>4</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -16087,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16290,7 +16295,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16347,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16420,7 +16425,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16477,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16485,7 +16490,7 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C246">
         <v>5</v>
@@ -16503,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I246">
         <v>14</v>
@@ -16542,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16574,7 +16579,7 @@
         <v>19</v>
       </c>
       <c r="J247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16607,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16654,7 +16659,7 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -16672,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16680,7 +16685,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16704,7 +16709,7 @@
         <v>21</v>
       </c>
       <c r="J249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -16719,7 +16724,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16737,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16745,7 +16750,7 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16763,13 +16768,13 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I250">
         <v>19</v>
       </c>
       <c r="J250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -16802,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16810,7 +16815,7 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -16834,7 +16839,7 @@
         <v>20</v>
       </c>
       <c r="J251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16867,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16875,7 +16880,7 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C252">
         <v>17</v>
@@ -16893,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I252">
         <v>23</v>
@@ -16932,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16940,13 +16945,13 @@
         <v>44125</v>
       </c>
       <c r="B253">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C253">
         <v>7</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -16964,7 +16969,7 @@
         <v>15</v>
       </c>
       <c r="J253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -16973,7 +16978,7 @@
         <v>4</v>
       </c>
       <c r="M253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N253">
         <v>8</v>
@@ -16997,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17005,7 +17010,7 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C254">
         <v>13</v>
@@ -17023,7 +17028,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I254">
         <v>22</v>
@@ -17053,7 +17058,7 @@
         <v>3</v>
       </c>
       <c r="R254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S254">
         <v>8</v>
@@ -17062,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17070,7 +17075,7 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C255">
         <v>19</v>
@@ -17127,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17135,7 +17140,7 @@
         <v>44128</v>
       </c>
       <c r="B256">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C256">
         <v>7</v>
@@ -17153,10 +17158,10 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I256">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J256">
         <v>2</v>
@@ -17192,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17200,7 +17205,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17224,7 +17229,7 @@
         <v>15</v>
       </c>
       <c r="J257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -17245,10 +17250,10 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S257">
         <v>5</v>
@@ -17257,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17265,7 +17270,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -17289,7 +17294,7 @@
         <v>18</v>
       </c>
       <c r="J258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -17304,7 +17309,7 @@
         <v>2</v>
       </c>
       <c r="O258">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P258">
         <v>0</v>
@@ -17322,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17339,7 +17344,7 @@
         <v>6</v>
       </c>
       <c r="E259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F259">
         <v>3</v>
@@ -17348,10 +17353,10 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I259">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J259">
         <v>2</v>
@@ -17360,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="L259">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M259">
         <v>5</v>
@@ -17369,13 +17374,13 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P259">
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R259">
         <v>9</v>
@@ -17387,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17395,7 +17400,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17413,19 +17418,19 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I260">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M260">
         <v>3</v>
@@ -17434,25 +17439,25 @@
         <v>6</v>
       </c>
       <c r="O260">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P260">
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R260">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17460,10 +17465,10 @@
         <v>44133</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D261">
         <v>10</v>
@@ -17481,10 +17486,10 @@
         <v>1</v>
       </c>
       <c r="I261">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K261">
         <v>1</v>
@@ -17493,35 +17498,230 @@
         <v>1</v>
       </c>
       <c r="M261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N261">
         <v>11</v>
       </c>
       <c r="O261">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P261">
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T261">
         <v>5</v>
       </c>
       <c r="U261">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+      <c r="C262">
+        <v>14</v>
+      </c>
+      <c r="D262">
+        <v>6</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>17</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>3</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="M262">
+        <v>7</v>
+      </c>
+      <c r="N262">
+        <v>13</v>
+      </c>
+      <c r="O262">
+        <v>2</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>3</v>
+      </c>
+      <c r="R262">
+        <v>8</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>3</v>
+      </c>
+      <c r="U262">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B263">
+        <v>13</v>
+      </c>
+      <c r="C263">
+        <v>14</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>12</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>4</v>
+      </c>
+      <c r="N263">
+        <v>12</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
+        <v>4</v>
+      </c>
+      <c r="R263">
+        <v>4</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>2</v>
+      </c>
+      <c r="U263">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>11</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>10</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>3</v>
+      </c>
+      <c r="N264">
+        <v>4</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>1</v>
+      </c>
+      <c r="R264">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 370 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 378 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U265"/>
+  <dimension ref="A1:U266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U275" sqref="U275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14239,7 +14239,7 @@
         <v>7</v>
       </c>
       <c r="J211">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14272,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14697,7 +14697,7 @@
         <v>4</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218">
         <v>9</v>
@@ -14727,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15117,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15182,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
         <v>18</v>
       </c>
       <c r="J233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15734,7 +15734,7 @@
         <v>15</v>
       </c>
       <c r="J234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -15767,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15864,7 +15864,7 @@
         <v>8</v>
       </c>
       <c r="J236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -16644,10 +16644,10 @@
         <v>6</v>
       </c>
       <c r="J248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
         <v>7</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16768,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I250">
         <v>19</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16866,13 +16866,13 @@
         <v>6</v>
       </c>
       <c r="S251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T251">
         <v>1</v>
       </c>
       <c r="U251">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16904,7 +16904,7 @@
         <v>23</v>
       </c>
       <c r="J252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -16931,13 +16931,13 @@
         <v>8</v>
       </c>
       <c r="S252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T252">
         <v>1</v>
       </c>
       <c r="U252">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -17034,7 +17034,7 @@
         <v>22</v>
       </c>
       <c r="J254">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>24</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -17132,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17191,13 +17191,13 @@
         <v>2</v>
       </c>
       <c r="S256">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T256">
         <v>3</v>
       </c>
       <c r="U256">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17229,7 +17229,7 @@
         <v>15</v>
       </c>
       <c r="J257">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -17256,13 +17256,13 @@
         <v>3</v>
       </c>
       <c r="S257">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T257">
         <v>5</v>
       </c>
       <c r="U257">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17294,7 +17294,7 @@
         <v>18</v>
       </c>
       <c r="J258">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -17321,13 +17321,13 @@
         <v>3</v>
       </c>
       <c r="S258">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T258">
         <v>1</v>
       </c>
       <c r="U258">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17359,7 +17359,7 @@
         <v>20</v>
       </c>
       <c r="J259">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -17374,7 +17374,7 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P259">
         <v>1</v>
@@ -17386,13 +17386,13 @@
         <v>9</v>
       </c>
       <c r="S259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T259">
         <v>2</v>
       </c>
       <c r="U259">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17424,13 +17424,13 @@
         <v>28</v>
       </c>
       <c r="J260">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M260">
         <v>3</v>
@@ -17451,13 +17451,13 @@
         <v>5</v>
       </c>
       <c r="S260">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17465,7 +17465,7 @@
         <v>44133</v>
       </c>
       <c r="B261">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C261">
         <v>12</v>
@@ -17495,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="L261">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M261">
         <v>6</v>
@@ -17516,13 +17516,13 @@
         <v>3</v>
       </c>
       <c r="S261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T261">
         <v>5</v>
       </c>
       <c r="U261">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,10 +17530,10 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C262">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D262">
         <v>6</v>
@@ -17554,19 +17554,19 @@
         <v>17</v>
       </c>
       <c r="J262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K262">
         <v>3</v>
       </c>
       <c r="L262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M262">
         <v>7</v>
       </c>
       <c r="N262">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O262">
         <v>2</v>
@@ -17575,19 +17575,19 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R262">
         <v>8</v>
       </c>
       <c r="S262">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T262">
         <v>3</v>
       </c>
       <c r="U262">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17595,7 +17595,7 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C263">
         <v>14</v>
@@ -17613,19 +17613,19 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>12</v>
       </c>
       <c r="J263">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K263">
         <v>1</v>
       </c>
       <c r="L263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M263">
         <v>4</v>
@@ -17634,25 +17634,25 @@
         <v>12</v>
       </c>
       <c r="O263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P263">
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R263">
         <v>4</v>
       </c>
       <c r="S263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T263">
         <v>2</v>
       </c>
       <c r="U263">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,10 +17660,10 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D264">
         <v>11</v>
@@ -17672,31 +17672,31 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I264">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M264">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N264">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O264">
         <v>0</v>
@@ -17705,23 +17705,88 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R264">
         <v>3</v>
       </c>
       <c r="S264">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T264">
         <v>2</v>
       </c>
       <c r="U264">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>18</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>11</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>7</v>
+      </c>
+      <c r="N265">
+        <v>5</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>4</v>
+      </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>1</v>
+      </c>
+      <c r="U265">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 378 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 500 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U266"/>
+  <dimension ref="A1:U267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U275" sqref="U275"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2474,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2507,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2539,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2572,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2604,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2619,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2728,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34">
         <v>11</v>
@@ -2740,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>2</v>
@@ -2767,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2855,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>23</v>
@@ -2864,13 +2859,13 @@
         <v>13</v>
       </c>
       <c r="J36">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M36">
         <v>2</v>
@@ -2897,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2929,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="J37">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2944,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2962,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2985,16 +2980,16 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>20</v>
       </c>
       <c r="J38">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3009,13 +3004,13 @@
         <v>5</v>
       </c>
       <c r="O38">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -3027,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="U38" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3053,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3092,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="U39" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3118,13 +3113,13 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I40">
         <v>37</v>
       </c>
       <c r="J40">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3139,13 +3134,13 @@
         <v>4</v>
       </c>
       <c r="O40">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>9</v>
@@ -3157,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3183,19 +3178,19 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I41">
         <v>55</v>
       </c>
       <c r="J41">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M41">
         <v>10</v>
@@ -3204,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="O41">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3222,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="U41" s="2">
-        <v>659</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3248,22 +3243,22 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J42">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>7</v>
@@ -3275,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>10</v>
@@ -3287,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="U42" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3316,10 +3311,10 @@
         <v>104</v>
       </c>
       <c r="I43">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J43">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3334,13 +3329,13 @@
         <v>7</v>
       </c>
       <c r="O43">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P43">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -3352,7 +3347,7 @@
         <v>13</v>
       </c>
       <c r="U43" s="2">
-        <v>782</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3360,7 +3355,7 @@
         <v>43916</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>19</v>
@@ -3369,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>9</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I44">
         <v>73</v>
       </c>
       <c r="J44">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M44">
         <v>16</v>
@@ -3399,13 +3394,13 @@
         <v>9</v>
       </c>
       <c r="O44">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -3417,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="U44" s="2">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3434,43 +3429,43 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <v>62</v>
       </c>
       <c r="J45">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>11</v>
       </c>
       <c r="O45">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>12</v>
@@ -3482,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="U45" s="2">
-        <v>877</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3490,7 +3485,7 @@
         <v>43918</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>15</v>
@@ -3505,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>104</v>
@@ -3514,28 +3509,28 @@
         <v>63</v>
       </c>
       <c r="J46">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>19</v>
       </c>
       <c r="O46">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>22</v>
@@ -3547,7 +3542,7 @@
         <v>6</v>
       </c>
       <c r="U46" s="2">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3579,13 +3574,13 @@
         <v>88</v>
       </c>
       <c r="J47">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M47">
         <v>16</v>
@@ -3594,13 +3589,13 @@
         <v>11</v>
       </c>
       <c r="O47">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>13</v>
@@ -3612,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="U47" s="2">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3638,13 +3633,13 @@
         <v>15</v>
       </c>
       <c r="H48">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I48">
         <v>81</v>
       </c>
       <c r="J48">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3656,16 +3651,16 @@
         <v>23</v>
       </c>
       <c r="N48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O48">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>15</v>
@@ -3677,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="U48" s="2">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -3700,37 +3695,37 @@
         <v>7</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49">
         <v>76</v>
       </c>
       <c r="J49">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M49">
         <v>17</v>
       </c>
       <c r="N49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O49">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>15</v>
@@ -3742,7 +3737,7 @@
         <v>13</v>
       </c>
       <c r="U49" s="2">
-        <v>870</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -3765,37 +3760,37 @@
         <v>7</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I50">
         <v>93</v>
       </c>
       <c r="J50">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M50">
         <v>20</v>
       </c>
       <c r="N50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O50">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -3807,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="U50" s="2">
-        <v>868</v>
+        <v>887</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -3830,37 +3825,37 @@
         <v>7</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I51">
         <v>69</v>
       </c>
       <c r="J51">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O51">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>13</v>
@@ -3872,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="U51" s="2">
-        <v>814</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -3895,22 +3890,22 @@
         <v>5</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J52">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M52">
         <v>17</v>
@@ -3919,13 +3914,13 @@
         <v>27</v>
       </c>
       <c r="O52">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>18</v>
@@ -3937,7 +3932,7 @@
         <v>16</v>
       </c>
       <c r="U52" s="2">
-        <v>759</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -3960,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53">
         <v>94</v>
@@ -3969,28 +3964,28 @@
         <v>89</v>
       </c>
       <c r="J53">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M53">
         <v>11</v>
       </c>
       <c r="N53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O53">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>7</v>
@@ -4002,7 +3997,7 @@
         <v>11</v>
       </c>
       <c r="U53" s="2">
-        <v>708</v>
+        <v>732</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -4025,22 +4020,22 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H54">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I54">
         <v>78</v>
       </c>
       <c r="J54">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M54">
         <v>14</v>
@@ -4049,13 +4044,13 @@
         <v>27</v>
       </c>
       <c r="O54">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4067,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="U54" s="2">
-        <v>724</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -4099,13 +4094,13 @@
         <v>66</v>
       </c>
       <c r="J55">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M55">
         <v>18</v>
@@ -4114,13 +4109,13 @@
         <v>16</v>
       </c>
       <c r="O55">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -4132,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="U55" s="2">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -4149,22 +4144,22 @@
         <v>6</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I56">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4179,13 +4174,13 @@
         <v>28</v>
       </c>
       <c r="O56">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -4197,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="U56" s="2">
-        <v>713</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -4220,16 +4215,16 @@
         <v>4</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I57">
         <v>68</v>
       </c>
       <c r="J57">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4244,13 +4239,13 @@
         <v>12</v>
       </c>
       <c r="O57">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>12</v>
@@ -4262,7 +4257,7 @@
         <v>15</v>
       </c>
       <c r="U57" s="2">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -4282,19 +4277,19 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I58">
         <v>82</v>
       </c>
       <c r="J58">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -4309,13 +4304,13 @@
         <v>22</v>
       </c>
       <c r="O58">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>17</v>
@@ -4327,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="U58" s="2">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -4344,13 +4339,13 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>54</v>
@@ -4359,7 +4354,7 @@
         <v>63</v>
       </c>
       <c r="J59">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4374,13 +4369,13 @@
         <v>31</v>
       </c>
       <c r="O59">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>13</v>
@@ -4392,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="U59" s="2">
-        <v>643</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -4400,13 +4395,13 @@
         <v>43932</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>33</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -4415,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60">
         <v>56</v>
@@ -4424,19 +4419,19 @@
         <v>73</v>
       </c>
       <c r="J60">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O60">
         <v>139</v>
@@ -4445,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>19</v>
@@ -4457,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="U60" s="2">
-        <v>593</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -4480,28 +4475,28 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I61">
         <v>63</v>
       </c>
       <c r="J61">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M61">
         <v>11</v>
       </c>
       <c r="N61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O61">
         <v>123</v>
@@ -4510,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4522,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="U61" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -4539,13 +4534,13 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H62">
         <v>54</v>
@@ -4554,7 +4549,7 @@
         <v>56</v>
       </c>
       <c r="J62">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4563,19 +4558,19 @@
         <v>35</v>
       </c>
       <c r="M62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O62">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <v>22</v>
@@ -4587,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="U62" s="2">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -4595,7 +4590,7 @@
         <v>43935</v>
       </c>
       <c r="B63">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>29</v>
@@ -4619,7 +4614,7 @@
         <v>60</v>
       </c>
       <c r="J63">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4634,13 +4629,13 @@
         <v>16</v>
       </c>
       <c r="O63">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>11</v>
@@ -4652,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="U63" s="2">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -4678,19 +4673,19 @@
         <v>6</v>
       </c>
       <c r="H64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J64">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M64">
         <v>12</v>
@@ -4699,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="O64">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -4717,7 +4712,7 @@
         <v>8</v>
       </c>
       <c r="U64" s="2">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -4734,22 +4729,22 @@
         <v>10</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I65">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4764,13 +4759,13 @@
         <v>11</v>
       </c>
       <c r="O65">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>10</v>
@@ -4782,7 +4777,7 @@
         <v>8</v>
       </c>
       <c r="U65" s="2">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -4805,16 +4800,16 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I66">
         <v>48</v>
       </c>
       <c r="J66">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4829,13 +4824,13 @@
         <v>12</v>
       </c>
       <c r="O66">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>14</v>
@@ -4847,7 +4842,7 @@
         <v>8</v>
       </c>
       <c r="U66" s="2">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -4855,7 +4850,7 @@
         <v>43939</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <v>17</v>
@@ -4870,16 +4865,16 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I67">
         <v>48</v>
       </c>
       <c r="J67">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4894,13 +4889,13 @@
         <v>19</v>
       </c>
       <c r="O67">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>14</v>
@@ -4912,7 +4907,7 @@
         <v>5</v>
       </c>
       <c r="U67" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -4938,13 +4933,13 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I68">
         <v>37</v>
       </c>
       <c r="J68">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4953,19 +4948,19 @@
         <v>15</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68">
         <v>6</v>
       </c>
       <c r="O68">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -4977,7 +4972,7 @@
         <v>8</v>
       </c>
       <c r="U68" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -5006,10 +5001,10 @@
         <v>43</v>
       </c>
       <c r="I69">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -5024,7 +5019,7 @@
         <v>10</v>
       </c>
       <c r="O69">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5042,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="U69" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -5065,16 +5060,16 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I70">
         <v>41</v>
       </c>
       <c r="J70">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -5089,13 +5084,13 @@
         <v>14</v>
       </c>
       <c r="O70">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5107,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="U70" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,10 +5131,10 @@
         <v>30</v>
       </c>
       <c r="I71">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5160,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>8</v>
@@ -5172,7 +5167,7 @@
         <v>5</v>
       </c>
       <c r="U71" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -5198,13 +5193,13 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I72">
         <v>49</v>
       </c>
       <c r="J72">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5219,13 +5214,13 @@
         <v>6</v>
       </c>
       <c r="O72">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>8</v>
@@ -5237,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="U72" s="2">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -5260,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>31</v>
@@ -5269,7 +5264,7 @@
         <v>38</v>
       </c>
       <c r="J73">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -5278,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N73">
         <v>13</v>
@@ -5290,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>6</v>
@@ -5302,7 +5297,7 @@
         <v>5</v>
       </c>
       <c r="U73" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -5310,7 +5305,7 @@
         <v>43946</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -5319,13 +5314,13 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>28</v>
@@ -5334,7 +5329,7 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5349,13 +5344,13 @@
         <v>8</v>
       </c>
       <c r="O74">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>6</v>
@@ -5367,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="U74" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -5384,22 +5379,22 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I75">
         <v>29</v>
       </c>
       <c r="J75">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5408,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N75">
         <v>6</v>
@@ -5420,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>3</v>
@@ -5432,7 +5427,7 @@
         <v>5</v>
       </c>
       <c r="U75" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -5458,13 +5453,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76">
         <v>32</v>
       </c>
       <c r="J76">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5479,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="O76">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5497,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="U76" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -5520,16 +5515,16 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77">
         <v>28</v>
       </c>
       <c r="J77">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5562,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="U77" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -5588,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78">
         <v>23</v>
       </c>
       <c r="J78">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5609,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="O78">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5627,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -5647,25 +5642,25 @@
         <v>4</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I79">
         <v>32</v>
       </c>
       <c r="J79">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -5674,13 +5669,13 @@
         <v>8</v>
       </c>
       <c r="O79">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>3</v>
@@ -5692,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="U79" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -5724,7 +5719,7 @@
         <v>17</v>
       </c>
       <c r="J80">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -5733,19 +5728,19 @@
         <v>11</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>4</v>
       </c>
       <c r="O80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>5</v>
@@ -5757,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -5765,7 +5760,7 @@
         <v>43953</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5789,7 +5784,7 @@
         <v>32</v>
       </c>
       <c r="J81">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5804,13 +5799,13 @@
         <v>6</v>
       </c>
       <c r="O81">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>3</v>
@@ -5822,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="U81" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -5830,7 +5825,7 @@
         <v>43954</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5854,7 +5849,7 @@
         <v>18</v>
       </c>
       <c r="J82">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5887,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="U82" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -5913,13 +5908,13 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I83">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J83">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5934,7 +5929,7 @@
         <v>4</v>
       </c>
       <c r="O83">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5952,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="U83" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -5981,10 +5976,10 @@
         <v>21</v>
       </c>
       <c r="I84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5993,19 +5988,19 @@
         <v>8</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84">
         <v>6</v>
       </c>
       <c r="O84">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>4</v>
@@ -6017,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="U84" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -6040,16 +6035,16 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J85">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -6058,13 +6053,13 @@
         <v>10</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N85">
         <v>3</v>
       </c>
       <c r="O85">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6079,10 +6074,10 @@
         <v>5</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -6090,7 +6085,7 @@
         <v>43958</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -6114,7 +6109,7 @@
         <v>14</v>
       </c>
       <c r="J86">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -6129,13 +6124,13 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>4</v>
@@ -6147,7 +6142,7 @@
         <v>4</v>
       </c>
       <c r="U86" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6173,13 +6168,13 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I87">
         <v>19</v>
       </c>
       <c r="J87">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -6212,7 +6207,7 @@
         <v>2</v>
       </c>
       <c r="U87" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -6244,7 +6239,7 @@
         <v>9</v>
       </c>
       <c r="J88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -6253,13 +6248,13 @@
         <v>8</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
       <c r="O88">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -6277,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="U88" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6303,13 +6298,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I89">
         <v>15</v>
       </c>
       <c r="J89">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -6324,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -6342,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="U89" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6350,7 +6345,7 @@
         <v>43962</v>
       </c>
       <c r="B90" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="5">
         <v>4</v>
@@ -6368,13 +6363,13 @@
         <v>1</v>
       </c>
       <c r="H90" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J90" s="5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K90" s="5">
         <v>0</v>
@@ -6383,13 +6378,13 @@
         <v>7</v>
       </c>
       <c r="M90" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N90" s="5">
         <v>1</v>
       </c>
       <c r="O90" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P90" s="5">
         <v>0</v>
@@ -6407,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="U90" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -6433,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I91">
         <v>18</v>
       </c>
       <c r="J91">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -6460,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -6472,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -6498,28 +6493,28 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92">
         <v>8</v>
       </c>
       <c r="J92">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>3</v>
       </c>
       <c r="O92">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -6566,10 +6561,10 @@
         <v>8</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J93">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -6584,13 +6579,13 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6634,7 +6629,7 @@
         <v>6</v>
       </c>
       <c r="J94">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -6649,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="O94">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6667,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="U94" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -6690,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>6</v>
@@ -6714,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -6732,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="U95" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -6758,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96">
         <v>8</v>
       </c>
       <c r="J96">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -6779,13 +6774,13 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -6797,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="U96" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6805,7 +6800,7 @@
         <v>43969</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6829,7 +6824,7 @@
         <v>6</v>
       </c>
       <c r="J97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6838,13 +6833,13 @@
         <v>4</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6862,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="U97" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -6885,16 +6880,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6909,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6927,7 +6922,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6959,7 +6954,7 @@
         <v>5</v>
       </c>
       <c r="J99">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -6974,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6992,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -7000,7 +6995,7 @@
         <v>43972</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7012,19 +7007,19 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100">
         <v>7</v>
       </c>
       <c r="J100">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -7039,13 +7034,13 @@
         <v>2</v>
       </c>
       <c r="O100">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7057,7 +7052,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7065,7 +7060,7 @@
         <v>43973</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -7080,16 +7075,16 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>10</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J101">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -7104,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -7122,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="U101" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -7154,13 +7149,13 @@
         <v>5</v>
       </c>
       <c r="J102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -7169,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7187,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="U102" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -7219,7 +7214,7 @@
         <v>5</v>
       </c>
       <c r="J103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -7228,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
       <c r="O103">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -7252,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -7284,13 +7279,13 @@
         <v>7</v>
       </c>
       <c r="J104">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -7299,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -7317,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7325,7 +7320,7 @@
         <v>43977</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -7349,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7364,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -7382,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -7414,7 +7409,7 @@
         <v>8</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -7429,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -7447,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7479,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="J107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -7494,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -7512,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -7544,7 +7539,7 @@
         <v>7</v>
       </c>
       <c r="J108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -7559,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="O108">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -7577,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -7606,7 +7601,7 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J109">
         <v>7</v>
@@ -7624,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -7642,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="U109" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -7671,11 +7666,11 @@
         <v>3</v>
       </c>
       <c r="I110">
+        <v>9</v>
+      </c>
+      <c r="J110">
         <v>8</v>
       </c>
-      <c r="J110">
-        <v>6</v>
-      </c>
       <c r="K110">
         <v>0</v>
       </c>
@@ -7683,13 +7678,13 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -7707,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -7727,19 +7722,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>5</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -7754,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7772,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -7804,7 +7799,7 @@
         <v>6</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -7819,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="O112">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7837,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -7869,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="J113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -7884,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7902,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="U113" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -7910,7 +7905,7 @@
         <v>43986</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -7928,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>7</v>
       </c>
       <c r="J114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -7949,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -7967,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -7999,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -8014,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -8032,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="U115" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -8064,7 +8059,7 @@
         <v>4</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8079,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -8097,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -8129,7 +8124,7 @@
         <v>7</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -8144,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -8162,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -8194,7 +8189,7 @@
         <v>7</v>
       </c>
       <c r="J118">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -8209,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -8227,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8256,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -8274,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -8292,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -8339,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="O120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -8357,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8386,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -8404,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -8422,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -8451,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -8469,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -8487,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -8513,13 +8508,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>3</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -8534,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -8552,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -8578,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -8599,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -8617,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -8625,7 +8620,7 @@
         <v>43997</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -8646,10 +8641,10 @@
         <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -8664,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8682,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -8711,10 +8706,10 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -8729,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8747,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -8776,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -8794,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8812,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -8841,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -8859,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8877,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -8885,7 +8880,7 @@
         <v>44001</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -8906,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -8924,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8942,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -8956,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8971,10 +8966,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -8989,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -9007,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="U130" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
@@ -9015,7 +9010,7 @@
         <v>44003</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -9036,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -9054,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -9072,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="U131" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -9119,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9134,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -9166,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -9175,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -9184,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="O133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -9202,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="U133" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -9210,7 +9205,7 @@
         <v>44006</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -9231,16 +9226,16 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -9249,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -9264,10 +9259,10 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -9296,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -9314,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -9332,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="U135" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -9349,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -9361,10 +9356,10 @@
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -9397,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="U136" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -9426,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -9462,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -9491,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -9500,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -9509,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -9527,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -9535,7 +9530,7 @@
         <v>44011</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -9556,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -9574,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -9592,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="U139" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -9606,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -9621,10 +9616,10 @@
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -9639,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -9657,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -9671,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -9686,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -9722,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -9754,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -9787,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="U142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -9869,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -9884,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -9914,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U144" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -10008,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -10047,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -10079,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -10112,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="U147" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -10324,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -10372,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="U151" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -10714,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -10762,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -13459,7 +13454,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13492,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13583,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>4</v>
@@ -13622,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13648,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>8</v>
@@ -13687,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -14236,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="I211">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J211">
         <v>9</v>
@@ -14272,7 +14267,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14304,7 +14299,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14337,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14558,13 +14553,13 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I216">
         <v>6</v>
       </c>
       <c r="J216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14597,7 +14592,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14688,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I218">
         <v>4</v>
@@ -14727,7 +14722,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14954,7 +14949,7 @@
         <v>10</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -14987,7 +14982,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15019,7 +15014,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15028,7 +15023,7 @@
         <v>2</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N223">
         <v>1</v>
@@ -15052,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15078,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15143,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15474,7 +15469,7 @@
         <v>14</v>
       </c>
       <c r="J230">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15483,7 +15478,7 @@
         <v>5</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N230">
         <v>2</v>
@@ -15507,7 +15502,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15604,7 +15599,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15613,7 +15608,7 @@
         <v>6</v>
       </c>
       <c r="M232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N232">
         <v>5</v>
@@ -15637,7 +15632,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15663,7 +15658,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I233">
         <v>18</v>
@@ -15702,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15743,7 +15738,7 @@
         <v>3</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N234">
         <v>5</v>
@@ -15767,7 +15762,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15938,7 +15933,7 @@
         <v>3</v>
       </c>
       <c r="M237">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N237">
         <v>8</v>
@@ -15962,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -16021,13 +16016,13 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16186,7 +16181,7 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J241">
         <v>2</v>
@@ -16222,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16452,7 +16447,7 @@
         <v>2</v>
       </c>
       <c r="K245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L245">
         <v>2</v>
@@ -16482,7 +16477,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16514,7 +16509,7 @@
         <v>14</v>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -16547,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16588,7 +16583,7 @@
         <v>7</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N247">
         <v>5</v>
@@ -16612,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16638,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I248">
         <v>6</v>
@@ -16677,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16833,13 +16828,13 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I251">
         <v>20</v>
       </c>
       <c r="J251">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16872,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16904,7 +16899,7 @@
         <v>23</v>
       </c>
       <c r="J252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -16937,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16978,7 +16973,7 @@
         <v>4</v>
       </c>
       <c r="M253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N253">
         <v>8</v>
@@ -17002,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17028,13 +17023,13 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I254">
         <v>22</v>
       </c>
       <c r="J254">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -17067,7 +17062,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17158,13 +17153,13 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I256">
         <v>30</v>
       </c>
       <c r="J256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K256">
         <v>1</v>
@@ -17197,7 +17192,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17200,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17223,13 +17218,13 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I257">
         <v>15</v>
       </c>
       <c r="J257">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -17250,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R257">
         <v>3</v>
@@ -17262,7 +17257,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17291,10 +17286,10 @@
         <v>7</v>
       </c>
       <c r="I258">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J258">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -17303,7 +17298,7 @@
         <v>8</v>
       </c>
       <c r="M258">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N258">
         <v>2</v>
@@ -17327,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17353,13 +17348,13 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I259">
         <v>20</v>
       </c>
       <c r="J259">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -17374,7 +17369,7 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P259">
         <v>1</v>
@@ -17392,7 +17387,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17400,7 +17395,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17433,13 +17428,13 @@
         <v>11</v>
       </c>
       <c r="M260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N260">
         <v>6</v>
       </c>
       <c r="O260">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P260">
         <v>0</v>
@@ -17451,13 +17446,13 @@
         <v>5</v>
       </c>
       <c r="S260">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17489,7 +17484,7 @@
         <v>28</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K261">
         <v>1</v>
@@ -17504,10 +17499,10 @@
         <v>11</v>
       </c>
       <c r="O261">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="P261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q261">
         <v>8</v>
@@ -17522,7 +17517,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,10 +17525,10 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C262">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D262">
         <v>6</v>
@@ -17548,28 +17543,28 @@
         <v>2</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K262">
         <v>3</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M262">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N262">
         <v>15</v>
       </c>
       <c r="O262">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P262">
         <v>0</v>
@@ -17581,13 +17576,13 @@
         <v>8</v>
       </c>
       <c r="S262">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T262">
         <v>3</v>
       </c>
       <c r="U262">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17595,10 +17590,10 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D263">
         <v>10</v>
@@ -17613,46 +17608,46 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J263">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K263">
         <v>1</v>
       </c>
       <c r="L263">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N263">
         <v>12</v>
       </c>
       <c r="O263">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P263">
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R263">
         <v>4</v>
       </c>
       <c r="S263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T263">
         <v>2</v>
       </c>
       <c r="U263">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,7 +17655,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C264">
         <v>14</v>
@@ -17678,22 +17673,22 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I264">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J264">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M264">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N264">
         <v>6</v>
@@ -17705,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R264">
         <v>3</v>
@@ -17717,7 +17712,7 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,10 +17720,10 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D265">
         <v>18</v>
@@ -17743,37 +17738,37 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I265">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265">
         <v>1</v>
       </c>
       <c r="L265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M265">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N265">
         <v>5</v>
       </c>
       <c r="O265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P265">
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R265">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S265">
         <v>0</v>
@@ -17782,11 +17777,76 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B266">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+      <c r="D266">
+        <v>8</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>4</v>
+      </c>
+      <c r="H266">
+        <v>2</v>
+      </c>
+      <c r="I266">
+        <v>8</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>9</v>
+      </c>
+      <c r="N266">
+        <v>10</v>
+      </c>
+      <c r="O266">
+        <v>2</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
+        <v>3</v>
+      </c>
+      <c r="R266">
+        <v>5</v>
+      </c>
+      <c r="S266">
+        <v>1</v>
+      </c>
+      <c r="T266">
+        <v>2</v>
+      </c>
+      <c r="U266">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 500 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 513 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:U268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11959,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -11992,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -12284,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -12317,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12349,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -12382,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12934,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12967,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -12999,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -13032,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13454,7 +13459,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13487,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -14104,7 +14109,7 @@
         <v>5</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K209">
         <v>1</v>
@@ -14131,13 +14136,13 @@
         <v>0</v>
       </c>
       <c r="S209">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14169,7 +14174,7 @@
         <v>3</v>
       </c>
       <c r="J210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -14202,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14234,7 +14239,7 @@
         <v>6</v>
       </c>
       <c r="J211">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14267,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14494,7 +14499,7 @@
         <v>7</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -14527,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14559,7 +14564,7 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14586,13 +14591,13 @@
         <v>1</v>
       </c>
       <c r="S216">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14651,13 +14656,13 @@
         <v>1</v>
       </c>
       <c r="S217">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14819,7 +14824,7 @@
         <v>9</v>
       </c>
       <c r="J220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -14846,7 +14851,7 @@
         <v>3</v>
       </c>
       <c r="S220">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T220">
         <v>1</v>
@@ -14884,7 +14889,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14917,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14958,7 +14963,7 @@
         <v>2</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N222">
         <v>3</v>
@@ -14982,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15014,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15047,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15079,7 +15084,7 @@
         <v>7</v>
       </c>
       <c r="J224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15209,7 +15214,7 @@
         <v>9</v>
       </c>
       <c r="J226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -15242,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15274,7 +15279,7 @@
         <v>14</v>
       </c>
       <c r="J227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -15307,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15404,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15437,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15534,7 +15539,7 @@
         <v>10</v>
       </c>
       <c r="J231">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -15567,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15599,7 +15604,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15632,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15658,13 +15663,13 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I233">
         <v>18</v>
       </c>
       <c r="J233">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15679,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="O233">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -15697,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15744,7 +15749,7 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -15762,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15859,7 +15864,7 @@
         <v>8</v>
       </c>
       <c r="J236">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -15892,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15924,7 +15929,7 @@
         <v>15</v>
       </c>
       <c r="J237">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -15957,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15989,7 +15994,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16022,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16054,7 +16059,7 @@
         <v>24</v>
       </c>
       <c r="J239">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -16087,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16119,7 +16124,7 @@
         <v>15</v>
       </c>
       <c r="J240">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -16134,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16184,7 +16189,7 @@
         <v>19</v>
       </c>
       <c r="J241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -16199,7 +16204,7 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P241">
         <v>2</v>
@@ -16217,7 +16222,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16249,7 +16254,7 @@
         <v>16</v>
       </c>
       <c r="J242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -16282,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16314,7 +16319,7 @@
         <v>10</v>
       </c>
       <c r="J243">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -16347,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16379,7 +16384,7 @@
         <v>17</v>
       </c>
       <c r="J244">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -16412,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16444,7 +16449,7 @@
         <v>19</v>
       </c>
       <c r="J245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -16477,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16574,7 +16579,7 @@
         <v>19</v>
       </c>
       <c r="J247">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16607,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16639,7 +16644,7 @@
         <v>6</v>
       </c>
       <c r="J248">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -16672,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16704,13 +16709,13 @@
         <v>21</v>
       </c>
       <c r="J249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K249">
         <v>1</v>
       </c>
       <c r="L249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16737,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16769,7 +16774,7 @@
         <v>19</v>
       </c>
       <c r="J250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -16802,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16810,7 +16815,7 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -16834,7 +16839,7 @@
         <v>20</v>
       </c>
       <c r="J251">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16843,7 +16848,7 @@
         <v>5</v>
       </c>
       <c r="M251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N251">
         <v>5</v>
@@ -16867,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16899,7 +16904,7 @@
         <v>23</v>
       </c>
       <c r="J252">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -16932,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16958,13 +16963,13 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I253">
         <v>15</v>
       </c>
       <c r="J253">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -16997,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17008,7 +17013,7 @@
         <v>29</v>
       </c>
       <c r="C254">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D254">
         <v>7</v>
@@ -17023,13 +17028,13 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I254">
         <v>22</v>
       </c>
       <c r="J254">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -17062,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17088,13 +17093,13 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I255">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J255">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -17115,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R255">
         <v>5</v>
@@ -17127,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17138,7 +17143,7 @@
         <v>23</v>
       </c>
       <c r="C256">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D256">
         <v>8</v>
@@ -17180,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R256">
         <v>2</v>
@@ -17200,7 +17205,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17221,10 +17226,10 @@
         <v>10</v>
       </c>
       <c r="I257">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J257">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -17257,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17286,10 +17291,10 @@
         <v>7</v>
       </c>
       <c r="I258">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J258">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -17310,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R258">
         <v>3</v>
@@ -17322,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17333,7 +17338,7 @@
         <v>31</v>
       </c>
       <c r="C259">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D259">
         <v>6</v>
@@ -17348,19 +17353,19 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I259">
         <v>20</v>
       </c>
       <c r="J259">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M259">
         <v>5</v>
@@ -17369,13 +17374,13 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P259">
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R259">
         <v>9</v>
@@ -17387,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17395,7 +17400,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17413,19 +17418,19 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I260">
         <v>28</v>
       </c>
       <c r="J260">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M260">
         <v>4</v>
@@ -17434,7 +17439,7 @@
         <v>6</v>
       </c>
       <c r="O260">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="P260">
         <v>0</v>
@@ -17452,7 +17457,7 @@
         <v>2</v>
       </c>
       <c r="U260">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17478,19 +17483,19 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I261">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K261">
         <v>1</v>
       </c>
       <c r="L261">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M261">
         <v>6</v>
@@ -17499,7 +17504,7 @@
         <v>11</v>
       </c>
       <c r="O261">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P261">
         <v>1</v>
@@ -17511,13 +17516,13 @@
         <v>3</v>
       </c>
       <c r="S261">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T261">
         <v>5</v>
       </c>
       <c r="U261">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17525,10 +17530,10 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C262">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D262">
         <v>6</v>
@@ -17543,13 +17548,13 @@
         <v>2</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I262">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J262">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K262">
         <v>3</v>
@@ -17564,25 +17569,25 @@
         <v>15</v>
       </c>
       <c r="O262">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P262">
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R262">
         <v>8</v>
       </c>
       <c r="S262">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T262">
         <v>3</v>
       </c>
       <c r="U262">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17590,10 +17595,10 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C263">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D263">
         <v>10</v>
@@ -17608,19 +17613,19 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I263">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J263">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K263">
         <v>1</v>
       </c>
       <c r="L263">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M263">
         <v>5</v>
@@ -17629,7 +17634,7 @@
         <v>12</v>
       </c>
       <c r="O263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P263">
         <v>0</v>
@@ -17647,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17655,7 +17660,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C264">
         <v>14</v>
@@ -17676,16 +17681,16 @@
         <v>7</v>
       </c>
       <c r="I264">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J264">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M264">
         <v>8</v>
@@ -17700,19 +17705,19 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R264">
         <v>3</v>
       </c>
       <c r="S264">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T264">
         <v>2</v>
       </c>
       <c r="U264">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17720,7 +17725,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17741,16 +17746,16 @@
         <v>5</v>
       </c>
       <c r="I265">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K265">
         <v>1</v>
       </c>
       <c r="L265">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M265">
         <v>8</v>
@@ -17759,13 +17764,13 @@
         <v>5</v>
       </c>
       <c r="O265">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P265">
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R265">
         <v>9</v>
@@ -17777,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17785,10 +17790,10 @@
         <v>44138</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C266">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D266">
         <v>8</v>
@@ -17797,16 +17802,16 @@
         <v>1</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G266">
         <v>4</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I266">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J266">
         <v>0</v>
@@ -17815,25 +17820,25 @@
         <v>2</v>
       </c>
       <c r="L266">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M266">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N266">
         <v>10</v>
       </c>
       <c r="O266">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P266">
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R266">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S266">
         <v>1</v>
@@ -17842,11 +17847,76 @@
         <v>2</v>
       </c>
       <c r="U266">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
+      <c r="C267">
+        <v>11</v>
+      </c>
+      <c r="D267">
+        <v>23</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>20</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>8</v>
+      </c>
+      <c r="O267">
+        <v>2</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>2</v>
+      </c>
+      <c r="R267">
+        <v>1</v>
+      </c>
+      <c r="S267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>2</v>
+      </c>
+      <c r="U267">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 513 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 540 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U268"/>
+  <dimension ref="A1:U269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="U94" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -13394,7 +13394,7 @@
         <v>4</v>
       </c>
       <c r="J198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -14304,7 +14304,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14564,7 +14564,7 @@
         <v>6</v>
       </c>
       <c r="J216">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14597,7 +14597,7 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14750,7 +14750,7 @@
         <v>2</v>
       </c>
       <c r="G219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -14792,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14851,13 +14851,13 @@
         <v>3</v>
       </c>
       <c r="S220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T220">
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14954,7 +14954,7 @@
         <v>10</v>
       </c>
       <c r="J222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -14987,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15019,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15214,7 +15214,7 @@
         <v>9</v>
       </c>
       <c r="J226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15409,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15442,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15474,7 +15474,7 @@
         <v>14</v>
       </c>
       <c r="J230">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15507,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15637,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -16139,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16157,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I245">
         <v>19</v>
@@ -16482,7 +16482,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16514,7 +16514,7 @@
         <v>14</v>
       </c>
       <c r="J246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16703,7 +16703,7 @@
         <v>3</v>
       </c>
       <c r="H249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I249">
         <v>21</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16839,7 +16839,7 @@
         <v>20</v>
       </c>
       <c r="J251">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16904,7 +16904,7 @@
         <v>23</v>
       </c>
       <c r="J252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -17034,7 +17034,7 @@
         <v>22</v>
       </c>
       <c r="J254">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17164,7 +17164,7 @@
         <v>30</v>
       </c>
       <c r="J256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K256">
         <v>1</v>
@@ -17173,7 +17173,7 @@
         <v>4</v>
       </c>
       <c r="M256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N256">
         <v>9</v>
@@ -17182,7 +17182,7 @@
         <v>20</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17205,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17229,13 +17229,13 @@
         <v>16</v>
       </c>
       <c r="J257">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K257">
         <v>3</v>
       </c>
       <c r="L257">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M257">
         <v>1</v>
@@ -17262,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17359,13 +17359,13 @@
         <v>20</v>
       </c>
       <c r="J259">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M259">
         <v>5</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17400,7 +17400,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17424,7 +17424,7 @@
         <v>28</v>
       </c>
       <c r="J260">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K260">
         <v>0</v>
@@ -17442,7 +17442,7 @@
         <v>28</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q260">
         <v>6</v>
@@ -17457,7 +17457,7 @@
         <v>2</v>
       </c>
       <c r="U260">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17489,7 +17489,7 @@
         <v>31</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K261">
         <v>1</v>
@@ -17504,7 +17504,7 @@
         <v>11</v>
       </c>
       <c r="O261">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P261">
         <v>1</v>
@@ -17522,7 +17522,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,10 +17530,10 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C262">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D262">
         <v>6</v>
@@ -17554,7 +17554,7 @@
         <v>19</v>
       </c>
       <c r="J262">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K262">
         <v>3</v>
@@ -17569,7 +17569,7 @@
         <v>15</v>
       </c>
       <c r="O262">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P262">
         <v>0</v>
@@ -17587,7 +17587,7 @@
         <v>3</v>
       </c>
       <c r="U262">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17595,7 +17595,7 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C263">
         <v>16</v>
@@ -17613,13 +17613,13 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I263">
         <v>23</v>
       </c>
       <c r="J263">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -17634,10 +17634,10 @@
         <v>12</v>
       </c>
       <c r="O263">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P263">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -17646,13 +17646,13 @@
         <v>4</v>
       </c>
       <c r="S263">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T263">
         <v>2</v>
       </c>
       <c r="U263">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C264">
         <v>14</v>
@@ -17669,7 +17669,7 @@
         <v>11</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -17681,16 +17681,16 @@
         <v>7</v>
       </c>
       <c r="I264">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J264">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M264">
         <v>8</v>
@@ -17705,19 +17705,19 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R264">
         <v>3</v>
       </c>
       <c r="S264">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T264">
         <v>2</v>
       </c>
       <c r="U264">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,7 +17725,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17749,7 +17749,7 @@
         <v>32</v>
       </c>
       <c r="J265">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17764,10 +17764,10 @@
         <v>5</v>
       </c>
       <c r="O265">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q265">
         <v>12</v>
@@ -17776,13 +17776,13 @@
         <v>9</v>
       </c>
       <c r="S265">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T265">
         <v>1</v>
       </c>
       <c r="U265">
-        <v>154</v>
+        <v>182</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17790,7 +17790,7 @@
         <v>44138</v>
       </c>
       <c r="B266">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C266">
         <v>21</v>
@@ -17799,7 +17799,7 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F266">
         <v>2</v>
@@ -17808,19 +17808,19 @@
         <v>4</v>
       </c>
       <c r="H266">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I266">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K266">
         <v>2</v>
       </c>
       <c r="L266">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M266">
         <v>11</v>
@@ -17829,25 +17829,25 @@
         <v>10</v>
       </c>
       <c r="O266">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q266">
         <v>5</v>
       </c>
       <c r="R266">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17855,16 +17855,16 @@
         <v>44139</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C267">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D267">
         <v>23</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -17873,50 +17873,115 @@
         <v>3</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I267">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M267">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N267">
         <v>8</v>
       </c>
       <c r="O267">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P267">
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U267">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B268">
+        <v>7</v>
+      </c>
+      <c r="C268">
+        <v>9</v>
+      </c>
+      <c r="D268">
+        <v>14</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>14</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>2</v>
+      </c>
+      <c r="M268">
+        <v>5</v>
+      </c>
+      <c r="N268">
+        <v>4</v>
+      </c>
+      <c r="O268">
+        <v>1</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>4</v>
+      </c>
+      <c r="R268">
+        <v>5</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>2</v>
+      </c>
+      <c r="U268">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 540 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 535 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U269"/>
+  <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7284,7 +7284,7 @@
         <v>7</v>
       </c>
       <c r="J104">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -9494,7 +9494,7 @@
         <v>2</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="U151" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="J194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>4</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -14694,7 +14694,7 @@
         <v>4</v>
       </c>
       <c r="J218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -14727,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14759,7 +14759,7 @@
         <v>10</v>
       </c>
       <c r="J219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -14792,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14889,7 +14889,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14922,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -15019,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15409,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15442,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15471,7 +15471,7 @@
         <v>21</v>
       </c>
       <c r="I230">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J230">
         <v>7</v>
@@ -15507,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
         <v>10</v>
       </c>
       <c r="J231">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -15572,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15637,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15663,13 +15663,13 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I233">
         <v>18</v>
       </c>
       <c r="J233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15929,7 +15929,7 @@
         <v>15</v>
       </c>
       <c r="J237">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -16319,7 +16319,7 @@
         <v>10</v>
       </c>
       <c r="J243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16594,7 +16594,7 @@
         <v>5</v>
       </c>
       <c r="O247">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16659,7 +16659,7 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16691,7 +16691,7 @@
         <v>8</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -16706,10 +16706,10 @@
         <v>4</v>
       </c>
       <c r="I249">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J249">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16771,10 +16771,10 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J250">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16848,7 +16848,7 @@
         <v>5</v>
       </c>
       <c r="M251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N251">
         <v>5</v>
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16880,7 +16880,7 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C252">
         <v>17</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16969,7 +16969,7 @@
         <v>15</v>
       </c>
       <c r="J253">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17034,7 +17034,7 @@
         <v>22</v>
       </c>
       <c r="J254">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -17061,13 +17061,13 @@
         <v>4</v>
       </c>
       <c r="S254">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T254">
         <v>1</v>
       </c>
       <c r="U254">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17093,13 +17093,13 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I255">
         <v>25</v>
       </c>
       <c r="J255">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -17132,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I256">
         <v>30</v>
@@ -17173,7 +17173,7 @@
         <v>4</v>
       </c>
       <c r="M256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N256">
         <v>9</v>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17205,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17226,10 +17226,10 @@
         <v>10</v>
       </c>
       <c r="I257">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J257">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -17262,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17294,7 +17294,7 @@
         <v>18</v>
       </c>
       <c r="J258">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -17327,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17335,7 +17335,7 @@
         <v>44131</v>
       </c>
       <c r="B259">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C259">
         <v>22</v>
@@ -17359,7 +17359,7 @@
         <v>20</v>
       </c>
       <c r="J259">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -17386,13 +17386,13 @@
         <v>9</v>
       </c>
       <c r="S259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T259">
         <v>2</v>
       </c>
       <c r="U259">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17400,7 +17400,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17451,13 +17451,13 @@
         <v>5</v>
       </c>
       <c r="S260">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17465,7 +17465,7 @@
         <v>44133</v>
       </c>
       <c r="B261">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C261">
         <v>12</v>
@@ -17495,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="L261">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M261">
         <v>6</v>
@@ -17504,7 +17504,7 @@
         <v>11</v>
       </c>
       <c r="O261">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P261">
         <v>1</v>
@@ -17522,7 +17522,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,7 +17530,7 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C262">
         <v>16</v>
@@ -17581,13 +17581,13 @@
         <v>8</v>
       </c>
       <c r="S262">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T262">
         <v>3</v>
       </c>
       <c r="U262">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17595,10 +17595,10 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C263">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D263">
         <v>10</v>
@@ -17619,7 +17619,7 @@
         <v>23</v>
       </c>
       <c r="J263">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -17628,7 +17628,7 @@
         <v>8</v>
       </c>
       <c r="M263">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N263">
         <v>12</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C264">
         <v>14</v>
@@ -17684,7 +17684,7 @@
         <v>23</v>
       </c>
       <c r="J264">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -17711,13 +17711,13 @@
         <v>3</v>
       </c>
       <c r="S264">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T264">
         <v>2</v>
       </c>
       <c r="U264">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,7 +17725,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17746,10 +17746,10 @@
         <v>5</v>
       </c>
       <c r="I265">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J265">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17782,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17790,10 +17790,10 @@
         <v>44138</v>
       </c>
       <c r="B266">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C266">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D266">
         <v>8</v>
@@ -17808,19 +17808,19 @@
         <v>4</v>
       </c>
       <c r="H266">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I266">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J266">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K266">
         <v>2</v>
       </c>
       <c r="L266">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M266">
         <v>11</v>
@@ -17847,7 +17847,7 @@
         <v>2</v>
       </c>
       <c r="U266">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17855,10 +17855,10 @@
         <v>44139</v>
       </c>
       <c r="B267">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C267">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D267">
         <v>23</v>
@@ -17873,19 +17873,19 @@
         <v>3</v>
       </c>
       <c r="H267">
+        <v>9</v>
+      </c>
+      <c r="I267">
+        <v>37</v>
+      </c>
+      <c r="J267">
         <v>7</v>
       </c>
-      <c r="I267">
-        <v>28</v>
-      </c>
-      <c r="J267">
-        <v>6</v>
-      </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M267">
         <v>5</v>
@@ -17894,25 +17894,25 @@
         <v>8</v>
       </c>
       <c r="O267">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P267">
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R267">
         <v>4</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T267">
         <v>3</v>
       </c>
       <c r="U267">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17920,16 +17920,16 @@
         <v>44140</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C268">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D268">
         <v>14</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -17938,50 +17938,245 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I268">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K268">
         <v>3</v>
       </c>
       <c r="L268">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M268">
+        <v>8</v>
+      </c>
+      <c r="N268">
+        <v>7</v>
+      </c>
+      <c r="O268">
+        <v>6</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>10</v>
+      </c>
+      <c r="R268">
+        <v>6</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>3</v>
+      </c>
+      <c r="U268">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B269">
+        <v>22</v>
+      </c>
+      <c r="C269">
+        <v>36</v>
+      </c>
+      <c r="D269">
+        <v>18</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>2</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>27</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
+      <c r="M269">
+        <v>7</v>
+      </c>
+      <c r="N269">
+        <v>7</v>
+      </c>
+      <c r="O269">
+        <v>2</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+      <c r="Q269">
+        <v>1</v>
+      </c>
+      <c r="R269">
+        <v>9</v>
+      </c>
+      <c r="S269">
+        <v>1</v>
+      </c>
+      <c r="T269">
+        <v>4</v>
+      </c>
+      <c r="U269">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B270">
+        <v>8</v>
+      </c>
+      <c r="C270">
+        <v>19</v>
+      </c>
+      <c r="D270">
+        <v>19</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
+      </c>
+      <c r="G270">
+        <v>2</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>17</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
         <v>5</v>
       </c>
-      <c r="N268">
-        <v>4</v>
-      </c>
-      <c r="O268">
-        <v>1</v>
-      </c>
-      <c r="P268">
-        <v>0</v>
-      </c>
-      <c r="Q268">
-        <v>4</v>
-      </c>
-      <c r="R268">
+      <c r="M270">
+        <v>4</v>
+      </c>
+      <c r="N270">
+        <v>8</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>2</v>
+      </c>
+      <c r="Q270">
+        <v>4</v>
+      </c>
+      <c r="R270">
         <v>5</v>
       </c>
-      <c r="S268">
-        <v>0</v>
-      </c>
-      <c r="T268">
-        <v>2</v>
-      </c>
-      <c r="U268">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>3</v>
+      </c>
+      <c r="U270">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>13</v>
+      </c>
+      <c r="D271">
+        <v>10</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>3</v>
+      </c>
+      <c r="I271">
+        <v>6</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>4</v>
+      </c>
+      <c r="N271">
+        <v>12</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>5</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>2</v>
+      </c>
+      <c r="U271">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 535 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 556 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U272"/>
+  <dimension ref="A1:U273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7807,7 +7807,7 @@
         <v>5</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -14292,7 +14292,7 @@
         <v>3</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -15631,13 +15631,13 @@
         <v>4</v>
       </c>
       <c r="S232">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T232">
         <v>4</v>
       </c>
       <c r="U232">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -16230,7 +16230,7 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -16251,7 +16251,7 @@
         <v>5</v>
       </c>
       <c r="I242">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J242">
         <v>4</v>
@@ -16287,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="U242">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M243">
         <v>4</v>
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M244">
         <v>3</v>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16588,7 +16588,7 @@
         <v>7</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N247">
         <v>5</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16659,7 +16659,7 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16685,7 +16685,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="L249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16771,7 +16771,7 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J250">
         <v>8</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16836,7 +16836,7 @@
         <v>5</v>
       </c>
       <c r="I251">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J251">
         <v>11</v>
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16901,7 +16901,7 @@
         <v>4</v>
       </c>
       <c r="I252">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J252">
         <v>4</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -17010,7 +17010,7 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C254">
         <v>12</v>
@@ -17031,7 +17031,7 @@
         <v>11</v>
       </c>
       <c r="I254">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J254">
         <v>16</v>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17075,7 +17075,7 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C255">
         <v>19</v>
@@ -17096,7 +17096,7 @@
         <v>6</v>
       </c>
       <c r="I255">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J255">
         <v>7</v>
@@ -17132,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17140,7 +17140,7 @@
         <v>44128</v>
       </c>
       <c r="B256">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C256">
         <v>6</v>
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I256">
         <v>30</v>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17205,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17226,7 +17226,7 @@
         <v>10</v>
       </c>
       <c r="I257">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J257">
         <v>12</v>
@@ -17262,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17270,7 +17270,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -17291,7 +17291,7 @@
         <v>7</v>
       </c>
       <c r="I258">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J258">
         <v>14</v>
@@ -17321,13 +17321,13 @@
         <v>3</v>
       </c>
       <c r="S258">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T258">
         <v>1</v>
       </c>
       <c r="U258">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17356,7 +17356,7 @@
         <v>17</v>
       </c>
       <c r="I259">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J259">
         <v>14</v>
@@ -17374,7 +17374,7 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P259">
         <v>1</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17400,7 +17400,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17457,7 +17457,7 @@
         <v>2</v>
       </c>
       <c r="U260">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17486,7 +17486,7 @@
         <v>6</v>
       </c>
       <c r="I261">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J261">
         <v>7</v>
@@ -17522,7 +17522,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,7 +17530,7 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C262">
         <v>16</v>
@@ -17551,7 +17551,7 @@
         <v>4</v>
       </c>
       <c r="I262">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J262">
         <v>19</v>
@@ -17572,7 +17572,7 @@
         <v>12</v>
       </c>
       <c r="P262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q262">
         <v>8</v>
@@ -17587,7 +17587,7 @@
         <v>3</v>
       </c>
       <c r="U262">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17622,13 +17622,13 @@
         <v>14</v>
       </c>
       <c r="K263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L263">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M263">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N263">
         <v>12</v>
@@ -17646,13 +17646,13 @@
         <v>4</v>
       </c>
       <c r="S263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T263">
         <v>2</v>
       </c>
       <c r="U263">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C264">
         <v>14</v>
@@ -17681,10 +17681,10 @@
         <v>7</v>
       </c>
       <c r="I264">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J264">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -17711,13 +17711,13 @@
         <v>3</v>
       </c>
       <c r="S264">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T264">
         <v>2</v>
       </c>
       <c r="U264">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,7 +17725,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17746,10 +17746,10 @@
         <v>5</v>
       </c>
       <c r="I265">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J265">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17776,13 +17776,13 @@
         <v>9</v>
       </c>
       <c r="S265">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T265">
         <v>1</v>
       </c>
       <c r="U265">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17790,7 +17790,7 @@
         <v>44138</v>
       </c>
       <c r="B266">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C266">
         <v>20</v>
@@ -17811,22 +17811,22 @@
         <v>16</v>
       </c>
       <c r="I266">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J266">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L266">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M266">
         <v>11</v>
       </c>
       <c r="N266">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O266">
         <v>14</v>
@@ -17841,13 +17841,13 @@
         <v>7</v>
       </c>
       <c r="S266">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="T266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U266">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17855,7 +17855,7 @@
         <v>44139</v>
       </c>
       <c r="B267">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C267">
         <v>30</v>
@@ -17873,13 +17873,13 @@
         <v>3</v>
       </c>
       <c r="H267">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I267">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J267">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -17888,7 +17888,7 @@
         <v>8</v>
       </c>
       <c r="M267">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N267">
         <v>8</v>
@@ -17900,19 +17900,19 @@
         <v>1</v>
       </c>
       <c r="Q267">
+        <v>8</v>
+      </c>
+      <c r="R267">
+        <v>4</v>
+      </c>
+      <c r="S267">
         <v>9</v>
       </c>
-      <c r="R267">
-        <v>4</v>
-      </c>
-      <c r="S267">
-        <v>3</v>
-      </c>
       <c r="T267">
         <v>3</v>
       </c>
       <c r="U267">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17920,7 +17920,7 @@
         <v>44140</v>
       </c>
       <c r="B268">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C268">
         <v>25</v>
@@ -17929,7 +17929,7 @@
         <v>14</v>
       </c>
       <c r="E268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -17938,25 +17938,25 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I268">
         <v>27</v>
       </c>
       <c r="J268">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K268">
         <v>3</v>
       </c>
       <c r="L268">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M268">
         <v>8</v>
       </c>
       <c r="N268">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O268">
         <v>6</v>
@@ -17965,19 +17965,19 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R268">
         <v>6</v>
       </c>
       <c r="S268">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T268">
         <v>3</v>
       </c>
       <c r="U268">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -17985,10 +17985,10 @@
         <v>44141</v>
       </c>
       <c r="B269">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C269">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D269">
         <v>18</v>
@@ -18006,43 +18006,43 @@
         <v>1</v>
       </c>
       <c r="I269">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M269">
         <v>7</v>
       </c>
       <c r="N269">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P269">
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R269">
         <v>9</v>
       </c>
       <c r="S269">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T269">
         <v>4</v>
       </c>
       <c r="U269">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
@@ -18050,16 +18050,16 @@
         <v>44142</v>
       </c>
       <c r="B270">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C270">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D270">
         <v>19</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -18068,46 +18068,46 @@
         <v>2</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I270">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K270">
         <v>1</v>
       </c>
       <c r="L270">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M270">
         <v>4</v>
       </c>
       <c r="N270">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P270">
         <v>2</v>
       </c>
       <c r="Q270">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R270">
         <v>5</v>
       </c>
       <c r="S270">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T270">
         <v>3</v>
       </c>
       <c r="U270">
-        <v>102</v>
+        <v>153</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18115,68 +18115,133 @@
         <v>44143</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C271">
+        <v>26</v>
+      </c>
+      <c r="D271">
+        <v>12</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>5</v>
+      </c>
+      <c r="I271">
+        <v>14</v>
+      </c>
+      <c r="J271">
+        <v>3</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>7</v>
+      </c>
+      <c r="N271">
         <v>13</v>
       </c>
-      <c r="D271">
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>5</v>
+      </c>
+      <c r="R271">
+        <v>6</v>
+      </c>
+      <c r="S271">
+        <v>12</v>
+      </c>
+      <c r="T271">
+        <v>3</v>
+      </c>
+      <c r="U271">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B272">
+        <v>11</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+      <c r="D272">
+        <v>19</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272">
+        <v>3</v>
+      </c>
+      <c r="I272">
+        <v>9</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>6</v>
+      </c>
+      <c r="N272">
         <v>10</v>
       </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271">
-        <v>2</v>
-      </c>
-      <c r="H271">
-        <v>3</v>
-      </c>
-      <c r="I271">
-        <v>6</v>
-      </c>
-      <c r="J271">
-        <v>0</v>
-      </c>
-      <c r="K271">
-        <v>0</v>
-      </c>
-      <c r="L271">
-        <v>0</v>
-      </c>
-      <c r="M271">
-        <v>4</v>
-      </c>
-      <c r="N271">
-        <v>12</v>
-      </c>
-      <c r="O271">
-        <v>0</v>
-      </c>
-      <c r="P271">
-        <v>0</v>
-      </c>
-      <c r="Q271">
-        <v>0</v>
-      </c>
-      <c r="R271">
-        <v>5</v>
-      </c>
-      <c r="S271">
-        <v>0</v>
-      </c>
-      <c r="T271">
-        <v>2</v>
-      </c>
-      <c r="U271">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
+      <c r="O272">
+        <v>1</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>3</v>
+      </c>
+      <c r="R272">
+        <v>3</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>1</v>
+      </c>
+      <c r="U272">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 556 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 557 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U273"/>
+  <dimension ref="A1:U274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16742,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="U249">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M250">
         <v>1</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16815,7 +16815,7 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -16854,7 +16854,7 @@
         <v>5</v>
       </c>
       <c r="O251">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P251">
         <v>1</v>
@@ -16872,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16880,7 +16880,7 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C252">
         <v>17</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -17010,7 +17010,7 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C254">
         <v>12</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M254">
         <v>6</v>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17185,7 +17185,7 @@
         <v>2</v>
       </c>
       <c r="Q256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R256">
         <v>2</v>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17270,7 +17270,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M258">
         <v>9</v>
@@ -17327,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17400,7 +17400,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17439,7 +17439,7 @@
         <v>6</v>
       </c>
       <c r="O260">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P260">
         <v>1</v>
@@ -17457,7 +17457,7 @@
         <v>2</v>
       </c>
       <c r="U260">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17486,7 +17486,7 @@
         <v>6</v>
       </c>
       <c r="I261">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J261">
         <v>7</v>
@@ -17504,7 +17504,7 @@
         <v>11</v>
       </c>
       <c r="O261">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P261">
         <v>1</v>
@@ -17560,7 +17560,7 @@
         <v>3</v>
       </c>
       <c r="L262">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M262">
         <v>8</v>
@@ -17572,7 +17572,7 @@
         <v>12</v>
       </c>
       <c r="P262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q262">
         <v>8</v>
@@ -17587,7 +17587,7 @@
         <v>3</v>
       </c>
       <c r="U262">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17595,7 +17595,7 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C263">
         <v>14</v>
@@ -17613,7 +17613,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I263">
         <v>23</v>
@@ -17634,13 +17634,13 @@
         <v>12</v>
       </c>
       <c r="O263">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="P263">
         <v>3</v>
       </c>
       <c r="Q263">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R263">
         <v>4</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C264">
         <v>14</v>
@@ -17696,10 +17696,10 @@
         <v>8</v>
       </c>
       <c r="N264">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O264">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P264">
         <v>0</v>
@@ -17717,7 +17717,7 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17749,7 +17749,7 @@
         <v>34</v>
       </c>
       <c r="J265">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17782,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17790,7 +17790,7 @@
         <v>44138</v>
       </c>
       <c r="B266">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C266">
         <v>20</v>
@@ -17811,10 +17811,10 @@
         <v>16</v>
       </c>
       <c r="I266">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J266">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K266">
         <v>3</v>
@@ -17829,13 +17829,13 @@
         <v>11</v>
       </c>
       <c r="O266">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P266">
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R266">
         <v>7</v>
@@ -17847,7 +17847,7 @@
         <v>3</v>
       </c>
       <c r="U266">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17855,10 +17855,10 @@
         <v>44139</v>
       </c>
       <c r="B267">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C267">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D267">
         <v>23</v>
@@ -17876,10 +17876,10 @@
         <v>16</v>
       </c>
       <c r="I267">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J267">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -17894,7 +17894,7 @@
         <v>8</v>
       </c>
       <c r="O267">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P267">
         <v>1</v>
@@ -17912,7 +17912,7 @@
         <v>3</v>
       </c>
       <c r="U267">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17920,7 +17920,7 @@
         <v>44140</v>
       </c>
       <c r="B268">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C268">
         <v>25</v>
@@ -17941,10 +17941,10 @@
         <v>10</v>
       </c>
       <c r="I268">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J268">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K268">
         <v>3</v>
@@ -17953,13 +17953,13 @@
         <v>15</v>
       </c>
       <c r="M268">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N268">
         <v>8</v>
       </c>
       <c r="O268">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P268">
         <v>0</v>
@@ -17977,7 +17977,7 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -17985,7 +17985,7 @@
         <v>44141</v>
       </c>
       <c r="B269">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C269">
         <v>37</v>
@@ -18003,19 +18003,19 @@
         <v>2</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I269">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J269">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K269">
         <v>1</v>
       </c>
       <c r="L269">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M269">
         <v>7</v>
@@ -18024,25 +18024,25 @@
         <v>8</v>
       </c>
       <c r="O269">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q269">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R269">
         <v>9</v>
       </c>
       <c r="S269">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T269">
         <v>4</v>
       </c>
       <c r="U269">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
@@ -18050,7 +18050,7 @@
         <v>44142</v>
       </c>
       <c r="B270">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C270">
         <v>20</v>
@@ -18068,19 +18068,19 @@
         <v>2</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I270">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K270">
         <v>1</v>
       </c>
       <c r="L270">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M270">
         <v>4</v>
@@ -18089,13 +18089,13 @@
         <v>10</v>
       </c>
       <c r="O270">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P270">
         <v>2</v>
       </c>
       <c r="Q270">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R270">
         <v>5</v>
@@ -18107,7 +18107,7 @@
         <v>3</v>
       </c>
       <c r="U270">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18115,7 +18115,7 @@
         <v>44143</v>
       </c>
       <c r="B271">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C271">
         <v>26</v>
@@ -18136,16 +18136,16 @@
         <v>5</v>
       </c>
       <c r="I271">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
       <c r="L271">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M271">
         <v>7</v>
@@ -18154,13 +18154,13 @@
         <v>13</v>
       </c>
       <c r="O271">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P271">
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R271">
         <v>6</v>
@@ -18172,7 +18172,7 @@
         <v>3</v>
       </c>
       <c r="U271">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18180,10 +18180,10 @@
         <v>44144</v>
       </c>
       <c r="B272">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D272">
         <v>19</v>
@@ -18192,56 +18192,121 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G272">
         <v>3</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I272">
+        <v>27</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>13</v>
+      </c>
+      <c r="M272">
+        <v>7</v>
+      </c>
+      <c r="N272">
+        <v>11</v>
+      </c>
+      <c r="O272">
+        <v>2</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>8</v>
+      </c>
+      <c r="R272">
+        <v>3</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>1</v>
+      </c>
+      <c r="U272">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B273">
+        <v>10</v>
+      </c>
+      <c r="C273">
+        <v>21</v>
+      </c>
+      <c r="D273">
+        <v>19</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>2</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>4</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>4</v>
+      </c>
+      <c r="N273">
         <v>9</v>
       </c>
-      <c r="J272">
-        <v>0</v>
-      </c>
-      <c r="K272">
-        <v>0</v>
-      </c>
-      <c r="L272">
-        <v>2</v>
-      </c>
-      <c r="M272">
-        <v>6</v>
-      </c>
-      <c r="N272">
-        <v>10</v>
-      </c>
-      <c r="O272">
-        <v>1</v>
-      </c>
-      <c r="P272">
-        <v>0</v>
-      </c>
-      <c r="Q272">
-        <v>3</v>
-      </c>
-      <c r="R272">
-        <v>3</v>
-      </c>
-      <c r="S272">
-        <v>0</v>
-      </c>
-      <c r="T272">
-        <v>1</v>
-      </c>
-      <c r="U272">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="O273">
+        <v>1</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>1</v>
+      </c>
+      <c r="R273">
+        <v>5</v>
+      </c>
+      <c r="S273">
+        <v>1</v>
+      </c>
+      <c r="T273">
+        <v>3</v>
+      </c>
+      <c r="U273">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 557 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 587 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U274"/>
+  <dimension ref="A1:U275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -13178,7 +13178,7 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13893,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14478,7 +14478,7 @@
         <v>14</v>
       </c>
       <c r="C215">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -14727,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -16360,10 +16360,10 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -16880,7 +16880,7 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C252">
         <v>17</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="U252">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
         <v>27</v>
       </c>
       <c r="C253">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D253">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R254">
         <v>4</v>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17075,13 +17075,13 @@
         <v>44127</v>
       </c>
       <c r="B255">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C255">
         <v>19</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -17099,7 +17099,7 @@
         <v>26</v>
       </c>
       <c r="J255">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -17111,7 +17111,7 @@
         <v>4</v>
       </c>
       <c r="N255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O255">
         <v>34</v>
@@ -17132,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17256,13 +17256,13 @@
         <v>3</v>
       </c>
       <c r="S257">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T257">
         <v>5</v>
       </c>
       <c r="U257">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17276,7 +17276,7 @@
         <v>8</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R258">
         <v>3</v>
@@ -17327,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17338,10 +17338,10 @@
         <v>32</v>
       </c>
       <c r="C259">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D259">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -17362,7 +17362,7 @@
         <v>14</v>
       </c>
       <c r="K259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L259">
         <v>13</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17427,10 +17427,10 @@
         <v>13</v>
       </c>
       <c r="K260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L260">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M260">
         <v>4</v>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R260">
         <v>5</v>
@@ -17457,7 +17457,7 @@
         <v>2</v>
       </c>
       <c r="U260">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17465,7 +17465,7 @@
         <v>44133</v>
       </c>
       <c r="B261">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C261">
         <v>12</v>
@@ -17492,7 +17492,7 @@
         <v>7</v>
       </c>
       <c r="K261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L261">
         <v>13</v>
@@ -17522,7 +17522,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,13 +17530,13 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C262">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -17587,7 +17587,7 @@
         <v>3</v>
       </c>
       <c r="U262">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17595,7 +17595,7 @@
         <v>44135</v>
       </c>
       <c r="B263">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C263">
         <v>14</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17663,10 +17663,10 @@
         <v>36</v>
       </c>
       <c r="C264">
+        <v>12</v>
+      </c>
+      <c r="D264">
         <v>14</v>
-      </c>
-      <c r="D264">
-        <v>11</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>25</v>
       </c>
       <c r="J264">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -17717,7 +17717,7 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,7 +17725,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17749,7 +17749,7 @@
         <v>34</v>
       </c>
       <c r="J265">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17764,7 +17764,7 @@
         <v>5</v>
       </c>
       <c r="O265">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P265">
         <v>3</v>
@@ -17782,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17790,7 +17790,7 @@
         <v>44138</v>
       </c>
       <c r="B266">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C266">
         <v>20</v>
@@ -17811,10 +17811,10 @@
         <v>16</v>
       </c>
       <c r="I266">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J266">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K266">
         <v>3</v>
@@ -17829,7 +17829,7 @@
         <v>11</v>
       </c>
       <c r="O266">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P266">
         <v>1</v>
@@ -17847,7 +17847,7 @@
         <v>3</v>
       </c>
       <c r="U266">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17879,22 +17879,22 @@
         <v>41</v>
       </c>
       <c r="J267">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M267">
         <v>7</v>
       </c>
       <c r="N267">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O267">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P267">
         <v>1</v>
@@ -17912,7 +17912,7 @@
         <v>3</v>
       </c>
       <c r="U267">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17920,13 +17920,13 @@
         <v>44140</v>
       </c>
       <c r="B268">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C268">
         <v>25</v>
       </c>
       <c r="D268">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E268">
         <v>3</v>
@@ -17938,13 +17938,13 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I268">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J268">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K268">
         <v>3</v>
@@ -17959,7 +17959,7 @@
         <v>8</v>
       </c>
       <c r="O268">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="P268">
         <v>0</v>
@@ -17977,7 +17977,7 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -17985,13 +17985,13 @@
         <v>44141</v>
       </c>
       <c r="B269">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C269">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D269">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -18003,28 +18003,28 @@
         <v>2</v>
       </c>
       <c r="H269">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I269">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J269">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K269">
         <v>1</v>
       </c>
       <c r="L269">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M269">
         <v>7</v>
       </c>
       <c r="N269">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O269">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="P269">
         <v>2</v>
@@ -18042,7 +18042,7 @@
         <v>4</v>
       </c>
       <c r="U269">
-        <v>225</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
@@ -18056,7 +18056,7 @@
         <v>20</v>
       </c>
       <c r="D270">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E270">
         <v>2</v>
@@ -18068,7 +18068,7 @@
         <v>2</v>
       </c>
       <c r="H270">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I270">
         <v>28</v>
@@ -18089,7 +18089,7 @@
         <v>10</v>
       </c>
       <c r="O270">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P270">
         <v>2</v>
@@ -18107,7 +18107,7 @@
         <v>3</v>
       </c>
       <c r="U270">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18115,13 +18115,13 @@
         <v>44143</v>
       </c>
       <c r="B271">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C271">
         <v>26</v>
       </c>
       <c r="D271">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -18136,22 +18136,22 @@
         <v>5</v>
       </c>
       <c r="I271">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J271">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
       <c r="L271">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M271">
         <v>7</v>
       </c>
       <c r="N271">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O271">
         <v>3</v>
@@ -18172,7 +18172,7 @@
         <v>3</v>
       </c>
       <c r="U271">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18180,10 +18180,10 @@
         <v>44144</v>
       </c>
       <c r="B272">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C272">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D272">
         <v>19</v>
@@ -18198,19 +18198,19 @@
         <v>3</v>
       </c>
       <c r="H272">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I272">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J272">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K272">
         <v>2</v>
       </c>
       <c r="L272">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M272">
         <v>7</v>
@@ -18219,13 +18219,13 @@
         <v>11</v>
       </c>
       <c r="O272">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P272">
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R272">
         <v>3</v>
@@ -18237,7 +18237,7 @@
         <v>1</v>
       </c>
       <c r="U272">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
@@ -18245,68 +18245,133 @@
         <v>44145</v>
       </c>
       <c r="B273">
+        <v>27</v>
+      </c>
+      <c r="C273">
+        <v>38</v>
+      </c>
+      <c r="D273">
+        <v>18</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>2</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>24</v>
+      </c>
+      <c r="J273">
+        <v>2</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>8</v>
+      </c>
+      <c r="M273">
+        <v>4</v>
+      </c>
+      <c r="N273">
         <v>10</v>
       </c>
-      <c r="C273">
-        <v>21</v>
-      </c>
-      <c r="D273">
-        <v>19</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273">
-        <v>2</v>
-      </c>
-      <c r="H273">
-        <v>0</v>
-      </c>
-      <c r="I273">
-        <v>4</v>
-      </c>
-      <c r="J273">
-        <v>0</v>
-      </c>
-      <c r="K273">
-        <v>0</v>
-      </c>
-      <c r="L273">
-        <v>0</v>
-      </c>
-      <c r="M273">
-        <v>4</v>
-      </c>
-      <c r="N273">
+      <c r="O273">
+        <v>6</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>4</v>
+      </c>
+      <c r="R273">
+        <v>10</v>
+      </c>
+      <c r="S273">
+        <v>1</v>
+      </c>
+      <c r="T273">
+        <v>5</v>
+      </c>
+      <c r="U273">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B274">
         <v>9</v>
       </c>
-      <c r="O273">
-        <v>1</v>
-      </c>
-      <c r="P273">
-        <v>0</v>
-      </c>
-      <c r="Q273">
-        <v>1</v>
-      </c>
-      <c r="R273">
+      <c r="C274">
+        <v>9</v>
+      </c>
+      <c r="D274">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
         <v>5</v>
       </c>
-      <c r="S273">
-        <v>1</v>
-      </c>
-      <c r="T273">
-        <v>3</v>
-      </c>
-      <c r="U273">
+      <c r="I274">
+        <v>6</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>8</v>
+      </c>
+      <c r="N274">
+        <v>14</v>
+      </c>
+      <c r="O274">
+        <v>2</v>
+      </c>
+      <c r="P274">
+        <v>1</v>
+      </c>
+      <c r="Q274">
+        <v>2</v>
+      </c>
+      <c r="R274">
+        <v>3</v>
+      </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <v>4</v>
+      </c>
+      <c r="U274">
         <v>81</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 587 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 573 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U275"/>
+  <dimension ref="A1:U276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -11358,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -13893,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13947,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -14478,7 +14478,7 @@
         <v>14</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -14727,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -15820,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R235">
         <v>1</v>
@@ -15832,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -16038,7 +16038,7 @@
         <v>15</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -16092,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16360,10 +16360,10 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16644,7 +16644,7 @@
         <v>6</v>
       </c>
       <c r="J248">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -16665,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
         <v>27</v>
       </c>
       <c r="C253">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D253">
         <v>9</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="U253">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
@@ -17185,7 +17185,7 @@
         <v>2</v>
       </c>
       <c r="Q256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R256">
         <v>2</v>
@@ -17197,7 +17197,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17229,7 +17229,7 @@
         <v>18</v>
       </c>
       <c r="J257">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -17262,7 +17262,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17270,7 +17270,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -17294,7 +17294,7 @@
         <v>19</v>
       </c>
       <c r="J258">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R258">
         <v>3</v>
@@ -17327,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17338,7 +17338,7 @@
         <v>32</v>
       </c>
       <c r="C259">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D259">
         <v>7</v>
@@ -17359,7 +17359,7 @@
         <v>21</v>
       </c>
       <c r="J259">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17530,10 +17530,10 @@
         <v>44134</v>
       </c>
       <c r="B262">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C262">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D262">
         <v>7</v>
@@ -17560,10 +17560,10 @@
         <v>3</v>
       </c>
       <c r="L262">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M262">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N262">
         <v>15</v>
@@ -17587,7 +17587,7 @@
         <v>3</v>
       </c>
       <c r="U262">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17613,7 +17613,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I263">
         <v>23</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,10 +17660,10 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C264">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D264">
         <v>14</v>
@@ -17717,7 +17717,7 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,7 +17725,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17734,7 +17734,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -17755,13 +17755,13 @@
         <v>1</v>
       </c>
       <c r="L265">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M265">
         <v>8</v>
       </c>
       <c r="N265">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O265">
         <v>23</v>
@@ -17782,7 +17782,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17799,7 +17799,7 @@
         <v>8</v>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F266">
         <v>2</v>
@@ -17814,7 +17814,7 @@
         <v>22</v>
       </c>
       <c r="J266">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K266">
         <v>3</v>
@@ -17847,7 +17847,7 @@
         <v>3</v>
       </c>
       <c r="U266">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17855,7 +17855,7 @@
         <v>44139</v>
       </c>
       <c r="B267">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C267">
         <v>29</v>
@@ -17876,7 +17876,7 @@
         <v>16</v>
       </c>
       <c r="I267">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J267">
         <v>22</v>
@@ -17894,13 +17894,13 @@
         <v>9</v>
       </c>
       <c r="O267">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P267">
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R267">
         <v>4</v>
@@ -17912,7 +17912,7 @@
         <v>3</v>
       </c>
       <c r="U267">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17929,7 +17929,7 @@
         <v>16</v>
       </c>
       <c r="E268">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -17938,10 +17938,10 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I268">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J268">
         <v>21</v>
@@ -17959,7 +17959,7 @@
         <v>8</v>
       </c>
       <c r="O268">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P268">
         <v>0</v>
@@ -17977,7 +17977,7 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -17988,7 +17988,7 @@
         <v>46</v>
       </c>
       <c r="C269">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D269">
         <v>23</v>
@@ -18003,13 +18003,13 @@
         <v>2</v>
       </c>
       <c r="H269">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I269">
         <v>39</v>
       </c>
       <c r="J269">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -18021,16 +18021,16 @@
         <v>7</v>
       </c>
       <c r="N269">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O269">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P269">
         <v>2</v>
       </c>
       <c r="Q269">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R269">
         <v>9</v>
@@ -18042,7 +18042,7 @@
         <v>4</v>
       </c>
       <c r="U269">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
@@ -18059,7 +18059,7 @@
         <v>20</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -18068,13 +18068,13 @@
         <v>2</v>
       </c>
       <c r="H270">
+        <v>10</v>
+      </c>
+      <c r="I270">
+        <v>30</v>
+      </c>
+      <c r="J270">
         <v>9</v>
-      </c>
-      <c r="I270">
-        <v>28</v>
-      </c>
-      <c r="J270">
-        <v>4</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -18089,7 +18089,7 @@
         <v>10</v>
       </c>
       <c r="O270">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P270">
         <v>2</v>
@@ -18107,7 +18107,7 @@
         <v>3</v>
       </c>
       <c r="U270">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18121,7 +18121,7 @@
         <v>26</v>
       </c>
       <c r="D271">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -18133,13 +18133,13 @@
         <v>2</v>
       </c>
       <c r="H271">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I271">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J271">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -18154,13 +18154,13 @@
         <v>14</v>
       </c>
       <c r="O271">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P271">
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R271">
         <v>6</v>
@@ -18172,7 +18172,7 @@
         <v>3</v>
       </c>
       <c r="U271">
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18180,7 +18180,7 @@
         <v>44144</v>
       </c>
       <c r="B272">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C272">
         <v>17</v>
@@ -18198,10 +18198,10 @@
         <v>3</v>
       </c>
       <c r="H272">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I272">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J272">
         <v>3</v>
@@ -18210,7 +18210,7 @@
         <v>2</v>
       </c>
       <c r="L272">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M272">
         <v>7</v>
@@ -18219,7 +18219,7 @@
         <v>11</v>
       </c>
       <c r="O272">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P272">
         <v>0</v>
@@ -18231,13 +18231,13 @@
         <v>3</v>
       </c>
       <c r="S272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T272">
         <v>1</v>
       </c>
       <c r="U272">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
@@ -18245,16 +18245,16 @@
         <v>44145</v>
       </c>
       <c r="B273">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C273">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D273">
         <v>18</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -18263,19 +18263,19 @@
         <v>2</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I273">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K273">
         <v>0</v>
       </c>
       <c r="L273">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M273">
         <v>4</v>
@@ -18284,7 +18284,7 @@
         <v>10</v>
       </c>
       <c r="O273">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P273">
         <v>0</v>
@@ -18296,13 +18296,13 @@
         <v>10</v>
       </c>
       <c r="S273">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T273">
         <v>5</v>
       </c>
       <c r="U273">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
@@ -18310,16 +18310,16 @@
         <v>44146</v>
       </c>
       <c r="B274">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C274">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D274">
         <v>11</v>
       </c>
       <c r="E274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -18328,50 +18328,115 @@
         <v>1</v>
       </c>
       <c r="H274">
+        <v>6</v>
+      </c>
+      <c r="I274">
+        <v>22</v>
+      </c>
+      <c r="J274">
         <v>5</v>
       </c>
-      <c r="I274">
-        <v>6</v>
-      </c>
-      <c r="J274">
-        <v>1</v>
-      </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M274">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N274">
         <v>14</v>
       </c>
       <c r="O274">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q274">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R274">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S274">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T274">
         <v>4</v>
       </c>
       <c r="U274">
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275">
+        <v>13</v>
+      </c>
+      <c r="D275">
+        <v>14</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>4</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275">
+        <v>3</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>2</v>
+      </c>
+      <c r="L275">
+        <v>3</v>
+      </c>
+      <c r="M275">
+        <v>8</v>
+      </c>
+      <c r="N275">
+        <v>11</v>
+      </c>
+      <c r="O275">
+        <v>1</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>3</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
+        <v>0</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -84,13 +79,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 573 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 595 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U276"/>
+  <dimension ref="A1:U279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8942,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -10055,7 +10050,7 @@
         <v>44019</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -10112,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="U147" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -10120,7 +10115,7 @@
         <v>44020</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10177,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -10640,7 +10635,7 @@
         <v>44028</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -10697,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="U156" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
@@ -11160,7 +11155,7 @@
         <v>44036</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -11217,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -13955,7 +13950,7 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -14012,7 +14007,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -15078,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15117,7 +15112,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15143,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15182,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15775,7 +15770,7 @@
         <v>44107</v>
       </c>
       <c r="B235">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -15832,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -16189,7 +16184,7 @@
         <v>19</v>
       </c>
       <c r="J241">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -16222,7 +16217,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16295,7 +16290,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16352,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="U243">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16768,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I250">
         <v>22</v>
@@ -16807,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="U250">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16845,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="L251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M251">
         <v>5</v>
@@ -16857,7 +16852,7 @@
         <v>33</v>
       </c>
       <c r="P251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -17179,7 +17174,7 @@
         <v>9</v>
       </c>
       <c r="O256">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P256">
         <v>2</v>
@@ -17197,7 +17192,7 @@
         <v>3</v>
       </c>
       <c r="U256">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
@@ -17205,7 +17200,7 @@
         <v>44129</v>
       </c>
       <c r="B257">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C257">
         <v>7</v>
@@ -17244,7 +17239,7 @@
         <v>5</v>
       </c>
       <c r="O257">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P257">
         <v>0</v>
@@ -17262,7 +17257,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
@@ -17492,7 +17487,7 @@
         <v>7</v>
       </c>
       <c r="K261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L261">
         <v>13</v>
@@ -17522,7 +17517,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17660,7 +17655,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C264">
         <v>15</v>
@@ -17684,7 +17679,7 @@
         <v>25</v>
       </c>
       <c r="J264">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -17717,7 +17712,7 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17725,7 +17720,7 @@
         <v>44137</v>
       </c>
       <c r="B265">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C265">
         <v>16</v>
@@ -17755,10 +17750,10 @@
         <v>1</v>
       </c>
       <c r="L265">
+        <v>8</v>
+      </c>
+      <c r="M265">
         <v>9</v>
-      </c>
-      <c r="M265">
-        <v>8</v>
       </c>
       <c r="N265">
         <v>7</v>
@@ -17782,7 +17777,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17858,7 +17853,7 @@
         <v>46</v>
       </c>
       <c r="C267">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D267">
         <v>23</v>
@@ -17885,7 +17880,7 @@
         <v>0</v>
       </c>
       <c r="L267">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M267">
         <v>7</v>
@@ -17920,7 +17915,7 @@
         <v>44140</v>
       </c>
       <c r="B268">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C268">
         <v>25</v>
@@ -17944,7 +17939,7 @@
         <v>31</v>
       </c>
       <c r="J268">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K268">
         <v>3</v>
@@ -17959,7 +17954,7 @@
         <v>8</v>
       </c>
       <c r="O268">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P268">
         <v>0</v>
@@ -17977,7 +17972,7 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -17985,10 +17980,10 @@
         <v>44141</v>
       </c>
       <c r="B269">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C269">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D269">
         <v>23</v>
@@ -18050,7 +18045,7 @@
         <v>44142</v>
       </c>
       <c r="B270">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C270">
         <v>20</v>
@@ -18071,7 +18066,7 @@
         <v>10</v>
       </c>
       <c r="I270">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J270">
         <v>9</v>
@@ -18107,7 +18102,7 @@
         <v>3</v>
       </c>
       <c r="U270">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18136,10 +18131,10 @@
         <v>10</v>
       </c>
       <c r="I271">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J271">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -18154,7 +18149,7 @@
         <v>14</v>
       </c>
       <c r="O271">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P271">
         <v>0</v>
@@ -18172,7 +18167,7 @@
         <v>3</v>
       </c>
       <c r="U271">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18180,7 +18175,7 @@
         <v>44144</v>
       </c>
       <c r="B272">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C272">
         <v>17</v>
@@ -18201,7 +18196,7 @@
         <v>14</v>
       </c>
       <c r="I272">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J272">
         <v>3</v>
@@ -18225,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R272">
         <v>3</v>
@@ -18237,7 +18232,7 @@
         <v>1</v>
       </c>
       <c r="U272">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
@@ -18245,7 +18240,7 @@
         <v>44145</v>
       </c>
       <c r="B273">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C273">
         <v>39</v>
@@ -18269,10 +18264,10 @@
         <v>27</v>
       </c>
       <c r="J273">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273">
         <v>19</v>
@@ -18302,7 +18297,7 @@
         <v>5</v>
       </c>
       <c r="U273">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
@@ -18310,7 +18305,7 @@
         <v>44146</v>
       </c>
       <c r="B274">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C274">
         <v>17</v>
@@ -18328,19 +18323,19 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I274">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J274">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M274">
         <v>12</v>
@@ -18349,14 +18344,14 @@
         <v>14</v>
       </c>
       <c r="O274">
+        <v>17</v>
+      </c>
+      <c r="P274">
+        <v>2</v>
+      </c>
+      <c r="Q274">
         <v>10</v>
       </c>
-      <c r="P274">
-        <v>2</v>
-      </c>
-      <c r="Q274">
-        <v>9</v>
-      </c>
       <c r="R274">
         <v>4</v>
       </c>
@@ -18367,7 +18362,7 @@
         <v>4</v>
       </c>
       <c r="U274">
-        <v>166</v>
+        <v>211</v>
       </c>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.25">
@@ -18375,16 +18370,16 @@
         <v>44147</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C275">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D275">
         <v>14</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -18393,50 +18388,245 @@
         <v>4</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I275">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J275">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K275">
         <v>2</v>
       </c>
       <c r="L275">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M275">
+        <v>10</v>
+      </c>
+      <c r="N275">
+        <v>10</v>
+      </c>
+      <c r="O275">
+        <v>5</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>10</v>
+      </c>
+      <c r="R275">
+        <v>3</v>
+      </c>
+      <c r="S275">
+        <v>2</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B276">
+        <v>18</v>
+      </c>
+      <c r="C276">
+        <v>44</v>
+      </c>
+      <c r="D276">
+        <v>24</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>4</v>
+      </c>
+      <c r="H276">
+        <v>5</v>
+      </c>
+      <c r="I276">
+        <v>10</v>
+      </c>
+      <c r="J276">
+        <v>3</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>4</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>9</v>
+      </c>
+      <c r="O276">
+        <v>2</v>
+      </c>
+      <c r="P276">
+        <v>2</v>
+      </c>
+      <c r="Q276">
+        <v>4</v>
+      </c>
+      <c r="R276">
+        <v>1</v>
+      </c>
+      <c r="S276">
+        <v>1</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B277">
+        <v>12</v>
+      </c>
+      <c r="C277">
+        <v>12</v>
+      </c>
+      <c r="D277">
+        <v>22</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
         <v>8</v>
       </c>
-      <c r="N275">
-        <v>11</v>
-      </c>
-      <c r="O275">
-        <v>1</v>
-      </c>
-      <c r="P275">
-        <v>0</v>
-      </c>
-      <c r="Q275">
-        <v>3</v>
-      </c>
-      <c r="R275">
-        <v>2</v>
-      </c>
-      <c r="S275">
-        <v>0</v>
-      </c>
-      <c r="T275">
-        <v>2</v>
-      </c>
-      <c r="U275">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>5</v>
+      </c>
+      <c r="N277">
+        <v>7</v>
+      </c>
+      <c r="O277">
+        <v>4</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>1</v>
+      </c>
+      <c r="R277">
+        <v>7</v>
+      </c>
+      <c r="S277">
+        <v>0</v>
+      </c>
+      <c r="T277">
+        <v>3</v>
+      </c>
+      <c r="U277">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B278">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>25</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>2</v>
+      </c>
+      <c r="N278">
+        <v>5</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>4</v>
+      </c>
+      <c r="S278">
+        <v>0</v>
+      </c>
+      <c r="T278">
+        <v>3</v>
+      </c>
+      <c r="U278">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,16 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 595 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 628 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -173,6 +181,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -183,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="44">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
@@ -222,6 +236,12 @@
     <cellStyle name="style1601472990730" xfId="36"/>
     <cellStyle name="style1601472990774" xfId="34"/>
     <cellStyle name="style1601472990793" xfId="37"/>
+    <cellStyle name="style1605624094141" xfId="38"/>
+    <cellStyle name="style1605624094165" xfId="41"/>
+    <cellStyle name="style1605624094214" xfId="39"/>
+    <cellStyle name="style1605624094234" xfId="42"/>
+    <cellStyle name="style1605624094465" xfId="40"/>
+    <cellStyle name="style1605624094484" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U279"/>
+  <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N292" sqref="N292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11353,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -11407,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
@@ -15073,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>7</v>
@@ -15112,7 +15132,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15138,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I225">
         <v>12</v>
@@ -15177,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15510,7 +15530,7 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C231">
         <v>9</v>
@@ -15567,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15575,7 +15595,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -15632,7 +15652,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15705,7 +15725,7 @@
         <v>44106</v>
       </c>
       <c r="B234">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -15738,7 +15758,7 @@
         <v>3</v>
       </c>
       <c r="M234">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N234">
         <v>5</v>
@@ -15762,7 +15782,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -16843,7 +16863,7 @@
         <v>6</v>
       </c>
       <c r="M251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N251">
         <v>5</v>
@@ -16867,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -17446,13 +17466,13 @@
         <v>5</v>
       </c>
       <c r="S260">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T260">
         <v>2</v>
       </c>
       <c r="U260">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17576,13 +17596,13 @@
         <v>8</v>
       </c>
       <c r="S262">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T262">
         <v>3</v>
       </c>
       <c r="U262">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17744,7 +17764,7 @@
         <v>34</v>
       </c>
       <c r="J265">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17771,13 +17791,13 @@
         <v>9</v>
       </c>
       <c r="S265">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T265">
         <v>1</v>
       </c>
       <c r="U265">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17901,13 +17921,13 @@
         <v>4</v>
       </c>
       <c r="S267">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T267">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U267">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17936,10 +17956,10 @@
         <v>13</v>
       </c>
       <c r="I268">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J268">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K268">
         <v>3</v>
@@ -17960,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R268">
         <v>6</v>
@@ -17972,7 +17992,7 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -18004,7 +18024,7 @@
         <v>39</v>
       </c>
       <c r="J269">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -18031,13 +18051,13 @@
         <v>9</v>
       </c>
       <c r="S269">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T269">
         <v>4</v>
       </c>
       <c r="U269">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
@@ -18045,7 +18065,7 @@
         <v>44142</v>
       </c>
       <c r="B270">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C270">
         <v>20</v>
@@ -18096,13 +18116,13 @@
         <v>5</v>
       </c>
       <c r="S270">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T270">
         <v>3</v>
       </c>
       <c r="U270">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18110,7 +18130,7 @@
         <v>44143</v>
       </c>
       <c r="B271">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C271">
         <v>26</v>
@@ -18131,10 +18151,10 @@
         <v>10</v>
       </c>
       <c r="I271">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J271">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -18161,13 +18181,13 @@
         <v>6</v>
       </c>
       <c r="S271">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T271">
         <v>3</v>
       </c>
       <c r="U271">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18175,7 +18195,7 @@
         <v>44144</v>
       </c>
       <c r="B272">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C272">
         <v>17</v>
@@ -18196,10 +18216,10 @@
         <v>14</v>
       </c>
       <c r="I272">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K272">
         <v>2</v>
@@ -18220,19 +18240,19 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R272">
         <v>3</v>
       </c>
       <c r="S272">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T272">
         <v>1</v>
       </c>
       <c r="U272">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
@@ -18240,7 +18260,7 @@
         <v>44145</v>
       </c>
       <c r="B273">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C273">
         <v>39</v>
@@ -18252,7 +18272,7 @@
         <v>2</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -18261,16 +18281,16 @@
         <v>5</v>
       </c>
       <c r="I273">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J273">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K273">
         <v>1</v>
       </c>
       <c r="L273">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M273">
         <v>4</v>
@@ -18279,7 +18299,7 @@
         <v>10</v>
       </c>
       <c r="O273">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P273">
         <v>0</v>
@@ -18291,13 +18311,13 @@
         <v>10</v>
       </c>
       <c r="S273">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T273">
         <v>5</v>
       </c>
       <c r="U273">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
@@ -18305,7 +18325,7 @@
         <v>44146</v>
       </c>
       <c r="B274">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C274">
         <v>17</v>
@@ -18323,46 +18343,46 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I274">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J274">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M274">
         <v>12</v>
       </c>
       <c r="N274">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O274">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P274">
         <v>2</v>
       </c>
       <c r="Q274">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R274">
         <v>4</v>
       </c>
       <c r="S274">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="T274">
         <v>4</v>
       </c>
       <c r="U274">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.25">
@@ -18370,16 +18390,16 @@
         <v>44147</v>
       </c>
       <c r="B275">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C275">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D275">
         <v>14</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -18388,46 +18408,46 @@
         <v>4</v>
       </c>
       <c r="H275">
+        <v>11</v>
+      </c>
+      <c r="I275">
+        <v>29</v>
+      </c>
+      <c r="J275">
         <v>10</v>
       </c>
-      <c r="I275">
-        <v>23</v>
-      </c>
-      <c r="J275">
-        <v>5</v>
-      </c>
       <c r="K275">
         <v>2</v>
       </c>
       <c r="L275">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M275">
         <v>10</v>
       </c>
       <c r="N275">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O275">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P275">
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R275">
         <v>3</v>
       </c>
       <c r="S275">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.25">
@@ -18435,7 +18455,7 @@
         <v>44148</v>
       </c>
       <c r="B276">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C276">
         <v>44</v>
@@ -18444,55 +18464,55 @@
         <v>24</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H276">
+        <v>10</v>
+      </c>
+      <c r="I276">
+        <v>22</v>
+      </c>
+      <c r="J276">
         <v>5</v>
       </c>
-      <c r="I276">
-        <v>10</v>
-      </c>
-      <c r="J276">
-        <v>3</v>
-      </c>
       <c r="K276">
         <v>1</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M276">
         <v>2</v>
       </c>
       <c r="N276">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O276">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P276">
         <v>2</v>
       </c>
       <c r="Q276">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R276">
         <v>1</v>
       </c>
       <c r="S276">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="T276">
         <v>2</v>
       </c>
       <c r="U276">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.25">
@@ -18500,64 +18520,64 @@
         <v>44149</v>
       </c>
       <c r="B277">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C277">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D277">
         <v>22</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I277">
+        <v>19</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>5</v>
+      </c>
+      <c r="M277">
+        <v>7</v>
+      </c>
+      <c r="N277">
+        <v>11</v>
+      </c>
+      <c r="O277">
+        <v>6</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>5</v>
+      </c>
+      <c r="R277">
         <v>8</v>
       </c>
-      <c r="J277">
-        <v>0</v>
-      </c>
-      <c r="K277">
-        <v>1</v>
-      </c>
-      <c r="L277">
-        <v>2</v>
-      </c>
-      <c r="M277">
-        <v>5</v>
-      </c>
-      <c r="N277">
-        <v>7</v>
-      </c>
-      <c r="O277">
-        <v>4</v>
-      </c>
-      <c r="P277">
-        <v>0</v>
-      </c>
-      <c r="Q277">
-        <v>1</v>
-      </c>
-      <c r="R277">
-        <v>7</v>
-      </c>
       <c r="S277">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T277">
         <v>3</v>
       </c>
       <c r="U277">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
@@ -18565,68 +18585,133 @@
         <v>44150</v>
       </c>
       <c r="B278">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D278">
         <v>25</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G278">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K278">
         <v>0</v>
       </c>
       <c r="L278">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N278">
         <v>5</v>
       </c>
       <c r="O278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R278">
         <v>4</v>
       </c>
       <c r="S278">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T278">
         <v>3</v>
       </c>
       <c r="U278">
-        <v>52</v>
+        <v>127</v>
       </c>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B279">
+        <v>6</v>
+      </c>
+      <c r="C279">
+        <v>18</v>
+      </c>
+      <c r="D279">
+        <v>7</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>7</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>5</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>1</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>0</v>
+      </c>
+      <c r="T279">
+        <v>2</v>
+      </c>
+      <c r="U279">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/csv/Fallecidos_COVID19.xlsx
+++ b/csv/Fallecidos_COVID19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,7 +84,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 628 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 606 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -543,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U280"/>
+  <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N292" sqref="N292"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14765,7 +14765,7 @@
         <v>2</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -14807,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14830,7 +14830,7 @@
         <v>2</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>6</v>
@@ -14872,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14960,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>6</v>
@@ -15002,7 +15002,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15034,7 +15034,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15067,7 +15067,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15229,7 +15229,7 @@
         <v>9</v>
       </c>
       <c r="J226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -15262,7 +15262,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15285,7 +15285,7 @@
         <v>5</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>4</v>
@@ -15327,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="U227">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15959,7 +15959,7 @@
         <v>8</v>
       </c>
       <c r="O237">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -16440,7 +16440,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16455,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
         <v>12</v>
@@ -16497,7 +16497,7 @@
         <v>4</v>
       </c>
       <c r="U245">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16526,7 +16526,7 @@
         <v>8</v>
       </c>
       <c r="I246">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J246">
         <v>3</v>
@@ -16562,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16594,7 +16594,7 @@
         <v>19</v>
       </c>
       <c r="J247">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -16627,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16653,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>6</v>
@@ -16674,7 +16674,7 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P248">
         <v>0</v>
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="U248">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16863,7 +16863,7 @@
         <v>6</v>
       </c>
       <c r="M251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N251">
         <v>5</v>
@@ -16887,7 +16887,7 @@
         <v>1</v>
       </c>
       <c r="U251">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -17025,7 +17025,7 @@
         <v>44126</v>
       </c>
       <c r="B254">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C254">
         <v>12</v>
@@ -17082,7 +17082,7 @@
         <v>1</v>
       </c>
       <c r="U254">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
@@ -17114,7 +17114,7 @@
         <v>26</v>
       </c>
       <c r="J255">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -17147,7 +17147,7 @@
         <v>4</v>
       </c>
       <c r="U255">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
@@ -17285,7 +17285,7 @@
         <v>44130</v>
       </c>
       <c r="B258">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -17342,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="U258">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
@@ -17365,7 +17365,7 @@
         <v>3</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259">
         <v>17</v>
@@ -17389,7 +17389,7 @@
         <v>8</v>
       </c>
       <c r="O259">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P259">
         <v>1</v>
@@ -17407,7 +17407,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
@@ -17415,7 +17415,7 @@
         <v>44132</v>
       </c>
       <c r="B260">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C260">
         <v>12</v>
@@ -17454,7 +17454,7 @@
         <v>6</v>
       </c>
       <c r="O260">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P260">
         <v>1</v>
@@ -17472,7 +17472,7 @@
         <v>2</v>
       </c>
       <c r="U260">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
@@ -17495,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
         <v>6</v>
@@ -17537,7 +17537,7 @@
         <v>5</v>
       </c>
       <c r="U261">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
@@ -17593,7 +17593,7 @@
         <v>8</v>
       </c>
       <c r="R262">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S262">
         <v>11</v>
@@ -17602,7 +17602,7 @@
         <v>3</v>
       </c>
       <c r="U262">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
@@ -17649,7 +17649,7 @@
         <v>12</v>
       </c>
       <c r="O263">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P263">
         <v>3</v>
@@ -17667,7 +17667,7 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
@@ -17675,7 +17675,7 @@
         <v>44136</v>
       </c>
       <c r="B264">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C264">
         <v>15</v>
@@ -17690,7 +17690,7 @@
         <v>2</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
         <v>7</v>
@@ -17732,7 +17732,7 @@
         <v>2</v>
       </c>
       <c r="U264">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
@@ -17755,7 +17755,7 @@
         <v>2</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
         <v>5</v>
@@ -17764,7 +17764,7 @@
         <v>34</v>
       </c>
       <c r="J265">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="U265">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
@@ -17820,7 +17820,7 @@
         <v>2</v>
       </c>
       <c r="G266">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H266">
         <v>16</v>
@@ -17862,7 +17862,7 @@
         <v>3</v>
       </c>
       <c r="U266">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
@@ -17870,7 +17870,7 @@
         <v>44139</v>
       </c>
       <c r="B267">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C267">
         <v>28</v>
@@ -17894,7 +17894,7 @@
         <v>42</v>
       </c>
       <c r="J267">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -17915,7 +17915,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R267">
         <v>4</v>
@@ -17927,7 +17927,7 @@
         <v>4</v>
       </c>
       <c r="U267">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
@@ -17959,7 +17959,7 @@
         <v>32</v>
       </c>
       <c r="J268">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K268">
         <v>3</v>
@@ -17992,7 +17992,7 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
@@ -18000,7 +18000,7 @@
         <v>44141</v>
       </c>
       <c r="B269">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C269">
         <v>36</v>
@@ -18024,7 +18024,7 @@
         <v>39</v>
       </c>
       <c r="J269">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -18057,7 +18057,7 @@
         <v>4</v>
       </c>
       <c r="U269">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
@@ -18083,13 +18083,13 @@
         <v>2</v>
       </c>
       <c r="H270">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I270">
         <v>32</v>
       </c>
       <c r="J270">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -18122,7 +18122,7 @@
         <v>3</v>
       </c>
       <c r="U270">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
@@ -18130,7 +18130,7 @@
         <v>44143</v>
       </c>
       <c r="B271">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C271">
         <v>26</v>
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="L271">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M271">
         <v>7</v>
@@ -18187,7 +18187,7 @@
         <v>3</v>
       </c>
       <c r="U271">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
@@ -18219,7 +18219,7 @@
         <v>37</v>
       </c>
       <c r="J272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K272">
         <v>2</v>
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
       <c r="U272">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
@@ -18284,7 +18284,7 @@
         <v>31</v>
       </c>
       <c r="J273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -18317,7 +18317,7 @@
         <v>5</v>
       </c>
       <c r="U273">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
@@ -18340,7 +18340,7 @@
         <v>2</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H274">
         <v>19</v>
@@ -18364,7 +18364,7 @@
         <v>16</v>
       </c>
       <c r="O274">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P274">
         <v>2</v>
@@ -18382,7 +18382,7 @@
         <v>4</v>
       </c>
       <c r="U274">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.25">
@@ -18390,10 +18390,10 @@
         <v>44147</v>
       </c>
       <c r="B275">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C275">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D275">
         <v>14</v>
@@ -18408,28 +18408,28 @@
         <v>4</v>
       </c>
       <c r="H275">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I275">
         <v>29</v>
       </c>
       <c r="J275">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K275">
         <v>2</v>
       </c>
       <c r="L275">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M275">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N275">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O275">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P275">
         <v>0</v>
@@ -18447,7 +18447,7 @@
         <v>2</v>
       </c>
       <c r="U275">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.25">
@@ -18455,10 +18455,10 @@
         <v>44148</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C276">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D276">
         <v>24</v>
@@ -18470,13 +18470,13 @@
         <v>1</v>
       </c>
       <c r="G276">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H276">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I276">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J276">
         <v>5</v>
@@ -18485,7 +18485,7 @@
         <v>1</v>
       </c>
       <c r="L276">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M276">
         <v>2</v>
@@ -18494,7 +18494,7 @@
         <v>8</v>
       </c>
       <c r="O276">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P276">
         <v>2</v>
@@ -18512,7 +18512,7 @@
         <v>2</v>
       </c>
       <c r="U276">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.25">
@@ -18520,10 +18520,10 @@
         <v>44149</v>
       </c>
       <c r="B277">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C277">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D277">
         <v>22</v>
@@ -18541,16 +18541,16 @@
         <v>4</v>
       </c>
       <c r="I277">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J277">
         <v>1</v>
       </c>
       <c r="K277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L277">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M277">
         <v>7</v>
@@ -18559,25 +18559,25 @@
         <v>11</v>
       </c>
       <c r="O277">
+        <v>8</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
         <v>6</v>
-      </c>
-      <c r="P277">
-        <v>0</v>
-      </c>
-      <c r="Q277">
-        <v>5</v>
       </c>
       <c r="R277">
         <v>8</v>
       </c>
       <c r="S277">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T277">
         <v>3</v>
       </c>
       <c r="U277">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
@@ -18585,10 +18585,10 @@
         <v>44150</v>
       </c>
       <c r="B278">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C278">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D278">
         <v>25</v>
@@ -18603,19 +18603,19 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I278">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K278">
         <v>0</v>
       </c>
       <c r="L278">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M278">
         <v>4</v>
@@ -18624,7 +18624,7 @@
         <v>5</v>
       </c>
       <c r="O278">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="P278">
         <v>1</v>
@@ -18633,7 +18633,7 @@
         <v>3</v>
       </c>
       <c r="R278">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S278">
         <v>11</v>
@@ -18642,7 +18642,7 @@
         <v>3</v>
       </c>
       <c r="U278">
-        <v>127</v>
+        <v>184</v>
       </c>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.25">
@@ -18650,68 +18650,133 @@
         <v>44151</v>
       </c>
       <c r="B279">
+        <v>21</v>
+      </c>
+      <c r="C279">
+        <v>33</v>
+      </c>
+      <c r="D279">
+        <v>9</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>5</v>
+      </c>
+      <c r="I279">
+        <v>28</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>13</v>
+      </c>
+      <c r="M279">
+        <v>7</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279">
+        <v>8</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>7</v>
+      </c>
+      <c r="R279">
         <v>6</v>
       </c>
-      <c r="C279">
-        <v>18</v>
-      </c>
-      <c r="D279">
-        <v>7</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>2</v>
-      </c>
-      <c r="H279">
-        <v>1</v>
-      </c>
-      <c r="I279">
-        <v>7</v>
-      </c>
-      <c r="J279">
-        <v>1</v>
-      </c>
-      <c r="K279">
-        <v>0</v>
-      </c>
-      <c r="L279">
-        <v>1</v>
-      </c>
-      <c r="M279">
-        <v>5</v>
-      </c>
-      <c r="N279">
-        <v>4</v>
-      </c>
-      <c r="O279">
-        <v>0</v>
-      </c>
-      <c r="P279">
-        <v>0</v>
-      </c>
-      <c r="Q279">
-        <v>1</v>
-      </c>
-      <c r="R279">
-        <v>2</v>
-      </c>
       <c r="S279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U279">
-        <v>58</v>
+        <v>150</v>
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280">
+        <v>25</v>
+      </c>
+      <c r="D280">
+        <v>14</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>9</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>4</v>
+      </c>
+      <c r="M280">
+        <v>8</v>
+      </c>
+      <c r="N280">
+        <v>12</v>
+      </c>
+      <c r="O280">
+        <v>1</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>3</v>
+      </c>
+      <c r="R280">
+        <v>3</v>
+      </c>
+      <c r="S280">
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <v>3</v>
+      </c>
+      <c r="U280">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>21</v>
       </c>
     </row>
